--- a/Trust Me Im a Cat.xlsx
+++ b/Trust Me Im a Cat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28108"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\Trust_me_Im_a_Cat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB696799-5C40-453B-86F4-E5C56EF4A36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74055F-4993-4632-B888-60BC34590B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="150">
   <si>
     <t>Gameweek</t>
   </si>
@@ -445,6 +445,48 @@
   </si>
   <si>
     <t>Kovacic</t>
+  </si>
+  <si>
+    <t>Mazraoui</t>
+  </si>
+  <si>
+    <t>Konate</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Dunk</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Mbeuma</t>
+  </si>
+  <si>
+    <t>Ui-jo</t>
+  </si>
+  <si>
+    <t>Forster</t>
+  </si>
+  <si>
+    <t>Akanji</t>
+  </si>
+  <si>
+    <t>Timber</t>
+  </si>
+  <si>
+    <t>Sterling</t>
+  </si>
+  <si>
+    <t>Ward-Prowse</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Nketiah</t>
   </si>
 </sst>
 </file>
@@ -816,13 +858,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F406"/>
+  <dimension ref="A1:F541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B465" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="F480" sqref="F480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8950,6 +8992,2706 @@
         <v>0</v>
       </c>
     </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>4</v>
+      </c>
+      <c r="B407" t="s">
+        <v>51</v>
+      </c>
+      <c r="C407" t="s">
+        <v>126</v>
+      </c>
+      <c r="D407" t="s">
+        <v>44</v>
+      </c>
+      <c r="E407" t="s">
+        <v>7</v>
+      </c>
+      <c r="F407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>4</v>
+      </c>
+      <c r="B408" t="s">
+        <v>51</v>
+      </c>
+      <c r="C408" t="s">
+        <v>127</v>
+      </c>
+      <c r="D408" t="s">
+        <v>27</v>
+      </c>
+      <c r="E408" t="s">
+        <v>7</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>4</v>
+      </c>
+      <c r="B409" t="s">
+        <v>51</v>
+      </c>
+      <c r="C409" t="s">
+        <v>136</v>
+      </c>
+      <c r="D409" t="s">
+        <v>11</v>
+      </c>
+      <c r="E409" t="s">
+        <v>8</v>
+      </c>
+      <c r="F409">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>4</v>
+      </c>
+      <c r="B410" t="s">
+        <v>51</v>
+      </c>
+      <c r="C410" t="s">
+        <v>30</v>
+      </c>
+      <c r="D410" t="s">
+        <v>14</v>
+      </c>
+      <c r="E410" t="s">
+        <v>8</v>
+      </c>
+      <c r="F410">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>4</v>
+      </c>
+      <c r="B411" t="s">
+        <v>51</v>
+      </c>
+      <c r="C411" t="s">
+        <v>128</v>
+      </c>
+      <c r="D411" t="s">
+        <v>33</v>
+      </c>
+      <c r="E411" t="s">
+        <v>8</v>
+      </c>
+      <c r="F411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>4</v>
+      </c>
+      <c r="B412" t="s">
+        <v>51</v>
+      </c>
+      <c r="C412" t="s">
+        <v>129</v>
+      </c>
+      <c r="D412" t="s">
+        <v>15</v>
+      </c>
+      <c r="E412" t="s">
+        <v>8</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>4</v>
+      </c>
+      <c r="B413" t="s">
+        <v>51</v>
+      </c>
+      <c r="C413" t="s">
+        <v>36</v>
+      </c>
+      <c r="D413" t="s">
+        <v>39</v>
+      </c>
+      <c r="E413" t="s">
+        <v>8</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>4</v>
+      </c>
+      <c r="B414" t="s">
+        <v>51</v>
+      </c>
+      <c r="C414" t="s">
+        <v>73</v>
+      </c>
+      <c r="D414" t="s">
+        <v>44</v>
+      </c>
+      <c r="E414" t="s">
+        <v>9</v>
+      </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>4</v>
+      </c>
+      <c r="B415" t="s">
+        <v>51</v>
+      </c>
+      <c r="C415" t="s">
+        <v>41</v>
+      </c>
+      <c r="D415" t="s">
+        <v>42</v>
+      </c>
+      <c r="E415" t="s">
+        <v>9</v>
+      </c>
+      <c r="F415">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>4</v>
+      </c>
+      <c r="B416" t="s">
+        <v>51</v>
+      </c>
+      <c r="C416" t="s">
+        <v>64</v>
+      </c>
+      <c r="D416" t="s">
+        <v>33</v>
+      </c>
+      <c r="E416" t="s">
+        <v>9</v>
+      </c>
+      <c r="F416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>4</v>
+      </c>
+      <c r="B417" t="s">
+        <v>51</v>
+      </c>
+      <c r="C417" t="s">
+        <v>72</v>
+      </c>
+      <c r="D417" t="s">
+        <v>14</v>
+      </c>
+      <c r="E417" t="s">
+        <v>9</v>
+      </c>
+      <c r="F417">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>4</v>
+      </c>
+      <c r="B418" t="s">
+        <v>51</v>
+      </c>
+      <c r="C418" t="s">
+        <v>67</v>
+      </c>
+      <c r="D418" t="s">
+        <v>63</v>
+      </c>
+      <c r="E418" t="s">
+        <v>9</v>
+      </c>
+      <c r="F418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>4</v>
+      </c>
+      <c r="B419" t="s">
+        <v>51</v>
+      </c>
+      <c r="C419" t="s">
+        <v>25</v>
+      </c>
+      <c r="D419" t="s">
+        <v>18</v>
+      </c>
+      <c r="E419" t="s">
+        <v>10</v>
+      </c>
+      <c r="F419">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>4</v>
+      </c>
+      <c r="B420" t="s">
+        <v>51</v>
+      </c>
+      <c r="C420" t="s">
+        <v>65</v>
+      </c>
+      <c r="D420" t="s">
+        <v>66</v>
+      </c>
+      <c r="E420" t="s">
+        <v>10</v>
+      </c>
+      <c r="F420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>4</v>
+      </c>
+      <c r="B421" t="s">
+        <v>51</v>
+      </c>
+      <c r="C421" t="s">
+        <v>103</v>
+      </c>
+      <c r="D421" t="s">
+        <v>15</v>
+      </c>
+      <c r="E421" t="s">
+        <v>10</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>4</v>
+      </c>
+      <c r="B422" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" t="s">
+        <v>28</v>
+      </c>
+      <c r="D422" t="s">
+        <v>29</v>
+      </c>
+      <c r="E422" t="s">
+        <v>7</v>
+      </c>
+      <c r="F422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>4</v>
+      </c>
+      <c r="B423" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423" t="s">
+        <v>50</v>
+      </c>
+      <c r="D423" t="s">
+        <v>34</v>
+      </c>
+      <c r="E423" t="s">
+        <v>7</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>4</v>
+      </c>
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" t="s">
+        <v>30</v>
+      </c>
+      <c r="D424" t="s">
+        <v>14</v>
+      </c>
+      <c r="E424" t="s">
+        <v>8</v>
+      </c>
+      <c r="F424">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>4</v>
+      </c>
+      <c r="B425" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" t="s">
+        <v>31</v>
+      </c>
+      <c r="D425" t="s">
+        <v>18</v>
+      </c>
+      <c r="E425" t="s">
+        <v>8</v>
+      </c>
+      <c r="F425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>4</v>
+      </c>
+      <c r="B426" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" t="s">
+        <v>32</v>
+      </c>
+      <c r="D426" t="s">
+        <v>33</v>
+      </c>
+      <c r="E426" t="s">
+        <v>8</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>4</v>
+      </c>
+      <c r="B427" t="s">
+        <v>6</v>
+      </c>
+      <c r="C427" t="s">
+        <v>35</v>
+      </c>
+      <c r="D427" t="s">
+        <v>17</v>
+      </c>
+      <c r="E427" t="s">
+        <v>8</v>
+      </c>
+      <c r="F427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>4</v>
+      </c>
+      <c r="B428" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428" t="s">
+        <v>36</v>
+      </c>
+      <c r="D428" t="s">
+        <v>39</v>
+      </c>
+      <c r="E428" t="s">
+        <v>8</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>4</v>
+      </c>
+      <c r="B429" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429" t="s">
+        <v>130</v>
+      </c>
+      <c r="D429" t="s">
+        <v>18</v>
+      </c>
+      <c r="E429" t="s">
+        <v>9</v>
+      </c>
+      <c r="F429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>4</v>
+      </c>
+      <c r="B430" t="s">
+        <v>6</v>
+      </c>
+      <c r="C430" t="s">
+        <v>41</v>
+      </c>
+      <c r="D430" t="s">
+        <v>42</v>
+      </c>
+      <c r="E430" t="s">
+        <v>9</v>
+      </c>
+      <c r="F430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>4</v>
+      </c>
+      <c r="B431" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431" t="s">
+        <v>43</v>
+      </c>
+      <c r="D431" t="s">
+        <v>44</v>
+      </c>
+      <c r="E431" t="s">
+        <v>9</v>
+      </c>
+      <c r="F431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>4</v>
+      </c>
+      <c r="B432" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432" t="s">
+        <v>45</v>
+      </c>
+      <c r="D432" t="s">
+        <v>17</v>
+      </c>
+      <c r="E432" t="s">
+        <v>9</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>4</v>
+      </c>
+      <c r="B433" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433" t="s">
+        <v>37</v>
+      </c>
+      <c r="D433" t="s">
+        <v>38</v>
+      </c>
+      <c r="E433" t="s">
+        <v>9</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>4</v>
+      </c>
+      <c r="B434" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" t="s">
+        <v>131</v>
+      </c>
+      <c r="D434" t="s">
+        <v>38</v>
+      </c>
+      <c r="E434" t="s">
+        <v>10</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>4</v>
+      </c>
+      <c r="B435" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435" t="s">
+        <v>47</v>
+      </c>
+      <c r="D435" t="s">
+        <v>33</v>
+      </c>
+      <c r="E435" t="s">
+        <v>10</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>4</v>
+      </c>
+      <c r="B436" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" t="s">
+        <v>125</v>
+      </c>
+      <c r="D436" t="s">
+        <v>14</v>
+      </c>
+      <c r="E436" t="s">
+        <v>10</v>
+      </c>
+      <c r="F436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>4</v>
+      </c>
+      <c r="B437" t="s">
+        <v>52</v>
+      </c>
+      <c r="C437" t="s">
+        <v>59</v>
+      </c>
+      <c r="D437" t="s">
+        <v>13</v>
+      </c>
+      <c r="E437" t="s">
+        <v>7</v>
+      </c>
+      <c r="F437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>4</v>
+      </c>
+      <c r="B438" t="s">
+        <v>52</v>
+      </c>
+      <c r="C438" t="s">
+        <v>68</v>
+      </c>
+      <c r="D438" t="s">
+        <v>29</v>
+      </c>
+      <c r="E438" t="s">
+        <v>7</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>4</v>
+      </c>
+      <c r="B439" t="s">
+        <v>52</v>
+      </c>
+      <c r="C439" t="s">
+        <v>69</v>
+      </c>
+      <c r="D439" t="s">
+        <v>44</v>
+      </c>
+      <c r="E439" t="s">
+        <v>8</v>
+      </c>
+      <c r="F439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>4</v>
+      </c>
+      <c r="B440" t="s">
+        <v>52</v>
+      </c>
+      <c r="C440" t="s">
+        <v>70</v>
+      </c>
+      <c r="D440" t="s">
+        <v>66</v>
+      </c>
+      <c r="E440" t="s">
+        <v>8</v>
+      </c>
+      <c r="F440">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>4</v>
+      </c>
+      <c r="B441" t="s">
+        <v>52</v>
+      </c>
+      <c r="C441" t="s">
+        <v>71</v>
+      </c>
+      <c r="D441" t="s">
+        <v>27</v>
+      </c>
+      <c r="E441" t="s">
+        <v>8</v>
+      </c>
+      <c r="F441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>4</v>
+      </c>
+      <c r="B442" t="s">
+        <v>52</v>
+      </c>
+      <c r="C442" t="s">
+        <v>36</v>
+      </c>
+      <c r="D442" t="s">
+        <v>39</v>
+      </c>
+      <c r="E442" t="s">
+        <v>8</v>
+      </c>
+      <c r="F442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>4</v>
+      </c>
+      <c r="B443" t="s">
+        <v>52</v>
+      </c>
+      <c r="C443" t="s">
+        <v>31</v>
+      </c>
+      <c r="D443" t="s">
+        <v>18</v>
+      </c>
+      <c r="E443" t="s">
+        <v>8</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>4</v>
+      </c>
+      <c r="B444" t="s">
+        <v>52</v>
+      </c>
+      <c r="C444" t="s">
+        <v>72</v>
+      </c>
+      <c r="D444" t="s">
+        <v>14</v>
+      </c>
+      <c r="E444" t="s">
+        <v>9</v>
+      </c>
+      <c r="F444">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>4</v>
+      </c>
+      <c r="B445" t="s">
+        <v>52</v>
+      </c>
+      <c r="C445" t="s">
+        <v>73</v>
+      </c>
+      <c r="D445" t="s">
+        <v>44</v>
+      </c>
+      <c r="E445" t="s">
+        <v>9</v>
+      </c>
+      <c r="F445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>4</v>
+      </c>
+      <c r="B446" t="s">
+        <v>52</v>
+      </c>
+      <c r="C446" t="s">
+        <v>74</v>
+      </c>
+      <c r="D446" t="s">
+        <v>13</v>
+      </c>
+      <c r="E446" t="s">
+        <v>9</v>
+      </c>
+      <c r="F446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>4</v>
+      </c>
+      <c r="B447" t="s">
+        <v>52</v>
+      </c>
+      <c r="C447" t="s">
+        <v>75</v>
+      </c>
+      <c r="D447" t="s">
+        <v>42</v>
+      </c>
+      <c r="E447" t="s">
+        <v>9</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>4</v>
+      </c>
+      <c r="B448" t="s">
+        <v>52</v>
+      </c>
+      <c r="C448" t="s">
+        <v>76</v>
+      </c>
+      <c r="D448" t="s">
+        <v>27</v>
+      </c>
+      <c r="E448" t="s">
+        <v>9</v>
+      </c>
+      <c r="F448">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>4</v>
+      </c>
+      <c r="B449" t="s">
+        <v>52</v>
+      </c>
+      <c r="C449" t="s">
+        <v>25</v>
+      </c>
+      <c r="D449" t="s">
+        <v>18</v>
+      </c>
+      <c r="E449" t="s">
+        <v>10</v>
+      </c>
+      <c r="F449">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>4</v>
+      </c>
+      <c r="B450" t="s">
+        <v>52</v>
+      </c>
+      <c r="C450" t="s">
+        <v>47</v>
+      </c>
+      <c r="D450" t="s">
+        <v>33</v>
+      </c>
+      <c r="E450" t="s">
+        <v>10</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>4</v>
+      </c>
+      <c r="B451" t="s">
+        <v>52</v>
+      </c>
+      <c r="C451" t="s">
+        <v>26</v>
+      </c>
+      <c r="D451" t="s">
+        <v>15</v>
+      </c>
+      <c r="E451" t="s">
+        <v>10</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>4</v>
+      </c>
+      <c r="B452" t="s">
+        <v>53</v>
+      </c>
+      <c r="C452" t="s">
+        <v>77</v>
+      </c>
+      <c r="D452" t="s">
+        <v>14</v>
+      </c>
+      <c r="E452" t="s">
+        <v>7</v>
+      </c>
+      <c r="F452">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>4</v>
+      </c>
+      <c r="B453" t="s">
+        <v>53</v>
+      </c>
+      <c r="C453" t="s">
+        <v>78</v>
+      </c>
+      <c r="D453" t="s">
+        <v>13</v>
+      </c>
+      <c r="E453" t="s">
+        <v>7</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>4</v>
+      </c>
+      <c r="B454" t="s">
+        <v>53</v>
+      </c>
+      <c r="C454" t="s">
+        <v>31</v>
+      </c>
+      <c r="D454" t="s">
+        <v>18</v>
+      </c>
+      <c r="E454" t="s">
+        <v>8</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>4</v>
+      </c>
+      <c r="B455" t="s">
+        <v>53</v>
+      </c>
+      <c r="C455" t="s">
+        <v>69</v>
+      </c>
+      <c r="D455" t="s">
+        <v>44</v>
+      </c>
+      <c r="E455" t="s">
+        <v>8</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>4</v>
+      </c>
+      <c r="B456" t="s">
+        <v>53</v>
+      </c>
+      <c r="C456" t="s">
+        <v>32</v>
+      </c>
+      <c r="D456" t="s">
+        <v>33</v>
+      </c>
+      <c r="E456" t="s">
+        <v>8</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>4</v>
+      </c>
+      <c r="B457" t="s">
+        <v>53</v>
+      </c>
+      <c r="C457" t="s">
+        <v>119</v>
+      </c>
+      <c r="D457" t="s">
+        <v>12</v>
+      </c>
+      <c r="E457" t="s">
+        <v>8</v>
+      </c>
+      <c r="F457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>4</v>
+      </c>
+      <c r="B458" t="s">
+        <v>53</v>
+      </c>
+      <c r="C458" t="s">
+        <v>79</v>
+      </c>
+      <c r="D458" t="s">
+        <v>33</v>
+      </c>
+      <c r="E458" t="s">
+        <v>8</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>4</v>
+      </c>
+      <c r="B459" t="s">
+        <v>53</v>
+      </c>
+      <c r="C459" t="s">
+        <v>41</v>
+      </c>
+      <c r="D459" t="s">
+        <v>42</v>
+      </c>
+      <c r="E459" t="s">
+        <v>9</v>
+      </c>
+      <c r="F459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>4</v>
+      </c>
+      <c r="B460" t="s">
+        <v>53</v>
+      </c>
+      <c r="C460" t="s">
+        <v>64</v>
+      </c>
+      <c r="D460" t="s">
+        <v>33</v>
+      </c>
+      <c r="E460" t="s">
+        <v>9</v>
+      </c>
+      <c r="F460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>4</v>
+      </c>
+      <c r="B461" t="s">
+        <v>53</v>
+      </c>
+      <c r="C461" t="s">
+        <v>80</v>
+      </c>
+      <c r="D461" t="s">
+        <v>11</v>
+      </c>
+      <c r="E461" t="s">
+        <v>9</v>
+      </c>
+      <c r="F461">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>4</v>
+      </c>
+      <c r="B462" t="s">
+        <v>53</v>
+      </c>
+      <c r="C462" t="s">
+        <v>23</v>
+      </c>
+      <c r="D462" t="s">
+        <v>11</v>
+      </c>
+      <c r="E462" t="s">
+        <v>9</v>
+      </c>
+      <c r="F462">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>4</v>
+      </c>
+      <c r="B463" t="s">
+        <v>53</v>
+      </c>
+      <c r="C463" t="s">
+        <v>37</v>
+      </c>
+      <c r="D463" t="s">
+        <v>38</v>
+      </c>
+      <c r="E463" t="s">
+        <v>9</v>
+      </c>
+      <c r="F463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>4</v>
+      </c>
+      <c r="B464" t="s">
+        <v>53</v>
+      </c>
+      <c r="C464" t="s">
+        <v>25</v>
+      </c>
+      <c r="D464" t="s">
+        <v>81</v>
+      </c>
+      <c r="E464" t="s">
+        <v>10</v>
+      </c>
+      <c r="F464">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>4</v>
+      </c>
+      <c r="B465" t="s">
+        <v>53</v>
+      </c>
+      <c r="C465" t="s">
+        <v>132</v>
+      </c>
+      <c r="D465" t="s">
+        <v>15</v>
+      </c>
+      <c r="E465" t="s">
+        <v>10</v>
+      </c>
+      <c r="F465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>4</v>
+      </c>
+      <c r="B466" t="s">
+        <v>53</v>
+      </c>
+      <c r="C466" t="s">
+        <v>124</v>
+      </c>
+      <c r="D466" t="s">
+        <v>11</v>
+      </c>
+      <c r="E466" t="s">
+        <v>10</v>
+      </c>
+      <c r="F466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>4</v>
+      </c>
+      <c r="B467" t="s">
+        <v>54</v>
+      </c>
+      <c r="C467" t="s">
+        <v>77</v>
+      </c>
+      <c r="D467" t="s">
+        <v>14</v>
+      </c>
+      <c r="E467" t="s">
+        <v>7</v>
+      </c>
+      <c r="F467">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>4</v>
+      </c>
+      <c r="B468" t="s">
+        <v>54</v>
+      </c>
+      <c r="C468" t="s">
+        <v>85</v>
+      </c>
+      <c r="D468" t="s">
+        <v>15</v>
+      </c>
+      <c r="E468" t="s">
+        <v>7</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>4</v>
+      </c>
+      <c r="B469" t="s">
+        <v>54</v>
+      </c>
+      <c r="C469" t="s">
+        <v>31</v>
+      </c>
+      <c r="D469" t="s">
+        <v>18</v>
+      </c>
+      <c r="E469" t="s">
+        <v>8</v>
+      </c>
+      <c r="F469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>4</v>
+      </c>
+      <c r="B470" t="s">
+        <v>54</v>
+      </c>
+      <c r="C470" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470" t="s">
+        <v>27</v>
+      </c>
+      <c r="E470" t="s">
+        <v>8</v>
+      </c>
+      <c r="F470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>4</v>
+      </c>
+      <c r="B471" t="s">
+        <v>54</v>
+      </c>
+      <c r="C471" t="s">
+        <v>137</v>
+      </c>
+      <c r="D471" t="s">
+        <v>44</v>
+      </c>
+      <c r="E471" t="s">
+        <v>8</v>
+      </c>
+      <c r="F471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>4</v>
+      </c>
+      <c r="B472" t="s">
+        <v>54</v>
+      </c>
+      <c r="C472" t="s">
+        <v>87</v>
+      </c>
+      <c r="D472" t="s">
+        <v>63</v>
+      </c>
+      <c r="E472" t="s">
+        <v>8</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>4</v>
+      </c>
+      <c r="B473" t="s">
+        <v>54</v>
+      </c>
+      <c r="C473" t="s">
+        <v>36</v>
+      </c>
+      <c r="D473" t="s">
+        <v>39</v>
+      </c>
+      <c r="E473" t="s">
+        <v>8</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>4</v>
+      </c>
+      <c r="B474" t="s">
+        <v>54</v>
+      </c>
+      <c r="C474" t="s">
+        <v>73</v>
+      </c>
+      <c r="D474" t="s">
+        <v>44</v>
+      </c>
+      <c r="E474" t="s">
+        <v>9</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>4</v>
+      </c>
+      <c r="B475" t="s">
+        <v>54</v>
+      </c>
+      <c r="C475" t="s">
+        <v>133</v>
+      </c>
+      <c r="D475" t="s">
+        <v>16</v>
+      </c>
+      <c r="E475" t="s">
+        <v>9</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>4</v>
+      </c>
+      <c r="B476" t="s">
+        <v>54</v>
+      </c>
+      <c r="C476" t="s">
+        <v>21</v>
+      </c>
+      <c r="D476" t="s">
+        <v>11</v>
+      </c>
+      <c r="E476" t="s">
+        <v>9</v>
+      </c>
+      <c r="F476">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>4</v>
+      </c>
+      <c r="B477" t="s">
+        <v>54</v>
+      </c>
+      <c r="C477" t="s">
+        <v>74</v>
+      </c>
+      <c r="D477" t="s">
+        <v>13</v>
+      </c>
+      <c r="E477" t="s">
+        <v>9</v>
+      </c>
+      <c r="F477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>4</v>
+      </c>
+      <c r="B478" t="s">
+        <v>54</v>
+      </c>
+      <c r="C478" t="s">
+        <v>88</v>
+      </c>
+      <c r="D478" t="s">
+        <v>16</v>
+      </c>
+      <c r="E478" t="s">
+        <v>9</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>4</v>
+      </c>
+      <c r="B479" t="s">
+        <v>54</v>
+      </c>
+      <c r="C479" t="s">
+        <v>115</v>
+      </c>
+      <c r="D479" t="s">
+        <v>63</v>
+      </c>
+      <c r="E479" t="s">
+        <v>10</v>
+      </c>
+      <c r="F479">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>4</v>
+      </c>
+      <c r="B480" t="s">
+        <v>54</v>
+      </c>
+      <c r="C480" t="s">
+        <v>125</v>
+      </c>
+      <c r="D480" t="s">
+        <v>14</v>
+      </c>
+      <c r="E480" t="s">
+        <v>10</v>
+      </c>
+      <c r="F480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>4</v>
+      </c>
+      <c r="B481" t="s">
+        <v>54</v>
+      </c>
+      <c r="C481" t="s">
+        <v>25</v>
+      </c>
+      <c r="D481" t="s">
+        <v>18</v>
+      </c>
+      <c r="E481" t="s">
+        <v>10</v>
+      </c>
+      <c r="F481">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>4</v>
+      </c>
+      <c r="B482" t="s">
+        <v>55</v>
+      </c>
+      <c r="C482" t="s">
+        <v>59</v>
+      </c>
+      <c r="D482" t="s">
+        <v>61</v>
+      </c>
+      <c r="E482" t="s">
+        <v>7</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>4</v>
+      </c>
+      <c r="B483" t="s">
+        <v>55</v>
+      </c>
+      <c r="C483" t="s">
+        <v>98</v>
+      </c>
+      <c r="D483" t="s">
+        <v>17</v>
+      </c>
+      <c r="E483" t="s">
+        <v>7</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>4</v>
+      </c>
+      <c r="B484" t="s">
+        <v>55</v>
+      </c>
+      <c r="C484" t="s">
+        <v>138</v>
+      </c>
+      <c r="D484" t="s">
+        <v>13</v>
+      </c>
+      <c r="E484" t="s">
+        <v>8</v>
+      </c>
+      <c r="F484">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>4</v>
+      </c>
+      <c r="B485" t="s">
+        <v>55</v>
+      </c>
+      <c r="C485" t="s">
+        <v>69</v>
+      </c>
+      <c r="D485" t="s">
+        <v>44</v>
+      </c>
+      <c r="E485" t="s">
+        <v>8</v>
+      </c>
+      <c r="F485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>4</v>
+      </c>
+      <c r="B486" t="s">
+        <v>55</v>
+      </c>
+      <c r="C486" t="s">
+        <v>139</v>
+      </c>
+      <c r="D486" t="s">
+        <v>15</v>
+      </c>
+      <c r="E486" t="s">
+        <v>8</v>
+      </c>
+      <c r="F486">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>4</v>
+      </c>
+      <c r="B487" t="s">
+        <v>55</v>
+      </c>
+      <c r="C487" t="s">
+        <v>140</v>
+      </c>
+      <c r="D487" t="s">
+        <v>16</v>
+      </c>
+      <c r="E487" t="s">
+        <v>8</v>
+      </c>
+      <c r="F487">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>4</v>
+      </c>
+      <c r="B488" t="s">
+        <v>55</v>
+      </c>
+      <c r="C488" t="s">
+        <v>32</v>
+      </c>
+      <c r="D488" t="s">
+        <v>33</v>
+      </c>
+      <c r="E488" t="s">
+        <v>8</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>4</v>
+      </c>
+      <c r="B489" t="s">
+        <v>55</v>
+      </c>
+      <c r="C489" t="s">
+        <v>141</v>
+      </c>
+      <c r="D489" t="s">
+        <v>29</v>
+      </c>
+      <c r="E489" t="s">
+        <v>9</v>
+      </c>
+      <c r="F489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>4</v>
+      </c>
+      <c r="B490" t="s">
+        <v>55</v>
+      </c>
+      <c r="C490" t="s">
+        <v>74</v>
+      </c>
+      <c r="D490" t="s">
+        <v>13</v>
+      </c>
+      <c r="E490" t="s">
+        <v>9</v>
+      </c>
+      <c r="F490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>4</v>
+      </c>
+      <c r="B491" t="s">
+        <v>55</v>
+      </c>
+      <c r="C491" t="s">
+        <v>67</v>
+      </c>
+      <c r="D491" t="s">
+        <v>63</v>
+      </c>
+      <c r="E491" t="s">
+        <v>9</v>
+      </c>
+      <c r="F491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>4</v>
+      </c>
+      <c r="B492" t="s">
+        <v>55</v>
+      </c>
+      <c r="C492" t="s">
+        <v>21</v>
+      </c>
+      <c r="D492" t="s">
+        <v>11</v>
+      </c>
+      <c r="E492" t="s">
+        <v>9</v>
+      </c>
+      <c r="F492">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>4</v>
+      </c>
+      <c r="B493" t="s">
+        <v>55</v>
+      </c>
+      <c r="C493" t="s">
+        <v>43</v>
+      </c>
+      <c r="D493" t="s">
+        <v>44</v>
+      </c>
+      <c r="E493" t="s">
+        <v>9</v>
+      </c>
+      <c r="F493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>4</v>
+      </c>
+      <c r="B494" t="s">
+        <v>55</v>
+      </c>
+      <c r="C494" t="s">
+        <v>25</v>
+      </c>
+      <c r="D494" t="s">
+        <v>93</v>
+      </c>
+      <c r="E494" t="s">
+        <v>10</v>
+      </c>
+      <c r="F494">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>4</v>
+      </c>
+      <c r="B495" t="s">
+        <v>55</v>
+      </c>
+      <c r="C495" t="s">
+        <v>142</v>
+      </c>
+      <c r="D495" t="s">
+        <v>66</v>
+      </c>
+      <c r="E495" t="s">
+        <v>10</v>
+      </c>
+      <c r="F495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>4</v>
+      </c>
+      <c r="B496" t="s">
+        <v>55</v>
+      </c>
+      <c r="C496" t="s">
+        <v>103</v>
+      </c>
+      <c r="D496" t="s">
+        <v>15</v>
+      </c>
+      <c r="E496" t="s">
+        <v>10</v>
+      </c>
+      <c r="F496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>4</v>
+      </c>
+      <c r="B497" t="s">
+        <v>56</v>
+      </c>
+      <c r="C497" t="s">
+        <v>95</v>
+      </c>
+      <c r="D497" t="s">
+        <v>12</v>
+      </c>
+      <c r="E497" t="s">
+        <v>7</v>
+      </c>
+      <c r="F497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>4</v>
+      </c>
+      <c r="B498" t="s">
+        <v>56</v>
+      </c>
+      <c r="C498" t="s">
+        <v>98</v>
+      </c>
+      <c r="D498" t="s">
+        <v>17</v>
+      </c>
+      <c r="E498" t="s">
+        <v>7</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>4</v>
+      </c>
+      <c r="B499" t="s">
+        <v>56</v>
+      </c>
+      <c r="C499" t="s">
+        <v>137</v>
+      </c>
+      <c r="D499" t="s">
+        <v>44</v>
+      </c>
+      <c r="E499" t="s">
+        <v>8</v>
+      </c>
+      <c r="F499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>4</v>
+      </c>
+      <c r="B500" t="s">
+        <v>56</v>
+      </c>
+      <c r="C500" t="s">
+        <v>91</v>
+      </c>
+      <c r="D500" t="s">
+        <v>12</v>
+      </c>
+      <c r="E500" t="s">
+        <v>8</v>
+      </c>
+      <c r="F500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>4</v>
+      </c>
+      <c r="B501" t="s">
+        <v>56</v>
+      </c>
+      <c r="C501" t="s">
+        <v>31</v>
+      </c>
+      <c r="D501" t="s">
+        <v>18</v>
+      </c>
+      <c r="E501" t="s">
+        <v>8</v>
+      </c>
+      <c r="F501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>4</v>
+      </c>
+      <c r="B502" t="s">
+        <v>56</v>
+      </c>
+      <c r="C502" t="s">
+        <v>94</v>
+      </c>
+      <c r="D502" t="s">
+        <v>13</v>
+      </c>
+      <c r="E502" t="s">
+        <v>8</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>4</v>
+      </c>
+      <c r="B503" t="s">
+        <v>56</v>
+      </c>
+      <c r="C503" t="s">
+        <v>97</v>
+      </c>
+      <c r="D503" t="s">
+        <v>11</v>
+      </c>
+      <c r="E503" t="s">
+        <v>8</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>4</v>
+      </c>
+      <c r="B504" t="s">
+        <v>56</v>
+      </c>
+      <c r="C504" t="s">
+        <v>99</v>
+      </c>
+      <c r="D504" t="s">
+        <v>42</v>
+      </c>
+      <c r="E504" t="s">
+        <v>9</v>
+      </c>
+      <c r="F504">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>4</v>
+      </c>
+      <c r="B505" t="s">
+        <v>56</v>
+      </c>
+      <c r="C505" t="s">
+        <v>41</v>
+      </c>
+      <c r="D505" t="s">
+        <v>42</v>
+      </c>
+      <c r="E505" t="s">
+        <v>9</v>
+      </c>
+      <c r="F505">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>4</v>
+      </c>
+      <c r="B506" t="s">
+        <v>56</v>
+      </c>
+      <c r="C506" t="s">
+        <v>102</v>
+      </c>
+      <c r="D506" t="s">
+        <v>17</v>
+      </c>
+      <c r="E506" t="s">
+        <v>9</v>
+      </c>
+      <c r="F506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>4</v>
+      </c>
+      <c r="B507" t="s">
+        <v>56</v>
+      </c>
+      <c r="C507" t="s">
+        <v>101</v>
+      </c>
+      <c r="D507" t="s">
+        <v>44</v>
+      </c>
+      <c r="E507" t="s">
+        <v>9</v>
+      </c>
+      <c r="F507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>4</v>
+      </c>
+      <c r="B508" t="s">
+        <v>56</v>
+      </c>
+      <c r="C508" t="s">
+        <v>100</v>
+      </c>
+      <c r="D508" t="s">
+        <v>14</v>
+      </c>
+      <c r="E508" t="s">
+        <v>9</v>
+      </c>
+      <c r="F508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>4</v>
+      </c>
+      <c r="B509" t="s">
+        <v>56</v>
+      </c>
+      <c r="C509" t="s">
+        <v>25</v>
+      </c>
+      <c r="D509" t="s">
+        <v>18</v>
+      </c>
+      <c r="E509" t="s">
+        <v>10</v>
+      </c>
+      <c r="F509">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>4</v>
+      </c>
+      <c r="B510" t="s">
+        <v>56</v>
+      </c>
+      <c r="C510" t="s">
+        <v>103</v>
+      </c>
+      <c r="D510" t="s">
+        <v>15</v>
+      </c>
+      <c r="E510" t="s">
+        <v>10</v>
+      </c>
+      <c r="F510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>4</v>
+      </c>
+      <c r="B511" t="s">
+        <v>56</v>
+      </c>
+      <c r="C511" t="s">
+        <v>46</v>
+      </c>
+      <c r="D511" t="s">
+        <v>12</v>
+      </c>
+      <c r="E511" t="s">
+        <v>10</v>
+      </c>
+      <c r="F511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>4</v>
+      </c>
+      <c r="B512" t="s">
+        <v>57</v>
+      </c>
+      <c r="C512" t="s">
+        <v>85</v>
+      </c>
+      <c r="D512" t="s">
+        <v>16</v>
+      </c>
+      <c r="E512" t="s">
+        <v>7</v>
+      </c>
+      <c r="F512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>4</v>
+      </c>
+      <c r="B513" t="s">
+        <v>57</v>
+      </c>
+      <c r="C513" t="s">
+        <v>108</v>
+      </c>
+      <c r="D513" t="s">
+        <v>38</v>
+      </c>
+      <c r="E513" t="s">
+        <v>7</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>4</v>
+      </c>
+      <c r="B514" t="s">
+        <v>57</v>
+      </c>
+      <c r="C514" t="s">
+        <v>110</v>
+      </c>
+      <c r="D514" t="s">
+        <v>14</v>
+      </c>
+      <c r="E514" t="s">
+        <v>8</v>
+      </c>
+      <c r="F514">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>4</v>
+      </c>
+      <c r="B515" t="s">
+        <v>57</v>
+      </c>
+      <c r="C515" t="s">
+        <v>111</v>
+      </c>
+      <c r="D515" t="s">
+        <v>63</v>
+      </c>
+      <c r="E515" t="s">
+        <v>8</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>4</v>
+      </c>
+      <c r="B516" t="s">
+        <v>57</v>
+      </c>
+      <c r="C516" t="s">
+        <v>19</v>
+      </c>
+      <c r="D516" t="s">
+        <v>12</v>
+      </c>
+      <c r="E516" t="s">
+        <v>8</v>
+      </c>
+      <c r="F516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>4</v>
+      </c>
+      <c r="B517" t="s">
+        <v>57</v>
+      </c>
+      <c r="C517" t="s">
+        <v>36</v>
+      </c>
+      <c r="D517" t="s">
+        <v>39</v>
+      </c>
+      <c r="E517" t="s">
+        <v>8</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>4</v>
+      </c>
+      <c r="B518" t="s">
+        <v>57</v>
+      </c>
+      <c r="C518" t="s">
+        <v>109</v>
+      </c>
+      <c r="D518" t="s">
+        <v>11</v>
+      </c>
+      <c r="E518" t="s">
+        <v>8</v>
+      </c>
+      <c r="F518">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>4</v>
+      </c>
+      <c r="B519" t="s">
+        <v>57</v>
+      </c>
+      <c r="C519" t="s">
+        <v>41</v>
+      </c>
+      <c r="D519" t="s">
+        <v>42</v>
+      </c>
+      <c r="E519" t="s">
+        <v>9</v>
+      </c>
+      <c r="F519">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>4</v>
+      </c>
+      <c r="B520" t="s">
+        <v>57</v>
+      </c>
+      <c r="C520" t="s">
+        <v>76</v>
+      </c>
+      <c r="D520" t="s">
+        <v>27</v>
+      </c>
+      <c r="E520" t="s">
+        <v>9</v>
+      </c>
+      <c r="F520">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>4</v>
+      </c>
+      <c r="B521" t="s">
+        <v>57</v>
+      </c>
+      <c r="C521" t="s">
+        <v>113</v>
+      </c>
+      <c r="D521" t="s">
+        <v>14</v>
+      </c>
+      <c r="E521" t="s">
+        <v>9</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>4</v>
+      </c>
+      <c r="B522" t="s">
+        <v>57</v>
+      </c>
+      <c r="C522" t="s">
+        <v>64</v>
+      </c>
+      <c r="D522" t="s">
+        <v>33</v>
+      </c>
+      <c r="E522" t="s">
+        <v>9</v>
+      </c>
+      <c r="F522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>4</v>
+      </c>
+      <c r="B523" t="s">
+        <v>57</v>
+      </c>
+      <c r="C523" t="s">
+        <v>37</v>
+      </c>
+      <c r="D523" t="s">
+        <v>38</v>
+      </c>
+      <c r="E523" t="s">
+        <v>9</v>
+      </c>
+      <c r="F523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>4</v>
+      </c>
+      <c r="B524" t="s">
+        <v>57</v>
+      </c>
+      <c r="C524" t="s">
+        <v>116</v>
+      </c>
+      <c r="D524" t="s">
+        <v>29</v>
+      </c>
+      <c r="E524" t="s">
+        <v>10</v>
+      </c>
+      <c r="F524">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>4</v>
+      </c>
+      <c r="B525" t="s">
+        <v>57</v>
+      </c>
+      <c r="C525" t="s">
+        <v>115</v>
+      </c>
+      <c r="D525" t="s">
+        <v>63</v>
+      </c>
+      <c r="E525" t="s">
+        <v>10</v>
+      </c>
+      <c r="F525">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>4</v>
+      </c>
+      <c r="B526" t="s">
+        <v>57</v>
+      </c>
+      <c r="C526" t="s">
+        <v>25</v>
+      </c>
+      <c r="D526" t="s">
+        <v>18</v>
+      </c>
+      <c r="E526" t="s">
+        <v>10</v>
+      </c>
+      <c r="F526">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>4</v>
+      </c>
+      <c r="B527" t="s">
+        <v>58</v>
+      </c>
+      <c r="C527" t="s">
+        <v>117</v>
+      </c>
+      <c r="D527" t="s">
+        <v>42</v>
+      </c>
+      <c r="E527" t="s">
+        <v>7</v>
+      </c>
+      <c r="F527">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>4</v>
+      </c>
+      <c r="B528" t="s">
+        <v>58</v>
+      </c>
+      <c r="C528" t="s">
+        <v>143</v>
+      </c>
+      <c r="D528" t="s">
+        <v>12</v>
+      </c>
+      <c r="E528" t="s">
+        <v>7</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>4</v>
+      </c>
+      <c r="B529" t="s">
+        <v>58</v>
+      </c>
+      <c r="C529" t="s">
+        <v>118</v>
+      </c>
+      <c r="D529" t="s">
+        <v>14</v>
+      </c>
+      <c r="E529" t="s">
+        <v>8</v>
+      </c>
+      <c r="F529">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>4</v>
+      </c>
+      <c r="B530" t="s">
+        <v>58</v>
+      </c>
+      <c r="C530" t="s">
+        <v>144</v>
+      </c>
+      <c r="D530" t="s">
+        <v>18</v>
+      </c>
+      <c r="E530" t="s">
+        <v>8</v>
+      </c>
+      <c r="F530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>4</v>
+      </c>
+      <c r="B531" t="s">
+        <v>58</v>
+      </c>
+      <c r="C531" t="s">
+        <v>97</v>
+      </c>
+      <c r="D531" t="s">
+        <v>11</v>
+      </c>
+      <c r="E531" t="s">
+        <v>8</v>
+      </c>
+      <c r="F531">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>4</v>
+      </c>
+      <c r="B532" t="s">
+        <v>58</v>
+      </c>
+      <c r="C532" t="s">
+        <v>119</v>
+      </c>
+      <c r="D532" t="s">
+        <v>12</v>
+      </c>
+      <c r="E532" t="s">
+        <v>8</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>4</v>
+      </c>
+      <c r="B533" t="s">
+        <v>58</v>
+      </c>
+      <c r="C533" t="s">
+        <v>145</v>
+      </c>
+      <c r="D533" t="s">
+        <v>14</v>
+      </c>
+      <c r="E533" t="s">
+        <v>8</v>
+      </c>
+      <c r="F533">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>4</v>
+      </c>
+      <c r="B534" t="s">
+        <v>58</v>
+      </c>
+      <c r="C534" t="s">
+        <v>146</v>
+      </c>
+      <c r="D534" t="s">
+        <v>14</v>
+      </c>
+      <c r="E534" t="s">
+        <v>9</v>
+      </c>
+      <c r="F534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>4</v>
+      </c>
+      <c r="B535" t="s">
+        <v>58</v>
+      </c>
+      <c r="C535" t="s">
+        <v>99</v>
+      </c>
+      <c r="D535" t="s">
+        <v>42</v>
+      </c>
+      <c r="E535" t="s">
+        <v>9</v>
+      </c>
+      <c r="F535">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>4</v>
+      </c>
+      <c r="B536" t="s">
+        <v>58</v>
+      </c>
+      <c r="C536" t="s">
+        <v>123</v>
+      </c>
+      <c r="D536" t="s">
+        <v>44</v>
+      </c>
+      <c r="E536" t="s">
+        <v>9</v>
+      </c>
+      <c r="F536">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>4</v>
+      </c>
+      <c r="B537" t="s">
+        <v>58</v>
+      </c>
+      <c r="C537" t="s">
+        <v>64</v>
+      </c>
+      <c r="D537" t="s">
+        <v>33</v>
+      </c>
+      <c r="E537" t="s">
+        <v>9</v>
+      </c>
+      <c r="F537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>4</v>
+      </c>
+      <c r="B538" t="s">
+        <v>58</v>
+      </c>
+      <c r="C538" t="s">
+        <v>147</v>
+      </c>
+      <c r="D538" t="s">
+        <v>66</v>
+      </c>
+      <c r="E538" t="s">
+        <v>9</v>
+      </c>
+      <c r="F538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>4</v>
+      </c>
+      <c r="B539" t="s">
+        <v>58</v>
+      </c>
+      <c r="C539" t="s">
+        <v>148</v>
+      </c>
+      <c r="D539" t="s">
+        <v>42</v>
+      </c>
+      <c r="E539" t="s">
+        <v>10</v>
+      </c>
+      <c r="F539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>4</v>
+      </c>
+      <c r="B540" t="s">
+        <v>58</v>
+      </c>
+      <c r="C540" t="s">
+        <v>25</v>
+      </c>
+      <c r="D540" t="s">
+        <v>18</v>
+      </c>
+      <c r="E540" t="s">
+        <v>10</v>
+      </c>
+      <c r="F540">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>4</v>
+      </c>
+      <c r="B541" t="s">
+        <v>58</v>
+      </c>
+      <c r="C541" t="s">
+        <v>149</v>
+      </c>
+      <c r="D541" t="s">
+        <v>13</v>
+      </c>
+      <c r="E541" t="s">
+        <v>10</v>
+      </c>
+      <c r="F541">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8957,10 +11699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9404,13 +12146,121 @@
         <v>165</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <f>SUM('Weekly Points'!F407:F421)+C29</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <f>SUM('Weekly Points'!F422:F436)+C30</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <f>SUM('Weekly Points'!F437:F451)+C31</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <f>SUM('Weekly Points'!F452:F466)+C32</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <f>SUM('Weekly Points'!F467:F481)+C33</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <f>SUM('Weekly Points'!F482:F496)+C34</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f>SUM('Weekly Points'!F497:F511)+C35</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <f>SUM('Weekly Points'!F512:F526)+C36</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <f>SUM('Weekly Points'!F527:F541)+C37</f>
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:I10">
     <sortCondition descending="1" ref="I2:I10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C11:C19 C20:C28 C29:C37" formulaRange="1"/>
+    <ignoredError sqref="C11:C19 C20:C28 C29:C36 C37:C46" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Trust Me Im a Cat.xlsx
+++ b/Trust Me Im a Cat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\Trust_me_Im_a_Cat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74055F-4993-4632-B888-60BC34590B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D27A648-B907-4020-B07D-8F87F81EB93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="157">
   <si>
     <t>Gameweek</t>
   </si>
@@ -487,6 +487,27 @@
   </si>
   <si>
     <t>Nketiah</t>
+  </si>
+  <si>
+    <t>Arrizaballago</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Areola</t>
+  </si>
+  <si>
+    <t>Cucurello</t>
+  </si>
+  <si>
+    <t>Murillo</t>
+  </si>
+  <si>
+    <t>Bowen</t>
+  </si>
+  <si>
+    <t>Smith-Rowe</t>
   </si>
 </sst>
 </file>
@@ -858,13 +879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F541"/>
+  <dimension ref="A1:F676"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B465" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B659" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F480" sqref="F480"/>
+      <selection pane="bottomRight" activeCell="F676" sqref="F662:F676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11692,6 +11713,2706 @@
         <v>0</v>
       </c>
     </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>5</v>
+      </c>
+      <c r="B542" t="s">
+        <v>51</v>
+      </c>
+      <c r="C542" t="s">
+        <v>77</v>
+      </c>
+      <c r="D542" t="s">
+        <v>14</v>
+      </c>
+      <c r="E542" t="s">
+        <v>7</v>
+      </c>
+      <c r="F542">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>5</v>
+      </c>
+      <c r="B543" t="s">
+        <v>51</v>
+      </c>
+      <c r="C543" t="s">
+        <v>127</v>
+      </c>
+      <c r="D543" t="s">
+        <v>27</v>
+      </c>
+      <c r="E543" t="s">
+        <v>7</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>5</v>
+      </c>
+      <c r="B544" t="s">
+        <v>51</v>
+      </c>
+      <c r="C544" t="s">
+        <v>136</v>
+      </c>
+      <c r="D544" t="s">
+        <v>11</v>
+      </c>
+      <c r="E544" t="s">
+        <v>8</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>5</v>
+      </c>
+      <c r="B545" t="s">
+        <v>51</v>
+      </c>
+      <c r="C545" t="s">
+        <v>30</v>
+      </c>
+      <c r="D545" t="s">
+        <v>14</v>
+      </c>
+      <c r="E545" t="s">
+        <v>8</v>
+      </c>
+      <c r="F545">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>5</v>
+      </c>
+      <c r="B546" t="s">
+        <v>51</v>
+      </c>
+      <c r="C546" t="s">
+        <v>128</v>
+      </c>
+      <c r="D546" t="s">
+        <v>33</v>
+      </c>
+      <c r="E546" t="s">
+        <v>8</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>5</v>
+      </c>
+      <c r="B547" t="s">
+        <v>51</v>
+      </c>
+      <c r="C547" t="s">
+        <v>129</v>
+      </c>
+      <c r="D547" t="s">
+        <v>15</v>
+      </c>
+      <c r="E547" t="s">
+        <v>8</v>
+      </c>
+      <c r="F547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>5</v>
+      </c>
+      <c r="B548" t="s">
+        <v>51</v>
+      </c>
+      <c r="C548" t="s">
+        <v>36</v>
+      </c>
+      <c r="D548" t="s">
+        <v>39</v>
+      </c>
+      <c r="E548" t="s">
+        <v>8</v>
+      </c>
+      <c r="F548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>5</v>
+      </c>
+      <c r="B549" t="s">
+        <v>51</v>
+      </c>
+      <c r="C549" t="s">
+        <v>73</v>
+      </c>
+      <c r="D549" t="s">
+        <v>44</v>
+      </c>
+      <c r="E549" t="s">
+        <v>9</v>
+      </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>5</v>
+      </c>
+      <c r="B550" t="s">
+        <v>51</v>
+      </c>
+      <c r="C550" t="s">
+        <v>41</v>
+      </c>
+      <c r="D550" t="s">
+        <v>42</v>
+      </c>
+      <c r="E550" t="s">
+        <v>9</v>
+      </c>
+      <c r="F550">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>5</v>
+      </c>
+      <c r="B551" t="s">
+        <v>51</v>
+      </c>
+      <c r="C551" t="s">
+        <v>64</v>
+      </c>
+      <c r="D551" t="s">
+        <v>33</v>
+      </c>
+      <c r="E551" t="s">
+        <v>9</v>
+      </c>
+      <c r="F551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>5</v>
+      </c>
+      <c r="B552" t="s">
+        <v>51</v>
+      </c>
+      <c r="C552" t="s">
+        <v>72</v>
+      </c>
+      <c r="D552" t="s">
+        <v>14</v>
+      </c>
+      <c r="E552" t="s">
+        <v>9</v>
+      </c>
+      <c r="F552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>5</v>
+      </c>
+      <c r="B553" t="s">
+        <v>51</v>
+      </c>
+      <c r="C553" t="s">
+        <v>67</v>
+      </c>
+      <c r="D553" t="s">
+        <v>63</v>
+      </c>
+      <c r="E553" t="s">
+        <v>9</v>
+      </c>
+      <c r="F553">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>5</v>
+      </c>
+      <c r="B554" t="s">
+        <v>51</v>
+      </c>
+      <c r="C554" t="s">
+        <v>25</v>
+      </c>
+      <c r="D554" t="s">
+        <v>18</v>
+      </c>
+      <c r="E554" t="s">
+        <v>10</v>
+      </c>
+      <c r="F554">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>5</v>
+      </c>
+      <c r="B555" t="s">
+        <v>51</v>
+      </c>
+      <c r="C555" t="s">
+        <v>65</v>
+      </c>
+      <c r="D555" t="s">
+        <v>66</v>
+      </c>
+      <c r="E555" t="s">
+        <v>10</v>
+      </c>
+      <c r="F555">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>5</v>
+      </c>
+      <c r="B556" t="s">
+        <v>51</v>
+      </c>
+      <c r="C556" t="s">
+        <v>103</v>
+      </c>
+      <c r="D556" t="s">
+        <v>15</v>
+      </c>
+      <c r="E556" t="s">
+        <v>10</v>
+      </c>
+      <c r="F556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>5</v>
+      </c>
+      <c r="B557" t="s">
+        <v>6</v>
+      </c>
+      <c r="C557" t="s">
+        <v>150</v>
+      </c>
+      <c r="D557" t="s">
+        <v>151</v>
+      </c>
+      <c r="E557" t="s">
+        <v>7</v>
+      </c>
+      <c r="F557">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>5</v>
+      </c>
+      <c r="B558" t="s">
+        <v>6</v>
+      </c>
+      <c r="C558" t="s">
+        <v>152</v>
+      </c>
+      <c r="D558" t="s">
+        <v>17</v>
+      </c>
+      <c r="E558" t="s">
+        <v>7</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>5</v>
+      </c>
+      <c r="B559" t="s">
+        <v>6</v>
+      </c>
+      <c r="C559" t="s">
+        <v>110</v>
+      </c>
+      <c r="D559" t="s">
+        <v>14</v>
+      </c>
+      <c r="E559" t="s">
+        <v>8</v>
+      </c>
+      <c r="F559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>5</v>
+      </c>
+      <c r="B560" t="s">
+        <v>6</v>
+      </c>
+      <c r="C560" t="s">
+        <v>153</v>
+      </c>
+      <c r="D560" t="s">
+        <v>42</v>
+      </c>
+      <c r="E560" t="s">
+        <v>8</v>
+      </c>
+      <c r="F560">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>5</v>
+      </c>
+      <c r="B561" t="s">
+        <v>6</v>
+      </c>
+      <c r="C561" t="s">
+        <v>119</v>
+      </c>
+      <c r="D561" t="s">
+        <v>12</v>
+      </c>
+      <c r="E561" t="s">
+        <v>8</v>
+      </c>
+      <c r="F561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>5</v>
+      </c>
+      <c r="B562" t="s">
+        <v>6</v>
+      </c>
+      <c r="C562" t="s">
+        <v>154</v>
+      </c>
+      <c r="D562" t="s">
+        <v>66</v>
+      </c>
+      <c r="E562" t="s">
+        <v>8</v>
+      </c>
+      <c r="F562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>5</v>
+      </c>
+      <c r="B563" t="s">
+        <v>6</v>
+      </c>
+      <c r="C563" t="s">
+        <v>109</v>
+      </c>
+      <c r="D563" t="s">
+        <v>11</v>
+      </c>
+      <c r="E563" t="s">
+        <v>8</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>5</v>
+      </c>
+      <c r="B564" t="s">
+        <v>6</v>
+      </c>
+      <c r="C564" t="s">
+        <v>155</v>
+      </c>
+      <c r="D564" t="s">
+        <v>17</v>
+      </c>
+      <c r="E564" t="s">
+        <v>9</v>
+      </c>
+      <c r="F564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>5</v>
+      </c>
+      <c r="B565" t="s">
+        <v>6</v>
+      </c>
+      <c r="C565" t="s">
+        <v>41</v>
+      </c>
+      <c r="D565" t="s">
+        <v>42</v>
+      </c>
+      <c r="E565" t="s">
+        <v>9</v>
+      </c>
+      <c r="F565">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>5</v>
+      </c>
+      <c r="B566" t="s">
+        <v>6</v>
+      </c>
+      <c r="C566" t="s">
+        <v>80</v>
+      </c>
+      <c r="D566" t="s">
+        <v>11</v>
+      </c>
+      <c r="E566" t="s">
+        <v>9</v>
+      </c>
+      <c r="F566">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>5</v>
+      </c>
+      <c r="B567" t="s">
+        <v>6</v>
+      </c>
+      <c r="C567" t="s">
+        <v>156</v>
+      </c>
+      <c r="D567" t="s">
+        <v>27</v>
+      </c>
+      <c r="E567" t="s">
+        <v>9</v>
+      </c>
+      <c r="F567">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>5</v>
+      </c>
+      <c r="B568" t="s">
+        <v>6</v>
+      </c>
+      <c r="C568" t="s">
+        <v>99</v>
+      </c>
+      <c r="D568" t="s">
+        <v>42</v>
+      </c>
+      <c r="E568" t="s">
+        <v>9</v>
+      </c>
+      <c r="F568">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>5</v>
+      </c>
+      <c r="B569" t="s">
+        <v>6</v>
+      </c>
+      <c r="C569" t="s">
+        <v>26</v>
+      </c>
+      <c r="D569" t="s">
+        <v>15</v>
+      </c>
+      <c r="E569" t="s">
+        <v>10</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>5</v>
+      </c>
+      <c r="B570" t="s">
+        <v>6</v>
+      </c>
+      <c r="C570" t="s">
+        <v>25</v>
+      </c>
+      <c r="D570" t="s">
+        <v>18</v>
+      </c>
+      <c r="E570" t="s">
+        <v>10</v>
+      </c>
+      <c r="F570">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>5</v>
+      </c>
+      <c r="B571" t="s">
+        <v>6</v>
+      </c>
+      <c r="C571" t="s">
+        <v>125</v>
+      </c>
+      <c r="D571" t="s">
+        <v>14</v>
+      </c>
+      <c r="E571" t="s">
+        <v>10</v>
+      </c>
+      <c r="F571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>5</v>
+      </c>
+      <c r="B572" t="s">
+        <v>52</v>
+      </c>
+      <c r="C572" t="s">
+        <v>59</v>
+      </c>
+      <c r="D572" t="s">
+        <v>13</v>
+      </c>
+      <c r="E572" t="s">
+        <v>7</v>
+      </c>
+      <c r="F572">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>5</v>
+      </c>
+      <c r="B573" t="s">
+        <v>52</v>
+      </c>
+      <c r="C573" t="s">
+        <v>68</v>
+      </c>
+      <c r="D573" t="s">
+        <v>29</v>
+      </c>
+      <c r="E573" t="s">
+        <v>7</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>5</v>
+      </c>
+      <c r="B574" t="s">
+        <v>52</v>
+      </c>
+      <c r="C574" t="s">
+        <v>69</v>
+      </c>
+      <c r="D574" t="s">
+        <v>44</v>
+      </c>
+      <c r="E574" t="s">
+        <v>8</v>
+      </c>
+      <c r="F574">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>5</v>
+      </c>
+      <c r="B575" t="s">
+        <v>52</v>
+      </c>
+      <c r="C575" t="s">
+        <v>70</v>
+      </c>
+      <c r="D575" t="s">
+        <v>66</v>
+      </c>
+      <c r="E575" t="s">
+        <v>8</v>
+      </c>
+      <c r="F575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>5</v>
+      </c>
+      <c r="B576" t="s">
+        <v>52</v>
+      </c>
+      <c r="C576" t="s">
+        <v>71</v>
+      </c>
+      <c r="D576" t="s">
+        <v>27</v>
+      </c>
+      <c r="E576" t="s">
+        <v>8</v>
+      </c>
+      <c r="F576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>5</v>
+      </c>
+      <c r="B577" t="s">
+        <v>52</v>
+      </c>
+      <c r="C577" t="s">
+        <v>36</v>
+      </c>
+      <c r="D577" t="s">
+        <v>39</v>
+      </c>
+      <c r="E577" t="s">
+        <v>8</v>
+      </c>
+      <c r="F577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>5</v>
+      </c>
+      <c r="B578" t="s">
+        <v>52</v>
+      </c>
+      <c r="C578" t="s">
+        <v>31</v>
+      </c>
+      <c r="D578" t="s">
+        <v>18</v>
+      </c>
+      <c r="E578" t="s">
+        <v>8</v>
+      </c>
+      <c r="F578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>5</v>
+      </c>
+      <c r="B579" t="s">
+        <v>52</v>
+      </c>
+      <c r="C579" t="s">
+        <v>72</v>
+      </c>
+      <c r="D579" t="s">
+        <v>14</v>
+      </c>
+      <c r="E579" t="s">
+        <v>9</v>
+      </c>
+      <c r="F579">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>5</v>
+      </c>
+      <c r="B580" t="s">
+        <v>52</v>
+      </c>
+      <c r="C580" t="s">
+        <v>73</v>
+      </c>
+      <c r="D580" t="s">
+        <v>44</v>
+      </c>
+      <c r="E580" t="s">
+        <v>9</v>
+      </c>
+      <c r="F580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>5</v>
+      </c>
+      <c r="B581" t="s">
+        <v>52</v>
+      </c>
+      <c r="C581" t="s">
+        <v>74</v>
+      </c>
+      <c r="D581" t="s">
+        <v>13</v>
+      </c>
+      <c r="E581" t="s">
+        <v>9</v>
+      </c>
+      <c r="F581">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>5</v>
+      </c>
+      <c r="B582" t="s">
+        <v>52</v>
+      </c>
+      <c r="C582" t="s">
+        <v>75</v>
+      </c>
+      <c r="D582" t="s">
+        <v>42</v>
+      </c>
+      <c r="E582" t="s">
+        <v>9</v>
+      </c>
+      <c r="F582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>5</v>
+      </c>
+      <c r="B583" t="s">
+        <v>52</v>
+      </c>
+      <c r="C583" t="s">
+        <v>76</v>
+      </c>
+      <c r="D583" t="s">
+        <v>27</v>
+      </c>
+      <c r="E583" t="s">
+        <v>9</v>
+      </c>
+      <c r="F583">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>5</v>
+      </c>
+      <c r="B584" t="s">
+        <v>52</v>
+      </c>
+      <c r="C584" t="s">
+        <v>25</v>
+      </c>
+      <c r="D584" t="s">
+        <v>18</v>
+      </c>
+      <c r="E584" t="s">
+        <v>10</v>
+      </c>
+      <c r="F584">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>5</v>
+      </c>
+      <c r="B585" t="s">
+        <v>52</v>
+      </c>
+      <c r="C585" t="s">
+        <v>47</v>
+      </c>
+      <c r="D585" t="s">
+        <v>33</v>
+      </c>
+      <c r="E585" t="s">
+        <v>10</v>
+      </c>
+      <c r="F585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>5</v>
+      </c>
+      <c r="B586" t="s">
+        <v>52</v>
+      </c>
+      <c r="C586" t="s">
+        <v>26</v>
+      </c>
+      <c r="D586" t="s">
+        <v>15</v>
+      </c>
+      <c r="E586" t="s">
+        <v>10</v>
+      </c>
+      <c r="F586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>5</v>
+      </c>
+      <c r="B587" t="s">
+        <v>53</v>
+      </c>
+      <c r="C587" t="s">
+        <v>77</v>
+      </c>
+      <c r="D587" t="s">
+        <v>14</v>
+      </c>
+      <c r="E587" t="s">
+        <v>7</v>
+      </c>
+      <c r="F587">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>5</v>
+      </c>
+      <c r="B588" t="s">
+        <v>53</v>
+      </c>
+      <c r="C588" t="s">
+        <v>78</v>
+      </c>
+      <c r="D588" t="s">
+        <v>13</v>
+      </c>
+      <c r="E588" t="s">
+        <v>7</v>
+      </c>
+      <c r="F588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>5</v>
+      </c>
+      <c r="B589" t="s">
+        <v>53</v>
+      </c>
+      <c r="C589" t="s">
+        <v>31</v>
+      </c>
+      <c r="D589" t="s">
+        <v>18</v>
+      </c>
+      <c r="E589" t="s">
+        <v>8</v>
+      </c>
+      <c r="F589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>5</v>
+      </c>
+      <c r="B590" t="s">
+        <v>53</v>
+      </c>
+      <c r="C590" t="s">
+        <v>69</v>
+      </c>
+      <c r="D590" t="s">
+        <v>44</v>
+      </c>
+      <c r="E590" t="s">
+        <v>8</v>
+      </c>
+      <c r="F590">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>5</v>
+      </c>
+      <c r="B591" t="s">
+        <v>53</v>
+      </c>
+      <c r="C591" t="s">
+        <v>32</v>
+      </c>
+      <c r="D591" t="s">
+        <v>33</v>
+      </c>
+      <c r="E591" t="s">
+        <v>8</v>
+      </c>
+      <c r="F591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>5</v>
+      </c>
+      <c r="B592" t="s">
+        <v>53</v>
+      </c>
+      <c r="C592" t="s">
+        <v>119</v>
+      </c>
+      <c r="D592" t="s">
+        <v>12</v>
+      </c>
+      <c r="E592" t="s">
+        <v>8</v>
+      </c>
+      <c r="F592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>5</v>
+      </c>
+      <c r="B593" t="s">
+        <v>53</v>
+      </c>
+      <c r="C593" t="s">
+        <v>79</v>
+      </c>
+      <c r="D593" t="s">
+        <v>33</v>
+      </c>
+      <c r="E593" t="s">
+        <v>8</v>
+      </c>
+      <c r="F593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>5</v>
+      </c>
+      <c r="B594" t="s">
+        <v>53</v>
+      </c>
+      <c r="C594" t="s">
+        <v>41</v>
+      </c>
+      <c r="D594" t="s">
+        <v>42</v>
+      </c>
+      <c r="E594" t="s">
+        <v>9</v>
+      </c>
+      <c r="F594">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>5</v>
+      </c>
+      <c r="B595" t="s">
+        <v>53</v>
+      </c>
+      <c r="C595" t="s">
+        <v>64</v>
+      </c>
+      <c r="D595" t="s">
+        <v>33</v>
+      </c>
+      <c r="E595" t="s">
+        <v>9</v>
+      </c>
+      <c r="F595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>5</v>
+      </c>
+      <c r="B596" t="s">
+        <v>53</v>
+      </c>
+      <c r="C596" t="s">
+        <v>80</v>
+      </c>
+      <c r="D596" t="s">
+        <v>11</v>
+      </c>
+      <c r="E596" t="s">
+        <v>9</v>
+      </c>
+      <c r="F596">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>5</v>
+      </c>
+      <c r="B597" t="s">
+        <v>53</v>
+      </c>
+      <c r="C597" t="s">
+        <v>23</v>
+      </c>
+      <c r="D597" t="s">
+        <v>11</v>
+      </c>
+      <c r="E597" t="s">
+        <v>9</v>
+      </c>
+      <c r="F597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>5</v>
+      </c>
+      <c r="B598" t="s">
+        <v>53</v>
+      </c>
+      <c r="C598" t="s">
+        <v>37</v>
+      </c>
+      <c r="D598" t="s">
+        <v>38</v>
+      </c>
+      <c r="E598" t="s">
+        <v>9</v>
+      </c>
+      <c r="F598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>5</v>
+      </c>
+      <c r="B599" t="s">
+        <v>53</v>
+      </c>
+      <c r="C599" t="s">
+        <v>25</v>
+      </c>
+      <c r="D599" t="s">
+        <v>81</v>
+      </c>
+      <c r="E599" t="s">
+        <v>10</v>
+      </c>
+      <c r="F599">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>5</v>
+      </c>
+      <c r="B600" t="s">
+        <v>53</v>
+      </c>
+      <c r="C600" t="s">
+        <v>132</v>
+      </c>
+      <c r="D600" t="s">
+        <v>15</v>
+      </c>
+      <c r="E600" t="s">
+        <v>10</v>
+      </c>
+      <c r="F600">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>5</v>
+      </c>
+      <c r="B601" t="s">
+        <v>53</v>
+      </c>
+      <c r="C601" t="s">
+        <v>124</v>
+      </c>
+      <c r="D601" t="s">
+        <v>11</v>
+      </c>
+      <c r="E601" t="s">
+        <v>10</v>
+      </c>
+      <c r="F601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>5</v>
+      </c>
+      <c r="B602" t="s">
+        <v>54</v>
+      </c>
+      <c r="C602" t="s">
+        <v>77</v>
+      </c>
+      <c r="D602" t="s">
+        <v>14</v>
+      </c>
+      <c r="E602" t="s">
+        <v>7</v>
+      </c>
+      <c r="F602">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>5</v>
+      </c>
+      <c r="B603" t="s">
+        <v>54</v>
+      </c>
+      <c r="C603" t="s">
+        <v>85</v>
+      </c>
+      <c r="D603" t="s">
+        <v>15</v>
+      </c>
+      <c r="E603" t="s">
+        <v>7</v>
+      </c>
+      <c r="F603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>5</v>
+      </c>
+      <c r="B604" t="s">
+        <v>54</v>
+      </c>
+      <c r="C604" t="s">
+        <v>31</v>
+      </c>
+      <c r="D604" t="s">
+        <v>18</v>
+      </c>
+      <c r="E604" t="s">
+        <v>8</v>
+      </c>
+      <c r="F604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>5</v>
+      </c>
+      <c r="B605" t="s">
+        <v>54</v>
+      </c>
+      <c r="C605" t="s">
+        <v>20</v>
+      </c>
+      <c r="D605" t="s">
+        <v>27</v>
+      </c>
+      <c r="E605" t="s">
+        <v>8</v>
+      </c>
+      <c r="F605">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>5</v>
+      </c>
+      <c r="B606" t="s">
+        <v>54</v>
+      </c>
+      <c r="C606" t="s">
+        <v>137</v>
+      </c>
+      <c r="D606" t="s">
+        <v>44</v>
+      </c>
+      <c r="E606" t="s">
+        <v>8</v>
+      </c>
+      <c r="F606">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>5</v>
+      </c>
+      <c r="B607" t="s">
+        <v>54</v>
+      </c>
+      <c r="C607" t="s">
+        <v>87</v>
+      </c>
+      <c r="D607" t="s">
+        <v>63</v>
+      </c>
+      <c r="E607" t="s">
+        <v>8</v>
+      </c>
+      <c r="F607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>5</v>
+      </c>
+      <c r="B608" t="s">
+        <v>54</v>
+      </c>
+      <c r="C608" t="s">
+        <v>36</v>
+      </c>
+      <c r="D608" t="s">
+        <v>39</v>
+      </c>
+      <c r="E608" t="s">
+        <v>8</v>
+      </c>
+      <c r="F608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>5</v>
+      </c>
+      <c r="B609" t="s">
+        <v>54</v>
+      </c>
+      <c r="C609" t="s">
+        <v>73</v>
+      </c>
+      <c r="D609" t="s">
+        <v>44</v>
+      </c>
+      <c r="E609" t="s">
+        <v>9</v>
+      </c>
+      <c r="F609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>5</v>
+      </c>
+      <c r="B610" t="s">
+        <v>54</v>
+      </c>
+      <c r="C610" t="s">
+        <v>156</v>
+      </c>
+      <c r="D610" t="s">
+        <v>27</v>
+      </c>
+      <c r="E610" t="s">
+        <v>9</v>
+      </c>
+      <c r="F610">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>5</v>
+      </c>
+      <c r="B611" t="s">
+        <v>54</v>
+      </c>
+      <c r="C611" t="s">
+        <v>123</v>
+      </c>
+      <c r="D611" t="s">
+        <v>44</v>
+      </c>
+      <c r="E611" t="s">
+        <v>9</v>
+      </c>
+      <c r="F611">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>5</v>
+      </c>
+      <c r="B612" t="s">
+        <v>54</v>
+      </c>
+      <c r="C612" t="s">
+        <v>74</v>
+      </c>
+      <c r="D612" t="s">
+        <v>13</v>
+      </c>
+      <c r="E612" t="s">
+        <v>9</v>
+      </c>
+      <c r="F612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>5</v>
+      </c>
+      <c r="B613" t="s">
+        <v>54</v>
+      </c>
+      <c r="C613" t="s">
+        <v>88</v>
+      </c>
+      <c r="D613" t="s">
+        <v>16</v>
+      </c>
+      <c r="E613" t="s">
+        <v>9</v>
+      </c>
+      <c r="F613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>5</v>
+      </c>
+      <c r="B614" t="s">
+        <v>54</v>
+      </c>
+      <c r="C614" t="s">
+        <v>115</v>
+      </c>
+      <c r="D614" t="s">
+        <v>63</v>
+      </c>
+      <c r="E614" t="s">
+        <v>10</v>
+      </c>
+      <c r="F614">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>5</v>
+      </c>
+      <c r="B615" t="s">
+        <v>54</v>
+      </c>
+      <c r="C615" t="s">
+        <v>125</v>
+      </c>
+      <c r="D615" t="s">
+        <v>14</v>
+      </c>
+      <c r="E615" t="s">
+        <v>10</v>
+      </c>
+      <c r="F615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>5</v>
+      </c>
+      <c r="B616" t="s">
+        <v>54</v>
+      </c>
+      <c r="C616" t="s">
+        <v>25</v>
+      </c>
+      <c r="D616" t="s">
+        <v>18</v>
+      </c>
+      <c r="E616" t="s">
+        <v>10</v>
+      </c>
+      <c r="F616">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>5</v>
+      </c>
+      <c r="B617" t="s">
+        <v>55</v>
+      </c>
+      <c r="C617" t="s">
+        <v>59</v>
+      </c>
+      <c r="D617" t="s">
+        <v>61</v>
+      </c>
+      <c r="E617" t="s">
+        <v>7</v>
+      </c>
+      <c r="F617">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>5</v>
+      </c>
+      <c r="B618" t="s">
+        <v>55</v>
+      </c>
+      <c r="C618" t="s">
+        <v>98</v>
+      </c>
+      <c r="D618" t="s">
+        <v>17</v>
+      </c>
+      <c r="E618" t="s">
+        <v>7</v>
+      </c>
+      <c r="F618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>5</v>
+      </c>
+      <c r="B619" t="s">
+        <v>55</v>
+      </c>
+      <c r="C619" t="s">
+        <v>138</v>
+      </c>
+      <c r="D619" t="s">
+        <v>13</v>
+      </c>
+      <c r="E619" t="s">
+        <v>8</v>
+      </c>
+      <c r="F619">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>5</v>
+      </c>
+      <c r="B620" t="s">
+        <v>55</v>
+      </c>
+      <c r="C620" t="s">
+        <v>69</v>
+      </c>
+      <c r="D620" t="s">
+        <v>44</v>
+      </c>
+      <c r="E620" t="s">
+        <v>8</v>
+      </c>
+      <c r="F620">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>5</v>
+      </c>
+      <c r="B621" t="s">
+        <v>55</v>
+      </c>
+      <c r="C621" t="s">
+        <v>139</v>
+      </c>
+      <c r="D621" t="s">
+        <v>15</v>
+      </c>
+      <c r="E621" t="s">
+        <v>8</v>
+      </c>
+      <c r="F621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>5</v>
+      </c>
+      <c r="B622" t="s">
+        <v>55</v>
+      </c>
+      <c r="C622" t="s">
+        <v>140</v>
+      </c>
+      <c r="D622" t="s">
+        <v>16</v>
+      </c>
+      <c r="E622" t="s">
+        <v>8</v>
+      </c>
+      <c r="F622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>5</v>
+      </c>
+      <c r="B623" t="s">
+        <v>55</v>
+      </c>
+      <c r="C623" t="s">
+        <v>32</v>
+      </c>
+      <c r="D623" t="s">
+        <v>33</v>
+      </c>
+      <c r="E623" t="s">
+        <v>8</v>
+      </c>
+      <c r="F623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>5</v>
+      </c>
+      <c r="B624" t="s">
+        <v>55</v>
+      </c>
+      <c r="C624" t="s">
+        <v>141</v>
+      </c>
+      <c r="D624" t="s">
+        <v>29</v>
+      </c>
+      <c r="E624" t="s">
+        <v>9</v>
+      </c>
+      <c r="F624">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>5</v>
+      </c>
+      <c r="B625" t="s">
+        <v>55</v>
+      </c>
+      <c r="C625" t="s">
+        <v>74</v>
+      </c>
+      <c r="D625" t="s">
+        <v>13</v>
+      </c>
+      <c r="E625" t="s">
+        <v>9</v>
+      </c>
+      <c r="F625">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>5</v>
+      </c>
+      <c r="B626" t="s">
+        <v>55</v>
+      </c>
+      <c r="C626" t="s">
+        <v>67</v>
+      </c>
+      <c r="D626" t="s">
+        <v>63</v>
+      </c>
+      <c r="E626" t="s">
+        <v>9</v>
+      </c>
+      <c r="F626">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>5</v>
+      </c>
+      <c r="B627" t="s">
+        <v>55</v>
+      </c>
+      <c r="C627" t="s">
+        <v>21</v>
+      </c>
+      <c r="D627" t="s">
+        <v>11</v>
+      </c>
+      <c r="E627" t="s">
+        <v>9</v>
+      </c>
+      <c r="F627">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>5</v>
+      </c>
+      <c r="B628" t="s">
+        <v>55</v>
+      </c>
+      <c r="C628" t="s">
+        <v>43</v>
+      </c>
+      <c r="D628" t="s">
+        <v>44</v>
+      </c>
+      <c r="E628" t="s">
+        <v>9</v>
+      </c>
+      <c r="F628">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>5</v>
+      </c>
+      <c r="B629" t="s">
+        <v>55</v>
+      </c>
+      <c r="C629" t="s">
+        <v>25</v>
+      </c>
+      <c r="D629" t="s">
+        <v>93</v>
+      </c>
+      <c r="E629" t="s">
+        <v>10</v>
+      </c>
+      <c r="F629">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>5</v>
+      </c>
+      <c r="B630" t="s">
+        <v>55</v>
+      </c>
+      <c r="C630" t="s">
+        <v>142</v>
+      </c>
+      <c r="D630" t="s">
+        <v>66</v>
+      </c>
+      <c r="E630" t="s">
+        <v>10</v>
+      </c>
+      <c r="F630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>5</v>
+      </c>
+      <c r="B631" t="s">
+        <v>55</v>
+      </c>
+      <c r="C631" t="s">
+        <v>132</v>
+      </c>
+      <c r="D631" t="s">
+        <v>15</v>
+      </c>
+      <c r="E631" t="s">
+        <v>10</v>
+      </c>
+      <c r="F631">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>5</v>
+      </c>
+      <c r="B632" t="s">
+        <v>56</v>
+      </c>
+      <c r="C632" t="s">
+        <v>95</v>
+      </c>
+      <c r="D632" t="s">
+        <v>12</v>
+      </c>
+      <c r="E632" t="s">
+        <v>7</v>
+      </c>
+      <c r="F632">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>5</v>
+      </c>
+      <c r="B633" t="s">
+        <v>56</v>
+      </c>
+      <c r="C633" t="s">
+        <v>98</v>
+      </c>
+      <c r="D633" t="s">
+        <v>17</v>
+      </c>
+      <c r="E633" t="s">
+        <v>7</v>
+      </c>
+      <c r="F633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>5</v>
+      </c>
+      <c r="B634" t="s">
+        <v>56</v>
+      </c>
+      <c r="C634" t="s">
+        <v>137</v>
+      </c>
+      <c r="D634" t="s">
+        <v>44</v>
+      </c>
+      <c r="E634" t="s">
+        <v>8</v>
+      </c>
+      <c r="F634">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>5</v>
+      </c>
+      <c r="B635" t="s">
+        <v>56</v>
+      </c>
+      <c r="C635" t="s">
+        <v>91</v>
+      </c>
+      <c r="D635" t="s">
+        <v>12</v>
+      </c>
+      <c r="E635" t="s">
+        <v>8</v>
+      </c>
+      <c r="F635">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>5</v>
+      </c>
+      <c r="B636" t="s">
+        <v>56</v>
+      </c>
+      <c r="C636" t="s">
+        <v>31</v>
+      </c>
+      <c r="D636" t="s">
+        <v>18</v>
+      </c>
+      <c r="E636" t="s">
+        <v>8</v>
+      </c>
+      <c r="F636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>5</v>
+      </c>
+      <c r="B637" t="s">
+        <v>56</v>
+      </c>
+      <c r="C637" t="s">
+        <v>94</v>
+      </c>
+      <c r="D637" t="s">
+        <v>13</v>
+      </c>
+      <c r="E637" t="s">
+        <v>8</v>
+      </c>
+      <c r="F637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>5</v>
+      </c>
+      <c r="B638" t="s">
+        <v>56</v>
+      </c>
+      <c r="C638" t="s">
+        <v>97</v>
+      </c>
+      <c r="D638" t="s">
+        <v>11</v>
+      </c>
+      <c r="E638" t="s">
+        <v>8</v>
+      </c>
+      <c r="F638">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>5</v>
+      </c>
+      <c r="B639" t="s">
+        <v>56</v>
+      </c>
+      <c r="C639" t="s">
+        <v>99</v>
+      </c>
+      <c r="D639" t="s">
+        <v>42</v>
+      </c>
+      <c r="E639" t="s">
+        <v>9</v>
+      </c>
+      <c r="F639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>5</v>
+      </c>
+      <c r="B640" t="s">
+        <v>56</v>
+      </c>
+      <c r="C640" t="s">
+        <v>41</v>
+      </c>
+      <c r="D640" t="s">
+        <v>42</v>
+      </c>
+      <c r="E640" t="s">
+        <v>9</v>
+      </c>
+      <c r="F640">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>5</v>
+      </c>
+      <c r="B641" t="s">
+        <v>56</v>
+      </c>
+      <c r="C641" t="s">
+        <v>102</v>
+      </c>
+      <c r="D641" t="s">
+        <v>17</v>
+      </c>
+      <c r="E641" t="s">
+        <v>9</v>
+      </c>
+      <c r="F641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>5</v>
+      </c>
+      <c r="B642" t="s">
+        <v>56</v>
+      </c>
+      <c r="C642" t="s">
+        <v>101</v>
+      </c>
+      <c r="D642" t="s">
+        <v>44</v>
+      </c>
+      <c r="E642" t="s">
+        <v>9</v>
+      </c>
+      <c r="F642">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>5</v>
+      </c>
+      <c r="B643" t="s">
+        <v>56</v>
+      </c>
+      <c r="C643" t="s">
+        <v>100</v>
+      </c>
+      <c r="D643" t="s">
+        <v>14</v>
+      </c>
+      <c r="E643" t="s">
+        <v>9</v>
+      </c>
+      <c r="F643">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>5</v>
+      </c>
+      <c r="B644" t="s">
+        <v>56</v>
+      </c>
+      <c r="C644" t="s">
+        <v>25</v>
+      </c>
+      <c r="D644" t="s">
+        <v>18</v>
+      </c>
+      <c r="E644" t="s">
+        <v>10</v>
+      </c>
+      <c r="F644">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>5</v>
+      </c>
+      <c r="B645" t="s">
+        <v>56</v>
+      </c>
+      <c r="C645" t="s">
+        <v>103</v>
+      </c>
+      <c r="D645" t="s">
+        <v>15</v>
+      </c>
+      <c r="E645" t="s">
+        <v>10</v>
+      </c>
+      <c r="F645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>5</v>
+      </c>
+      <c r="B646" t="s">
+        <v>56</v>
+      </c>
+      <c r="C646" t="s">
+        <v>46</v>
+      </c>
+      <c r="D646" t="s">
+        <v>12</v>
+      </c>
+      <c r="E646" t="s">
+        <v>10</v>
+      </c>
+      <c r="F646">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>5</v>
+      </c>
+      <c r="B647" t="s">
+        <v>57</v>
+      </c>
+      <c r="C647" t="s">
+        <v>85</v>
+      </c>
+      <c r="D647" t="s">
+        <v>16</v>
+      </c>
+      <c r="E647" t="s">
+        <v>7</v>
+      </c>
+      <c r="F647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>5</v>
+      </c>
+      <c r="B648" t="s">
+        <v>57</v>
+      </c>
+      <c r="C648" t="s">
+        <v>108</v>
+      </c>
+      <c r="D648" t="s">
+        <v>38</v>
+      </c>
+      <c r="E648" t="s">
+        <v>7</v>
+      </c>
+      <c r="F648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>5</v>
+      </c>
+      <c r="B649" t="s">
+        <v>57</v>
+      </c>
+      <c r="C649" t="s">
+        <v>110</v>
+      </c>
+      <c r="D649" t="s">
+        <v>14</v>
+      </c>
+      <c r="E649" t="s">
+        <v>8</v>
+      </c>
+      <c r="F649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>5</v>
+      </c>
+      <c r="B650" t="s">
+        <v>57</v>
+      </c>
+      <c r="C650" t="s">
+        <v>62</v>
+      </c>
+      <c r="D650" t="s">
+        <v>63</v>
+      </c>
+      <c r="E650" t="s">
+        <v>8</v>
+      </c>
+      <c r="F650">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>5</v>
+      </c>
+      <c r="B651" t="s">
+        <v>57</v>
+      </c>
+      <c r="C651" t="s">
+        <v>19</v>
+      </c>
+      <c r="D651" t="s">
+        <v>12</v>
+      </c>
+      <c r="E651" t="s">
+        <v>8</v>
+      </c>
+      <c r="F651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>5</v>
+      </c>
+      <c r="B652" t="s">
+        <v>57</v>
+      </c>
+      <c r="C652" t="s">
+        <v>36</v>
+      </c>
+      <c r="D652" t="s">
+        <v>39</v>
+      </c>
+      <c r="E652" t="s">
+        <v>8</v>
+      </c>
+      <c r="F652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>5</v>
+      </c>
+      <c r="B653" t="s">
+        <v>57</v>
+      </c>
+      <c r="C653" t="s">
+        <v>109</v>
+      </c>
+      <c r="D653" t="s">
+        <v>11</v>
+      </c>
+      <c r="E653" t="s">
+        <v>8</v>
+      </c>
+      <c r="F653">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>5</v>
+      </c>
+      <c r="B654" t="s">
+        <v>57</v>
+      </c>
+      <c r="C654" t="s">
+        <v>41</v>
+      </c>
+      <c r="D654" t="s">
+        <v>42</v>
+      </c>
+      <c r="E654" t="s">
+        <v>9</v>
+      </c>
+      <c r="F654">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>5</v>
+      </c>
+      <c r="B655" t="s">
+        <v>57</v>
+      </c>
+      <c r="C655" t="s">
+        <v>76</v>
+      </c>
+      <c r="D655" t="s">
+        <v>27</v>
+      </c>
+      <c r="E655" t="s">
+        <v>9</v>
+      </c>
+      <c r="F655">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>5</v>
+      </c>
+      <c r="B656" t="s">
+        <v>57</v>
+      </c>
+      <c r="C656" t="s">
+        <v>123</v>
+      </c>
+      <c r="D656" t="s">
+        <v>44</v>
+      </c>
+      <c r="E656" t="s">
+        <v>9</v>
+      </c>
+      <c r="F656">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>5</v>
+      </c>
+      <c r="B657" t="s">
+        <v>57</v>
+      </c>
+      <c r="C657" t="s">
+        <v>64</v>
+      </c>
+      <c r="D657" t="s">
+        <v>33</v>
+      </c>
+      <c r="E657" t="s">
+        <v>9</v>
+      </c>
+      <c r="F657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>5</v>
+      </c>
+      <c r="B658" t="s">
+        <v>57</v>
+      </c>
+      <c r="C658" t="s">
+        <v>37</v>
+      </c>
+      <c r="D658" t="s">
+        <v>38</v>
+      </c>
+      <c r="E658" t="s">
+        <v>9</v>
+      </c>
+      <c r="F658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>5</v>
+      </c>
+      <c r="B659" t="s">
+        <v>57</v>
+      </c>
+      <c r="C659" t="s">
+        <v>132</v>
+      </c>
+      <c r="D659" t="s">
+        <v>15</v>
+      </c>
+      <c r="E659" t="s">
+        <v>10</v>
+      </c>
+      <c r="F659">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>5</v>
+      </c>
+      <c r="B660" t="s">
+        <v>57</v>
+      </c>
+      <c r="C660" t="s">
+        <v>115</v>
+      </c>
+      <c r="D660" t="s">
+        <v>63</v>
+      </c>
+      <c r="E660" t="s">
+        <v>10</v>
+      </c>
+      <c r="F660">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>5</v>
+      </c>
+      <c r="B661" t="s">
+        <v>57</v>
+      </c>
+      <c r="C661" t="s">
+        <v>25</v>
+      </c>
+      <c r="D661" t="s">
+        <v>18</v>
+      </c>
+      <c r="E661" t="s">
+        <v>10</v>
+      </c>
+      <c r="F661">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>5</v>
+      </c>
+      <c r="B662" t="s">
+        <v>58</v>
+      </c>
+      <c r="C662" t="s">
+        <v>117</v>
+      </c>
+      <c r="D662" t="s">
+        <v>42</v>
+      </c>
+      <c r="E662" t="s">
+        <v>7</v>
+      </c>
+      <c r="F662">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>5</v>
+      </c>
+      <c r="B663" t="s">
+        <v>58</v>
+      </c>
+      <c r="C663" t="s">
+        <v>143</v>
+      </c>
+      <c r="D663" t="s">
+        <v>12</v>
+      </c>
+      <c r="E663" t="s">
+        <v>7</v>
+      </c>
+      <c r="F663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>5</v>
+      </c>
+      <c r="B664" t="s">
+        <v>58</v>
+      </c>
+      <c r="C664" t="s">
+        <v>118</v>
+      </c>
+      <c r="D664" t="s">
+        <v>14</v>
+      </c>
+      <c r="E664" t="s">
+        <v>8</v>
+      </c>
+      <c r="F664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>5</v>
+      </c>
+      <c r="B665" t="s">
+        <v>58</v>
+      </c>
+      <c r="C665" t="s">
+        <v>144</v>
+      </c>
+      <c r="D665" t="s">
+        <v>18</v>
+      </c>
+      <c r="E665" t="s">
+        <v>8</v>
+      </c>
+      <c r="F665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>5</v>
+      </c>
+      <c r="B666" t="s">
+        <v>58</v>
+      </c>
+      <c r="C666" t="s">
+        <v>97</v>
+      </c>
+      <c r="D666" t="s">
+        <v>11</v>
+      </c>
+      <c r="E666" t="s">
+        <v>8</v>
+      </c>
+      <c r="F666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>5</v>
+      </c>
+      <c r="B667" t="s">
+        <v>58</v>
+      </c>
+      <c r="C667" t="s">
+        <v>119</v>
+      </c>
+      <c r="D667" t="s">
+        <v>12</v>
+      </c>
+      <c r="E667" t="s">
+        <v>8</v>
+      </c>
+      <c r="F667">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>5</v>
+      </c>
+      <c r="B668" t="s">
+        <v>58</v>
+      </c>
+      <c r="C668" t="s">
+        <v>145</v>
+      </c>
+      <c r="D668" t="s">
+        <v>14</v>
+      </c>
+      <c r="E668" t="s">
+        <v>8</v>
+      </c>
+      <c r="F668">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>5</v>
+      </c>
+      <c r="B669" t="s">
+        <v>58</v>
+      </c>
+      <c r="C669" t="s">
+        <v>146</v>
+      </c>
+      <c r="D669" t="s">
+        <v>14</v>
+      </c>
+      <c r="E669" t="s">
+        <v>9</v>
+      </c>
+      <c r="F669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>5</v>
+      </c>
+      <c r="B670" t="s">
+        <v>58</v>
+      </c>
+      <c r="C670" t="s">
+        <v>99</v>
+      </c>
+      <c r="D670" t="s">
+        <v>42</v>
+      </c>
+      <c r="E670" t="s">
+        <v>9</v>
+      </c>
+      <c r="F670">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>5</v>
+      </c>
+      <c r="B671" t="s">
+        <v>58</v>
+      </c>
+      <c r="C671" t="s">
+        <v>123</v>
+      </c>
+      <c r="D671" t="s">
+        <v>44</v>
+      </c>
+      <c r="E671" t="s">
+        <v>9</v>
+      </c>
+      <c r="F671">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>5</v>
+      </c>
+      <c r="B672" t="s">
+        <v>58</v>
+      </c>
+      <c r="C672" t="s">
+        <v>64</v>
+      </c>
+      <c r="D672" t="s">
+        <v>33</v>
+      </c>
+      <c r="E672" t="s">
+        <v>9</v>
+      </c>
+      <c r="F672">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>5</v>
+      </c>
+      <c r="B673" t="s">
+        <v>58</v>
+      </c>
+      <c r="C673" t="s">
+        <v>147</v>
+      </c>
+      <c r="D673" t="s">
+        <v>66</v>
+      </c>
+      <c r="E673" t="s">
+        <v>9</v>
+      </c>
+      <c r="F673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>5</v>
+      </c>
+      <c r="B674" t="s">
+        <v>58</v>
+      </c>
+      <c r="C674" t="s">
+        <v>148</v>
+      </c>
+      <c r="D674" t="s">
+        <v>42</v>
+      </c>
+      <c r="E674" t="s">
+        <v>10</v>
+      </c>
+      <c r="F674">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>5</v>
+      </c>
+      <c r="B675" t="s">
+        <v>58</v>
+      </c>
+      <c r="C675" t="s">
+        <v>25</v>
+      </c>
+      <c r="D675" t="s">
+        <v>18</v>
+      </c>
+      <c r="E675" t="s">
+        <v>10</v>
+      </c>
+      <c r="F675">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>5</v>
+      </c>
+      <c r="B676" t="s">
+        <v>58</v>
+      </c>
+      <c r="C676" t="s">
+        <v>149</v>
+      </c>
+      <c r="D676" t="s">
+        <v>13</v>
+      </c>
+      <c r="E676" t="s">
+        <v>10</v>
+      </c>
+      <c r="F676">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11699,10 +14420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12254,13 +14975,121 @@
         <v>239</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <f>SUM('Weekly Points'!F542:F556)+C38</f>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <f>SUM('Weekly Points'!F557:F571)+C39</f>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <f>SUM('Weekly Points'!F572:F586)+C40</f>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <f>SUM('Weekly Points'!F587:F601)+C41</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <f>SUM('Weekly Points'!F602:F616)+C42</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <f>SUM('Weekly Points'!F617:F631)+C43</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <f>SUM('Weekly Points'!F632:F646)+C44</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <f>SUM('Weekly Points'!F647:F661)+C45</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <f>SUM('Weekly Points'!F662:F676)+C46</f>
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:I10">
     <sortCondition descending="1" ref="I2:I10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C11:C19 C20:C28 C29:C36 C37:C46" formulaRange="1"/>
+    <ignoredError sqref="C11:C19 C20:C28 C29:C36 C37:C46 C47:C55" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Trust Me Im a Cat.xlsx
+++ b/Trust Me Im a Cat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\Trust_me_Im_a_Cat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D27A648-B907-4020-B07D-8F87F81EB93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6D1183-C88C-468B-9EFD-1DA0EA6D58EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -881,11 +881,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
   <dimension ref="A1:F676"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B659" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B644" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F676" sqref="F662:F676"/>
+      <selection pane="bottomRight" activeCell="F657" sqref="F657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13110,7 +13110,7 @@
         <v>9</v>
       </c>
       <c r="F611">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
@@ -14010,7 +14010,7 @@
         <v>9</v>
       </c>
       <c r="F656">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
@@ -14422,8 +14422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="C51">
         <f>SUM('Weekly Points'!F602:F616)+C42</f>
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -15068,7 +15068,7 @@
       </c>
       <c r="C54">
         <f>SUM('Weekly Points'!F647:F661)+C45</f>
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">

--- a/Trust Me Im a Cat.xlsx
+++ b/Trust Me Im a Cat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28120"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\Trust_me_Im_a_Cat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6D1183-C88C-468B-9EFD-1DA0EA6D58EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA15DB-6D5C-4B35-8133-A482633F4677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="159">
   <si>
     <t>Gameweek</t>
   </si>
@@ -509,6 +509,12 @@
   <si>
     <t>Smith-Rowe</t>
   </si>
+  <si>
+    <t>Maddison</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
 </sst>
 </file>
 
@@ -879,13 +885,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F676"/>
+  <dimension ref="A1:F811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B644" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B673" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F657" sqref="F657"/>
+      <selection pane="bottomRight" activeCell="F692" sqref="F692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14413,6 +14419,2706 @@
         <v>0</v>
       </c>
     </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>6</v>
+      </c>
+      <c r="B677" t="s">
+        <v>51</v>
+      </c>
+      <c r="C677" t="s">
+        <v>77</v>
+      </c>
+      <c r="D677" t="s">
+        <v>14</v>
+      </c>
+      <c r="E677" t="s">
+        <v>7</v>
+      </c>
+      <c r="F677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>6</v>
+      </c>
+      <c r="B678" t="s">
+        <v>51</v>
+      </c>
+      <c r="C678" t="s">
+        <v>127</v>
+      </c>
+      <c r="D678" t="s">
+        <v>27</v>
+      </c>
+      <c r="E678" t="s">
+        <v>7</v>
+      </c>
+      <c r="F678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>6</v>
+      </c>
+      <c r="B679" t="s">
+        <v>51</v>
+      </c>
+      <c r="C679" t="s">
+        <v>136</v>
+      </c>
+      <c r="D679" t="s">
+        <v>11</v>
+      </c>
+      <c r="E679" t="s">
+        <v>8</v>
+      </c>
+      <c r="F679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>6</v>
+      </c>
+      <c r="B680" t="s">
+        <v>51</v>
+      </c>
+      <c r="C680" t="s">
+        <v>30</v>
+      </c>
+      <c r="D680" t="s">
+        <v>14</v>
+      </c>
+      <c r="E680" t="s">
+        <v>8</v>
+      </c>
+      <c r="F680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>6</v>
+      </c>
+      <c r="B681" t="s">
+        <v>51</v>
+      </c>
+      <c r="C681" t="s">
+        <v>128</v>
+      </c>
+      <c r="D681" t="s">
+        <v>33</v>
+      </c>
+      <c r="E681" t="s">
+        <v>8</v>
+      </c>
+      <c r="F681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>6</v>
+      </c>
+      <c r="B682" t="s">
+        <v>51</v>
+      </c>
+      <c r="C682" t="s">
+        <v>129</v>
+      </c>
+      <c r="D682" t="s">
+        <v>15</v>
+      </c>
+      <c r="E682" t="s">
+        <v>8</v>
+      </c>
+      <c r="F682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>6</v>
+      </c>
+      <c r="B683" t="s">
+        <v>51</v>
+      </c>
+      <c r="C683" t="s">
+        <v>36</v>
+      </c>
+      <c r="D683" t="s">
+        <v>39</v>
+      </c>
+      <c r="E683" t="s">
+        <v>8</v>
+      </c>
+      <c r="F683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>6</v>
+      </c>
+      <c r="B684" t="s">
+        <v>51</v>
+      </c>
+      <c r="C684" t="s">
+        <v>123</v>
+      </c>
+      <c r="D684" t="s">
+        <v>44</v>
+      </c>
+      <c r="E684" t="s">
+        <v>9</v>
+      </c>
+      <c r="F684">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>6</v>
+      </c>
+      <c r="B685" t="s">
+        <v>51</v>
+      </c>
+      <c r="C685" t="s">
+        <v>41</v>
+      </c>
+      <c r="D685" t="s">
+        <v>42</v>
+      </c>
+      <c r="E685" t="s">
+        <v>9</v>
+      </c>
+      <c r="F685">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>6</v>
+      </c>
+      <c r="B686" t="s">
+        <v>51</v>
+      </c>
+      <c r="C686" t="s">
+        <v>64</v>
+      </c>
+      <c r="D686" t="s">
+        <v>33</v>
+      </c>
+      <c r="E686" t="s">
+        <v>9</v>
+      </c>
+      <c r="F686">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>6</v>
+      </c>
+      <c r="B687" t="s">
+        <v>51</v>
+      </c>
+      <c r="C687" t="s">
+        <v>72</v>
+      </c>
+      <c r="D687" t="s">
+        <v>14</v>
+      </c>
+      <c r="E687" t="s">
+        <v>9</v>
+      </c>
+      <c r="F687">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>6</v>
+      </c>
+      <c r="B688" t="s">
+        <v>51</v>
+      </c>
+      <c r="C688" t="s">
+        <v>67</v>
+      </c>
+      <c r="D688" t="s">
+        <v>63</v>
+      </c>
+      <c r="E688" t="s">
+        <v>9</v>
+      </c>
+      <c r="F688">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>6</v>
+      </c>
+      <c r="B689" t="s">
+        <v>51</v>
+      </c>
+      <c r="C689" t="s">
+        <v>25</v>
+      </c>
+      <c r="D689" t="s">
+        <v>18</v>
+      </c>
+      <c r="E689" t="s">
+        <v>10</v>
+      </c>
+      <c r="F689">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>6</v>
+      </c>
+      <c r="B690" t="s">
+        <v>51</v>
+      </c>
+      <c r="C690" t="s">
+        <v>65</v>
+      </c>
+      <c r="D690" t="s">
+        <v>66</v>
+      </c>
+      <c r="E690" t="s">
+        <v>10</v>
+      </c>
+      <c r="F690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>6</v>
+      </c>
+      <c r="B691" t="s">
+        <v>51</v>
+      </c>
+      <c r="C691" t="s">
+        <v>103</v>
+      </c>
+      <c r="D691" t="s">
+        <v>15</v>
+      </c>
+      <c r="E691" t="s">
+        <v>10</v>
+      </c>
+      <c r="F691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>6</v>
+      </c>
+      <c r="B692" t="s">
+        <v>6</v>
+      </c>
+      <c r="C692" t="s">
+        <v>150</v>
+      </c>
+      <c r="D692" t="s">
+        <v>151</v>
+      </c>
+      <c r="E692" t="s">
+        <v>7</v>
+      </c>
+      <c r="F692">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>6</v>
+      </c>
+      <c r="B693" t="s">
+        <v>6</v>
+      </c>
+      <c r="C693" t="s">
+        <v>152</v>
+      </c>
+      <c r="D693" t="s">
+        <v>17</v>
+      </c>
+      <c r="E693" t="s">
+        <v>7</v>
+      </c>
+      <c r="F693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>6</v>
+      </c>
+      <c r="B694" t="s">
+        <v>6</v>
+      </c>
+      <c r="C694" t="s">
+        <v>110</v>
+      </c>
+      <c r="D694" t="s">
+        <v>14</v>
+      </c>
+      <c r="E694" t="s">
+        <v>8</v>
+      </c>
+      <c r="F694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>6</v>
+      </c>
+      <c r="B695" t="s">
+        <v>6</v>
+      </c>
+      <c r="C695" t="s">
+        <v>153</v>
+      </c>
+      <c r="D695" t="s">
+        <v>42</v>
+      </c>
+      <c r="E695" t="s">
+        <v>8</v>
+      </c>
+      <c r="F695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>6</v>
+      </c>
+      <c r="B696" t="s">
+        <v>6</v>
+      </c>
+      <c r="C696" t="s">
+        <v>119</v>
+      </c>
+      <c r="D696" t="s">
+        <v>12</v>
+      </c>
+      <c r="E696" t="s">
+        <v>8</v>
+      </c>
+      <c r="F696">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>6</v>
+      </c>
+      <c r="B697" t="s">
+        <v>6</v>
+      </c>
+      <c r="C697" t="s">
+        <v>154</v>
+      </c>
+      <c r="D697" t="s">
+        <v>66</v>
+      </c>
+      <c r="E697" t="s">
+        <v>8</v>
+      </c>
+      <c r="F697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>6</v>
+      </c>
+      <c r="B698" t="s">
+        <v>6</v>
+      </c>
+      <c r="C698" t="s">
+        <v>109</v>
+      </c>
+      <c r="D698" t="s">
+        <v>11</v>
+      </c>
+      <c r="E698" t="s">
+        <v>8</v>
+      </c>
+      <c r="F698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>6</v>
+      </c>
+      <c r="B699" t="s">
+        <v>6</v>
+      </c>
+      <c r="C699" t="s">
+        <v>155</v>
+      </c>
+      <c r="D699" t="s">
+        <v>17</v>
+      </c>
+      <c r="E699" t="s">
+        <v>9</v>
+      </c>
+      <c r="F699">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>6</v>
+      </c>
+      <c r="B700" t="s">
+        <v>6</v>
+      </c>
+      <c r="C700" t="s">
+        <v>41</v>
+      </c>
+      <c r="D700" t="s">
+        <v>42</v>
+      </c>
+      <c r="E700" t="s">
+        <v>9</v>
+      </c>
+      <c r="F700">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>6</v>
+      </c>
+      <c r="B701" t="s">
+        <v>6</v>
+      </c>
+      <c r="C701" t="s">
+        <v>80</v>
+      </c>
+      <c r="D701" t="s">
+        <v>11</v>
+      </c>
+      <c r="E701" t="s">
+        <v>9</v>
+      </c>
+      <c r="F701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>6</v>
+      </c>
+      <c r="B702" t="s">
+        <v>6</v>
+      </c>
+      <c r="C702" t="s">
+        <v>156</v>
+      </c>
+      <c r="D702" t="s">
+        <v>27</v>
+      </c>
+      <c r="E702" t="s">
+        <v>9</v>
+      </c>
+      <c r="F702">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>6</v>
+      </c>
+      <c r="B703" t="s">
+        <v>6</v>
+      </c>
+      <c r="C703" t="s">
+        <v>99</v>
+      </c>
+      <c r="D703" t="s">
+        <v>42</v>
+      </c>
+      <c r="E703" t="s">
+        <v>9</v>
+      </c>
+      <c r="F703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>6</v>
+      </c>
+      <c r="B704" t="s">
+        <v>6</v>
+      </c>
+      <c r="C704" t="s">
+        <v>132</v>
+      </c>
+      <c r="D704" t="s">
+        <v>15</v>
+      </c>
+      <c r="E704" t="s">
+        <v>10</v>
+      </c>
+      <c r="F704">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>6</v>
+      </c>
+      <c r="B705" t="s">
+        <v>6</v>
+      </c>
+      <c r="C705" t="s">
+        <v>25</v>
+      </c>
+      <c r="D705" t="s">
+        <v>18</v>
+      </c>
+      <c r="E705" t="s">
+        <v>10</v>
+      </c>
+      <c r="F705">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>6</v>
+      </c>
+      <c r="B706" t="s">
+        <v>6</v>
+      </c>
+      <c r="C706" t="s">
+        <v>125</v>
+      </c>
+      <c r="D706" t="s">
+        <v>14</v>
+      </c>
+      <c r="E706" t="s">
+        <v>10</v>
+      </c>
+      <c r="F706">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>6</v>
+      </c>
+      <c r="B707" t="s">
+        <v>52</v>
+      </c>
+      <c r="C707" t="s">
+        <v>59</v>
+      </c>
+      <c r="D707" t="s">
+        <v>13</v>
+      </c>
+      <c r="E707" t="s">
+        <v>7</v>
+      </c>
+      <c r="F707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>6</v>
+      </c>
+      <c r="B708" t="s">
+        <v>52</v>
+      </c>
+      <c r="C708" t="s">
+        <v>68</v>
+      </c>
+      <c r="D708" t="s">
+        <v>29</v>
+      </c>
+      <c r="E708" t="s">
+        <v>7</v>
+      </c>
+      <c r="F708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>6</v>
+      </c>
+      <c r="B709" t="s">
+        <v>52</v>
+      </c>
+      <c r="C709" t="s">
+        <v>69</v>
+      </c>
+      <c r="D709" t="s">
+        <v>44</v>
+      </c>
+      <c r="E709" t="s">
+        <v>8</v>
+      </c>
+      <c r="F709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>6</v>
+      </c>
+      <c r="B710" t="s">
+        <v>52</v>
+      </c>
+      <c r="C710" t="s">
+        <v>70</v>
+      </c>
+      <c r="D710" t="s">
+        <v>66</v>
+      </c>
+      <c r="E710" t="s">
+        <v>8</v>
+      </c>
+      <c r="F710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>6</v>
+      </c>
+      <c r="B711" t="s">
+        <v>52</v>
+      </c>
+      <c r="C711" t="s">
+        <v>71</v>
+      </c>
+      <c r="D711" t="s">
+        <v>27</v>
+      </c>
+      <c r="E711" t="s">
+        <v>8</v>
+      </c>
+      <c r="F711">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>6</v>
+      </c>
+      <c r="B712" t="s">
+        <v>52</v>
+      </c>
+      <c r="C712" t="s">
+        <v>97</v>
+      </c>
+      <c r="D712" t="s">
+        <v>11</v>
+      </c>
+      <c r="E712" t="s">
+        <v>8</v>
+      </c>
+      <c r="F712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>6</v>
+      </c>
+      <c r="B713" t="s">
+        <v>52</v>
+      </c>
+      <c r="C713" t="s">
+        <v>31</v>
+      </c>
+      <c r="D713" t="s">
+        <v>18</v>
+      </c>
+      <c r="E713" t="s">
+        <v>8</v>
+      </c>
+      <c r="F713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>6</v>
+      </c>
+      <c r="B714" t="s">
+        <v>52</v>
+      </c>
+      <c r="C714" t="s">
+        <v>72</v>
+      </c>
+      <c r="D714" t="s">
+        <v>14</v>
+      </c>
+      <c r="E714" t="s">
+        <v>9</v>
+      </c>
+      <c r="F714">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>6</v>
+      </c>
+      <c r="B715" t="s">
+        <v>52</v>
+      </c>
+      <c r="C715" t="s">
+        <v>73</v>
+      </c>
+      <c r="D715" t="s">
+        <v>44</v>
+      </c>
+      <c r="E715" t="s">
+        <v>9</v>
+      </c>
+      <c r="F715">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>6</v>
+      </c>
+      <c r="B716" t="s">
+        <v>52</v>
+      </c>
+      <c r="C716" t="s">
+        <v>74</v>
+      </c>
+      <c r="D716" t="s">
+        <v>13</v>
+      </c>
+      <c r="E716" t="s">
+        <v>9</v>
+      </c>
+      <c r="F716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>6</v>
+      </c>
+      <c r="B717" t="s">
+        <v>52</v>
+      </c>
+      <c r="C717" t="s">
+        <v>75</v>
+      </c>
+      <c r="D717" t="s">
+        <v>42</v>
+      </c>
+      <c r="E717" t="s">
+        <v>9</v>
+      </c>
+      <c r="F717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>6</v>
+      </c>
+      <c r="B718" t="s">
+        <v>52</v>
+      </c>
+      <c r="C718" t="s">
+        <v>76</v>
+      </c>
+      <c r="D718" t="s">
+        <v>27</v>
+      </c>
+      <c r="E718" t="s">
+        <v>9</v>
+      </c>
+      <c r="F718">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>6</v>
+      </c>
+      <c r="B719" t="s">
+        <v>52</v>
+      </c>
+      <c r="C719" t="s">
+        <v>25</v>
+      </c>
+      <c r="D719" t="s">
+        <v>18</v>
+      </c>
+      <c r="E719" t="s">
+        <v>10</v>
+      </c>
+      <c r="F719">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>6</v>
+      </c>
+      <c r="B720" t="s">
+        <v>52</v>
+      </c>
+      <c r="C720" t="s">
+        <v>148</v>
+      </c>
+      <c r="D720" t="s">
+        <v>42</v>
+      </c>
+      <c r="E720" t="s">
+        <v>10</v>
+      </c>
+      <c r="F720">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>6</v>
+      </c>
+      <c r="B721" t="s">
+        <v>52</v>
+      </c>
+      <c r="C721" t="s">
+        <v>158</v>
+      </c>
+      <c r="D721" t="s">
+        <v>39</v>
+      </c>
+      <c r="E721" t="s">
+        <v>10</v>
+      </c>
+      <c r="F721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>6</v>
+      </c>
+      <c r="B722" t="s">
+        <v>53</v>
+      </c>
+      <c r="C722" t="s">
+        <v>77</v>
+      </c>
+      <c r="D722" t="s">
+        <v>14</v>
+      </c>
+      <c r="E722" t="s">
+        <v>7</v>
+      </c>
+      <c r="F722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>6</v>
+      </c>
+      <c r="B723" t="s">
+        <v>53</v>
+      </c>
+      <c r="C723" t="s">
+        <v>78</v>
+      </c>
+      <c r="D723" t="s">
+        <v>13</v>
+      </c>
+      <c r="E723" t="s">
+        <v>7</v>
+      </c>
+      <c r="F723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>6</v>
+      </c>
+      <c r="B724" t="s">
+        <v>53</v>
+      </c>
+      <c r="C724" t="s">
+        <v>31</v>
+      </c>
+      <c r="D724" t="s">
+        <v>18</v>
+      </c>
+      <c r="E724" t="s">
+        <v>8</v>
+      </c>
+      <c r="F724">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>6</v>
+      </c>
+      <c r="B725" t="s">
+        <v>53</v>
+      </c>
+      <c r="C725" t="s">
+        <v>69</v>
+      </c>
+      <c r="D725" t="s">
+        <v>44</v>
+      </c>
+      <c r="E725" t="s">
+        <v>8</v>
+      </c>
+      <c r="F725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>6</v>
+      </c>
+      <c r="B726" t="s">
+        <v>53</v>
+      </c>
+      <c r="C726" t="s">
+        <v>32</v>
+      </c>
+      <c r="D726" t="s">
+        <v>33</v>
+      </c>
+      <c r="E726" t="s">
+        <v>8</v>
+      </c>
+      <c r="F726">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>6</v>
+      </c>
+      <c r="B727" t="s">
+        <v>53</v>
+      </c>
+      <c r="C727" t="s">
+        <v>119</v>
+      </c>
+      <c r="D727" t="s">
+        <v>12</v>
+      </c>
+      <c r="E727" t="s">
+        <v>8</v>
+      </c>
+      <c r="F727">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>6</v>
+      </c>
+      <c r="B728" t="s">
+        <v>53</v>
+      </c>
+      <c r="C728" t="s">
+        <v>79</v>
+      </c>
+      <c r="D728" t="s">
+        <v>33</v>
+      </c>
+      <c r="E728" t="s">
+        <v>8</v>
+      </c>
+      <c r="F728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>6</v>
+      </c>
+      <c r="B729" t="s">
+        <v>53</v>
+      </c>
+      <c r="C729" t="s">
+        <v>41</v>
+      </c>
+      <c r="D729" t="s">
+        <v>42</v>
+      </c>
+      <c r="E729" t="s">
+        <v>9</v>
+      </c>
+      <c r="F729">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>6</v>
+      </c>
+      <c r="B730" t="s">
+        <v>53</v>
+      </c>
+      <c r="C730" t="s">
+        <v>64</v>
+      </c>
+      <c r="D730" t="s">
+        <v>33</v>
+      </c>
+      <c r="E730" t="s">
+        <v>9</v>
+      </c>
+      <c r="F730">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>6</v>
+      </c>
+      <c r="B731" t="s">
+        <v>53</v>
+      </c>
+      <c r="C731" t="s">
+        <v>80</v>
+      </c>
+      <c r="D731" t="s">
+        <v>11</v>
+      </c>
+      <c r="E731" t="s">
+        <v>9</v>
+      </c>
+      <c r="F731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>6</v>
+      </c>
+      <c r="B732" t="s">
+        <v>53</v>
+      </c>
+      <c r="C732" t="s">
+        <v>23</v>
+      </c>
+      <c r="D732" t="s">
+        <v>11</v>
+      </c>
+      <c r="E732" t="s">
+        <v>9</v>
+      </c>
+      <c r="F732">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>6</v>
+      </c>
+      <c r="B733" t="s">
+        <v>53</v>
+      </c>
+      <c r="C733" t="s">
+        <v>37</v>
+      </c>
+      <c r="D733" t="s">
+        <v>38</v>
+      </c>
+      <c r="E733" t="s">
+        <v>9</v>
+      </c>
+      <c r="F733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>6</v>
+      </c>
+      <c r="B734" t="s">
+        <v>53</v>
+      </c>
+      <c r="C734" t="s">
+        <v>25</v>
+      </c>
+      <c r="D734" t="s">
+        <v>81</v>
+      </c>
+      <c r="E734" t="s">
+        <v>10</v>
+      </c>
+      <c r="F734">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>6</v>
+      </c>
+      <c r="B735" t="s">
+        <v>53</v>
+      </c>
+      <c r="C735" t="s">
+        <v>132</v>
+      </c>
+      <c r="D735" t="s">
+        <v>15</v>
+      </c>
+      <c r="E735" t="s">
+        <v>10</v>
+      </c>
+      <c r="F735">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>6</v>
+      </c>
+      <c r="B736" t="s">
+        <v>53</v>
+      </c>
+      <c r="C736" t="s">
+        <v>124</v>
+      </c>
+      <c r="D736" t="s">
+        <v>11</v>
+      </c>
+      <c r="E736" t="s">
+        <v>10</v>
+      </c>
+      <c r="F736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>6</v>
+      </c>
+      <c r="B737" t="s">
+        <v>54</v>
+      </c>
+      <c r="C737" t="s">
+        <v>77</v>
+      </c>
+      <c r="D737" t="s">
+        <v>14</v>
+      </c>
+      <c r="E737" t="s">
+        <v>7</v>
+      </c>
+      <c r="F737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>6</v>
+      </c>
+      <c r="B738" t="s">
+        <v>54</v>
+      </c>
+      <c r="C738" t="s">
+        <v>85</v>
+      </c>
+      <c r="D738" t="s">
+        <v>15</v>
+      </c>
+      <c r="E738" t="s">
+        <v>7</v>
+      </c>
+      <c r="F738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>6</v>
+      </c>
+      <c r="B739" t="s">
+        <v>54</v>
+      </c>
+      <c r="C739" t="s">
+        <v>30</v>
+      </c>
+      <c r="D739" t="s">
+        <v>14</v>
+      </c>
+      <c r="E739" t="s">
+        <v>8</v>
+      </c>
+      <c r="F739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>6</v>
+      </c>
+      <c r="B740" t="s">
+        <v>54</v>
+      </c>
+      <c r="C740" t="s">
+        <v>20</v>
+      </c>
+      <c r="D740" t="s">
+        <v>27</v>
+      </c>
+      <c r="E740" t="s">
+        <v>8</v>
+      </c>
+      <c r="F740">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>6</v>
+      </c>
+      <c r="B741" t="s">
+        <v>54</v>
+      </c>
+      <c r="C741" t="s">
+        <v>137</v>
+      </c>
+      <c r="D741" t="s">
+        <v>44</v>
+      </c>
+      <c r="E741" t="s">
+        <v>8</v>
+      </c>
+      <c r="F741">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>6</v>
+      </c>
+      <c r="B742" t="s">
+        <v>54</v>
+      </c>
+      <c r="C742" t="s">
+        <v>87</v>
+      </c>
+      <c r="D742" t="s">
+        <v>63</v>
+      </c>
+      <c r="E742" t="s">
+        <v>8</v>
+      </c>
+      <c r="F742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>6</v>
+      </c>
+      <c r="B743" t="s">
+        <v>54</v>
+      </c>
+      <c r="C743" t="s">
+        <v>36</v>
+      </c>
+      <c r="D743" t="s">
+        <v>39</v>
+      </c>
+      <c r="E743" t="s">
+        <v>8</v>
+      </c>
+      <c r="F743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>6</v>
+      </c>
+      <c r="B744" t="s">
+        <v>54</v>
+      </c>
+      <c r="C744" t="s">
+        <v>141</v>
+      </c>
+      <c r="D744" t="s">
+        <v>29</v>
+      </c>
+      <c r="E744" t="s">
+        <v>9</v>
+      </c>
+      <c r="F744">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>6</v>
+      </c>
+      <c r="B745" t="s">
+        <v>54</v>
+      </c>
+      <c r="C745" t="s">
+        <v>156</v>
+      </c>
+      <c r="D745" t="s">
+        <v>27</v>
+      </c>
+      <c r="E745" t="s">
+        <v>9</v>
+      </c>
+      <c r="F745">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>6</v>
+      </c>
+      <c r="B746" t="s">
+        <v>54</v>
+      </c>
+      <c r="C746" t="s">
+        <v>123</v>
+      </c>
+      <c r="D746" t="s">
+        <v>44</v>
+      </c>
+      <c r="E746" t="s">
+        <v>9</v>
+      </c>
+      <c r="F746">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>6</v>
+      </c>
+      <c r="B747" t="s">
+        <v>54</v>
+      </c>
+      <c r="C747" t="s">
+        <v>74</v>
+      </c>
+      <c r="D747" t="s">
+        <v>13</v>
+      </c>
+      <c r="E747" t="s">
+        <v>9</v>
+      </c>
+      <c r="F747">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>6</v>
+      </c>
+      <c r="B748" t="s">
+        <v>54</v>
+      </c>
+      <c r="C748" t="s">
+        <v>88</v>
+      </c>
+      <c r="D748" t="s">
+        <v>16</v>
+      </c>
+      <c r="E748" t="s">
+        <v>9</v>
+      </c>
+      <c r="F748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>6</v>
+      </c>
+      <c r="B749" t="s">
+        <v>54</v>
+      </c>
+      <c r="C749" t="s">
+        <v>115</v>
+      </c>
+      <c r="D749" t="s">
+        <v>63</v>
+      </c>
+      <c r="E749" t="s">
+        <v>10</v>
+      </c>
+      <c r="F749">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>6</v>
+      </c>
+      <c r="B750" t="s">
+        <v>54</v>
+      </c>
+      <c r="C750" t="s">
+        <v>125</v>
+      </c>
+      <c r="D750" t="s">
+        <v>14</v>
+      </c>
+      <c r="E750" t="s">
+        <v>10</v>
+      </c>
+      <c r="F750">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>6</v>
+      </c>
+      <c r="B751" t="s">
+        <v>54</v>
+      </c>
+      <c r="C751" t="s">
+        <v>25</v>
+      </c>
+      <c r="D751" t="s">
+        <v>18</v>
+      </c>
+      <c r="E751" t="s">
+        <v>10</v>
+      </c>
+      <c r="F751">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>6</v>
+      </c>
+      <c r="B752" t="s">
+        <v>55</v>
+      </c>
+      <c r="C752" t="s">
+        <v>59</v>
+      </c>
+      <c r="D752" t="s">
+        <v>61</v>
+      </c>
+      <c r="E752" t="s">
+        <v>7</v>
+      </c>
+      <c r="F752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>6</v>
+      </c>
+      <c r="B753" t="s">
+        <v>55</v>
+      </c>
+      <c r="C753" t="s">
+        <v>98</v>
+      </c>
+      <c r="D753" t="s">
+        <v>17</v>
+      </c>
+      <c r="E753" t="s">
+        <v>7</v>
+      </c>
+      <c r="F753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>6</v>
+      </c>
+      <c r="B754" t="s">
+        <v>55</v>
+      </c>
+      <c r="C754" t="s">
+        <v>138</v>
+      </c>
+      <c r="D754" t="s">
+        <v>13</v>
+      </c>
+      <c r="E754" t="s">
+        <v>8</v>
+      </c>
+      <c r="F754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>6</v>
+      </c>
+      <c r="B755" t="s">
+        <v>55</v>
+      </c>
+      <c r="C755" t="s">
+        <v>69</v>
+      </c>
+      <c r="D755" t="s">
+        <v>44</v>
+      </c>
+      <c r="E755" t="s">
+        <v>8</v>
+      </c>
+      <c r="F755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>6</v>
+      </c>
+      <c r="B756" t="s">
+        <v>55</v>
+      </c>
+      <c r="C756" t="s">
+        <v>139</v>
+      </c>
+      <c r="D756" t="s">
+        <v>15</v>
+      </c>
+      <c r="E756" t="s">
+        <v>8</v>
+      </c>
+      <c r="F756">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>6</v>
+      </c>
+      <c r="B757" t="s">
+        <v>55</v>
+      </c>
+      <c r="C757" t="s">
+        <v>140</v>
+      </c>
+      <c r="D757" t="s">
+        <v>16</v>
+      </c>
+      <c r="E757" t="s">
+        <v>8</v>
+      </c>
+      <c r="F757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>6</v>
+      </c>
+      <c r="B758" t="s">
+        <v>55</v>
+      </c>
+      <c r="C758" t="s">
+        <v>32</v>
+      </c>
+      <c r="D758" t="s">
+        <v>33</v>
+      </c>
+      <c r="E758" t="s">
+        <v>8</v>
+      </c>
+      <c r="F758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>6</v>
+      </c>
+      <c r="B759" t="s">
+        <v>55</v>
+      </c>
+      <c r="C759" t="s">
+        <v>141</v>
+      </c>
+      <c r="D759" t="s">
+        <v>29</v>
+      </c>
+      <c r="E759" t="s">
+        <v>9</v>
+      </c>
+      <c r="F759">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>6</v>
+      </c>
+      <c r="B760" t="s">
+        <v>55</v>
+      </c>
+      <c r="C760" t="s">
+        <v>74</v>
+      </c>
+      <c r="D760" t="s">
+        <v>13</v>
+      </c>
+      <c r="E760" t="s">
+        <v>9</v>
+      </c>
+      <c r="F760">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>6</v>
+      </c>
+      <c r="B761" t="s">
+        <v>55</v>
+      </c>
+      <c r="C761" t="s">
+        <v>67</v>
+      </c>
+      <c r="D761" t="s">
+        <v>63</v>
+      </c>
+      <c r="E761" t="s">
+        <v>9</v>
+      </c>
+      <c r="F761">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>6</v>
+      </c>
+      <c r="B762" t="s">
+        <v>55</v>
+      </c>
+      <c r="C762" t="s">
+        <v>21</v>
+      </c>
+      <c r="D762" t="s">
+        <v>11</v>
+      </c>
+      <c r="E762" t="s">
+        <v>9</v>
+      </c>
+      <c r="F762">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>6</v>
+      </c>
+      <c r="B763" t="s">
+        <v>55</v>
+      </c>
+      <c r="C763" t="s">
+        <v>43</v>
+      </c>
+      <c r="D763" t="s">
+        <v>44</v>
+      </c>
+      <c r="E763" t="s">
+        <v>9</v>
+      </c>
+      <c r="F763">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>6</v>
+      </c>
+      <c r="B764" t="s">
+        <v>55</v>
+      </c>
+      <c r="C764" t="s">
+        <v>25</v>
+      </c>
+      <c r="D764" t="s">
+        <v>93</v>
+      </c>
+      <c r="E764" t="s">
+        <v>10</v>
+      </c>
+      <c r="F764">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>6</v>
+      </c>
+      <c r="B765" t="s">
+        <v>55</v>
+      </c>
+      <c r="C765" t="s">
+        <v>142</v>
+      </c>
+      <c r="D765" t="s">
+        <v>66</v>
+      </c>
+      <c r="E765" t="s">
+        <v>10</v>
+      </c>
+      <c r="F765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>6</v>
+      </c>
+      <c r="B766" t="s">
+        <v>55</v>
+      </c>
+      <c r="C766" t="s">
+        <v>132</v>
+      </c>
+      <c r="D766" t="s">
+        <v>15</v>
+      </c>
+      <c r="E766" t="s">
+        <v>10</v>
+      </c>
+      <c r="F766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>6</v>
+      </c>
+      <c r="B767" t="s">
+        <v>56</v>
+      </c>
+      <c r="C767" t="s">
+        <v>95</v>
+      </c>
+      <c r="D767" t="s">
+        <v>12</v>
+      </c>
+      <c r="E767" t="s">
+        <v>7</v>
+      </c>
+      <c r="F767">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>6</v>
+      </c>
+      <c r="B768" t="s">
+        <v>56</v>
+      </c>
+      <c r="C768" t="s">
+        <v>98</v>
+      </c>
+      <c r="D768" t="s">
+        <v>17</v>
+      </c>
+      <c r="E768" t="s">
+        <v>7</v>
+      </c>
+      <c r="F768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>6</v>
+      </c>
+      <c r="B769" t="s">
+        <v>56</v>
+      </c>
+      <c r="C769" t="s">
+        <v>137</v>
+      </c>
+      <c r="D769" t="s">
+        <v>44</v>
+      </c>
+      <c r="E769" t="s">
+        <v>8</v>
+      </c>
+      <c r="F769">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>6</v>
+      </c>
+      <c r="B770" t="s">
+        <v>56</v>
+      </c>
+      <c r="C770" t="s">
+        <v>109</v>
+      </c>
+      <c r="D770" t="s">
+        <v>11</v>
+      </c>
+      <c r="E770" t="s">
+        <v>8</v>
+      </c>
+      <c r="F770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>6</v>
+      </c>
+      <c r="B771" t="s">
+        <v>56</v>
+      </c>
+      <c r="C771" t="s">
+        <v>31</v>
+      </c>
+      <c r="D771" t="s">
+        <v>18</v>
+      </c>
+      <c r="E771" t="s">
+        <v>8</v>
+      </c>
+      <c r="F771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>6</v>
+      </c>
+      <c r="B772" t="s">
+        <v>56</v>
+      </c>
+      <c r="C772" t="s">
+        <v>94</v>
+      </c>
+      <c r="D772" t="s">
+        <v>13</v>
+      </c>
+      <c r="E772" t="s">
+        <v>8</v>
+      </c>
+      <c r="F772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>6</v>
+      </c>
+      <c r="B773" t="s">
+        <v>56</v>
+      </c>
+      <c r="C773" t="s">
+        <v>97</v>
+      </c>
+      <c r="D773" t="s">
+        <v>11</v>
+      </c>
+      <c r="E773" t="s">
+        <v>8</v>
+      </c>
+      <c r="F773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>6</v>
+      </c>
+      <c r="B774" t="s">
+        <v>56</v>
+      </c>
+      <c r="C774" t="s">
+        <v>157</v>
+      </c>
+      <c r="D774" t="s">
+        <v>12</v>
+      </c>
+      <c r="E774" t="s">
+        <v>9</v>
+      </c>
+      <c r="F774">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>6</v>
+      </c>
+      <c r="B775" t="s">
+        <v>56</v>
+      </c>
+      <c r="C775" t="s">
+        <v>41</v>
+      </c>
+      <c r="D775" t="s">
+        <v>42</v>
+      </c>
+      <c r="E775" t="s">
+        <v>9</v>
+      </c>
+      <c r="F775">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>6</v>
+      </c>
+      <c r="B776" t="s">
+        <v>56</v>
+      </c>
+      <c r="C776" t="s">
+        <v>102</v>
+      </c>
+      <c r="D776" t="s">
+        <v>17</v>
+      </c>
+      <c r="E776" t="s">
+        <v>9</v>
+      </c>
+      <c r="F776">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>6</v>
+      </c>
+      <c r="B777" t="s">
+        <v>56</v>
+      </c>
+      <c r="C777" t="s">
+        <v>101</v>
+      </c>
+      <c r="D777" t="s">
+        <v>44</v>
+      </c>
+      <c r="E777" t="s">
+        <v>9</v>
+      </c>
+      <c r="F777">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>6</v>
+      </c>
+      <c r="B778" t="s">
+        <v>56</v>
+      </c>
+      <c r="C778" t="s">
+        <v>100</v>
+      </c>
+      <c r="D778" t="s">
+        <v>14</v>
+      </c>
+      <c r="E778" t="s">
+        <v>9</v>
+      </c>
+      <c r="F778">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>6</v>
+      </c>
+      <c r="B779" t="s">
+        <v>56</v>
+      </c>
+      <c r="C779" t="s">
+        <v>25</v>
+      </c>
+      <c r="D779" t="s">
+        <v>18</v>
+      </c>
+      <c r="E779" t="s">
+        <v>10</v>
+      </c>
+      <c r="F779">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>6</v>
+      </c>
+      <c r="B780" t="s">
+        <v>56</v>
+      </c>
+      <c r="C780" t="s">
+        <v>103</v>
+      </c>
+      <c r="D780" t="s">
+        <v>15</v>
+      </c>
+      <c r="E780" t="s">
+        <v>10</v>
+      </c>
+      <c r="F780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>6</v>
+      </c>
+      <c r="B781" t="s">
+        <v>56</v>
+      </c>
+      <c r="C781" t="s">
+        <v>46</v>
+      </c>
+      <c r="D781" t="s">
+        <v>12</v>
+      </c>
+      <c r="E781" t="s">
+        <v>10</v>
+      </c>
+      <c r="F781">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>6</v>
+      </c>
+      <c r="B782" t="s">
+        <v>57</v>
+      </c>
+      <c r="C782" t="s">
+        <v>77</v>
+      </c>
+      <c r="D782" t="s">
+        <v>14</v>
+      </c>
+      <c r="E782" t="s">
+        <v>7</v>
+      </c>
+      <c r="F782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>6</v>
+      </c>
+      <c r="B783" t="s">
+        <v>57</v>
+      </c>
+      <c r="C783" t="s">
+        <v>108</v>
+      </c>
+      <c r="D783" t="s">
+        <v>38</v>
+      </c>
+      <c r="E783" t="s">
+        <v>7</v>
+      </c>
+      <c r="F783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>6</v>
+      </c>
+      <c r="B784" t="s">
+        <v>57</v>
+      </c>
+      <c r="C784" t="s">
+        <v>110</v>
+      </c>
+      <c r="D784" t="s">
+        <v>14</v>
+      </c>
+      <c r="E784" t="s">
+        <v>8</v>
+      </c>
+      <c r="F784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>6</v>
+      </c>
+      <c r="B785" t="s">
+        <v>57</v>
+      </c>
+      <c r="C785" t="s">
+        <v>62</v>
+      </c>
+      <c r="D785" t="s">
+        <v>63</v>
+      </c>
+      <c r="E785" t="s">
+        <v>8</v>
+      </c>
+      <c r="F785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>6</v>
+      </c>
+      <c r="B786" t="s">
+        <v>57</v>
+      </c>
+      <c r="C786" t="s">
+        <v>19</v>
+      </c>
+      <c r="D786" t="s">
+        <v>12</v>
+      </c>
+      <c r="E786" t="s">
+        <v>8</v>
+      </c>
+      <c r="F786">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>6</v>
+      </c>
+      <c r="B787" t="s">
+        <v>57</v>
+      </c>
+      <c r="C787" t="s">
+        <v>36</v>
+      </c>
+      <c r="D787" t="s">
+        <v>39</v>
+      </c>
+      <c r="E787" t="s">
+        <v>8</v>
+      </c>
+      <c r="F787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>6</v>
+      </c>
+      <c r="B788" t="s">
+        <v>57</v>
+      </c>
+      <c r="C788" t="s">
+        <v>109</v>
+      </c>
+      <c r="D788" t="s">
+        <v>11</v>
+      </c>
+      <c r="E788" t="s">
+        <v>8</v>
+      </c>
+      <c r="F788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>6</v>
+      </c>
+      <c r="B789" t="s">
+        <v>57</v>
+      </c>
+      <c r="C789" t="s">
+        <v>41</v>
+      </c>
+      <c r="D789" t="s">
+        <v>42</v>
+      </c>
+      <c r="E789" t="s">
+        <v>9</v>
+      </c>
+      <c r="F789">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>6</v>
+      </c>
+      <c r="B790" t="s">
+        <v>57</v>
+      </c>
+      <c r="C790" t="s">
+        <v>76</v>
+      </c>
+      <c r="D790" t="s">
+        <v>27</v>
+      </c>
+      <c r="E790" t="s">
+        <v>9</v>
+      </c>
+      <c r="F790">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>6</v>
+      </c>
+      <c r="B791" t="s">
+        <v>57</v>
+      </c>
+      <c r="C791" t="s">
+        <v>123</v>
+      </c>
+      <c r="D791" t="s">
+        <v>44</v>
+      </c>
+      <c r="E791" t="s">
+        <v>9</v>
+      </c>
+      <c r="F791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>6</v>
+      </c>
+      <c r="B792" t="s">
+        <v>57</v>
+      </c>
+      <c r="C792" t="s">
+        <v>64</v>
+      </c>
+      <c r="D792" t="s">
+        <v>33</v>
+      </c>
+      <c r="E792" t="s">
+        <v>9</v>
+      </c>
+      <c r="F792">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>6</v>
+      </c>
+      <c r="B793" t="s">
+        <v>57</v>
+      </c>
+      <c r="C793" t="s">
+        <v>37</v>
+      </c>
+      <c r="D793" t="s">
+        <v>38</v>
+      </c>
+      <c r="E793" t="s">
+        <v>9</v>
+      </c>
+      <c r="F793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>6</v>
+      </c>
+      <c r="B794" t="s">
+        <v>57</v>
+      </c>
+      <c r="C794" t="s">
+        <v>132</v>
+      </c>
+      <c r="D794" t="s">
+        <v>15</v>
+      </c>
+      <c r="E794" t="s">
+        <v>10</v>
+      </c>
+      <c r="F794">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>6</v>
+      </c>
+      <c r="B795" t="s">
+        <v>57</v>
+      </c>
+      <c r="C795" t="s">
+        <v>115</v>
+      </c>
+      <c r="D795" t="s">
+        <v>63</v>
+      </c>
+      <c r="E795" t="s">
+        <v>10</v>
+      </c>
+      <c r="F795">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>6</v>
+      </c>
+      <c r="B796" t="s">
+        <v>57</v>
+      </c>
+      <c r="C796" t="s">
+        <v>25</v>
+      </c>
+      <c r="D796" t="s">
+        <v>18</v>
+      </c>
+      <c r="E796" t="s">
+        <v>10</v>
+      </c>
+      <c r="F796">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>6</v>
+      </c>
+      <c r="B797" t="s">
+        <v>58</v>
+      </c>
+      <c r="C797" t="s">
+        <v>117</v>
+      </c>
+      <c r="D797" t="s">
+        <v>42</v>
+      </c>
+      <c r="E797" t="s">
+        <v>7</v>
+      </c>
+      <c r="F797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>6</v>
+      </c>
+      <c r="B798" t="s">
+        <v>58</v>
+      </c>
+      <c r="C798" t="s">
+        <v>143</v>
+      </c>
+      <c r="D798" t="s">
+        <v>12</v>
+      </c>
+      <c r="E798" t="s">
+        <v>7</v>
+      </c>
+      <c r="F798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>6</v>
+      </c>
+      <c r="B799" t="s">
+        <v>58</v>
+      </c>
+      <c r="C799" t="s">
+        <v>118</v>
+      </c>
+      <c r="D799" t="s">
+        <v>14</v>
+      </c>
+      <c r="E799" t="s">
+        <v>8</v>
+      </c>
+      <c r="F799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>6</v>
+      </c>
+      <c r="B800" t="s">
+        <v>58</v>
+      </c>
+      <c r="C800" t="s">
+        <v>144</v>
+      </c>
+      <c r="D800" t="s">
+        <v>18</v>
+      </c>
+      <c r="E800" t="s">
+        <v>8</v>
+      </c>
+      <c r="F800">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>6</v>
+      </c>
+      <c r="B801" t="s">
+        <v>58</v>
+      </c>
+      <c r="C801" t="s">
+        <v>97</v>
+      </c>
+      <c r="D801" t="s">
+        <v>11</v>
+      </c>
+      <c r="E801" t="s">
+        <v>8</v>
+      </c>
+      <c r="F801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>6</v>
+      </c>
+      <c r="B802" t="s">
+        <v>58</v>
+      </c>
+      <c r="C802" t="s">
+        <v>119</v>
+      </c>
+      <c r="D802" t="s">
+        <v>12</v>
+      </c>
+      <c r="E802" t="s">
+        <v>8</v>
+      </c>
+      <c r="F802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>6</v>
+      </c>
+      <c r="B803" t="s">
+        <v>58</v>
+      </c>
+      <c r="C803" t="s">
+        <v>145</v>
+      </c>
+      <c r="D803" t="s">
+        <v>14</v>
+      </c>
+      <c r="E803" t="s">
+        <v>8</v>
+      </c>
+      <c r="F803">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>6</v>
+      </c>
+      <c r="B804" t="s">
+        <v>58</v>
+      </c>
+      <c r="C804" t="s">
+        <v>146</v>
+      </c>
+      <c r="D804" t="s">
+        <v>14</v>
+      </c>
+      <c r="E804" t="s">
+        <v>9</v>
+      </c>
+      <c r="F804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>6</v>
+      </c>
+      <c r="B805" t="s">
+        <v>58</v>
+      </c>
+      <c r="C805" t="s">
+        <v>99</v>
+      </c>
+      <c r="D805" t="s">
+        <v>42</v>
+      </c>
+      <c r="E805" t="s">
+        <v>9</v>
+      </c>
+      <c r="F805">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>6</v>
+      </c>
+      <c r="B806" t="s">
+        <v>58</v>
+      </c>
+      <c r="C806" t="s">
+        <v>123</v>
+      </c>
+      <c r="D806" t="s">
+        <v>44</v>
+      </c>
+      <c r="E806" t="s">
+        <v>9</v>
+      </c>
+      <c r="F806">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>6</v>
+      </c>
+      <c r="B807" t="s">
+        <v>58</v>
+      </c>
+      <c r="C807" t="s">
+        <v>141</v>
+      </c>
+      <c r="D807" t="s">
+        <v>13</v>
+      </c>
+      <c r="E807" t="s">
+        <v>9</v>
+      </c>
+      <c r="F807">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>6</v>
+      </c>
+      <c r="B808" t="s">
+        <v>58</v>
+      </c>
+      <c r="C808" t="s">
+        <v>156</v>
+      </c>
+      <c r="D808" t="s">
+        <v>27</v>
+      </c>
+      <c r="E808" t="s">
+        <v>9</v>
+      </c>
+      <c r="F808">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>6</v>
+      </c>
+      <c r="B809" t="s">
+        <v>58</v>
+      </c>
+      <c r="C809" t="s">
+        <v>148</v>
+      </c>
+      <c r="D809" t="s">
+        <v>42</v>
+      </c>
+      <c r="E809" t="s">
+        <v>10</v>
+      </c>
+      <c r="F809">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>6</v>
+      </c>
+      <c r="B810" t="s">
+        <v>58</v>
+      </c>
+      <c r="C810" t="s">
+        <v>25</v>
+      </c>
+      <c r="D810" t="s">
+        <v>18</v>
+      </c>
+      <c r="E810" t="s">
+        <v>10</v>
+      </c>
+      <c r="F810">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>6</v>
+      </c>
+      <c r="B811" t="s">
+        <v>58</v>
+      </c>
+      <c r="C811" t="s">
+        <v>149</v>
+      </c>
+      <c r="D811" t="s">
+        <v>13</v>
+      </c>
+      <c r="E811" t="s">
+        <v>10</v>
+      </c>
+      <c r="F811">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14420,10 +17126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15083,13 +17789,121 @@
         <v>305</v>
       </c>
     </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <f>SUM('Weekly Points'!F677:F691)+C47</f>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <f>SUM('Weekly Points'!F692:F706)+C48</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <f>SUM('Weekly Points'!F707:F721)+C49</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <f>SUM('Weekly Points'!F722:F736)+C50</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <f>SUM('Weekly Points'!F737:F751)+C51</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <f>SUM('Weekly Points'!F752:F766)+C52</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <f>SUM('Weekly Points'!F767:F781)+C53</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <f>SUM('Weekly Points'!F782:F796)+C54</f>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <f>SUM('Weekly Points'!F797:F811)+C55</f>
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:I10">
     <sortCondition descending="1" ref="I2:I10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C11:C19 C20:C28 C29:C36 C37:C46 C47:C55" formulaRange="1"/>
+    <ignoredError sqref="C11:C19 C20:C28 C29:C36 C37:C46 C47:C55 C56:C64" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Trust Me Im a Cat.xlsx
+++ b/Trust Me Im a Cat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\Trust_me_Im_a_Cat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA15DB-6D5C-4B35-8133-A482633F4677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF537A-53FC-4A76-A5D0-27CA4FDCF394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3861" uniqueCount="163">
   <si>
     <t>Gameweek</t>
   </si>
@@ -515,6 +515,18 @@
   <si>
     <t>Stewart</t>
   </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Van den Berg</t>
+  </si>
+  <si>
+    <t>Bernado</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
 </sst>
 </file>
 
@@ -885,13 +897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F811"/>
+  <dimension ref="A1:F946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B673" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B923" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F692" sqref="F692"/>
+      <selection pane="bottomRight" activeCell="F945" sqref="F945"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17119,6 +17131,2706 @@
         <v>0</v>
       </c>
     </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>7</v>
+      </c>
+      <c r="B812" t="s">
+        <v>51</v>
+      </c>
+      <c r="C812" t="s">
+        <v>77</v>
+      </c>
+      <c r="D812" t="s">
+        <v>14</v>
+      </c>
+      <c r="E812" t="s">
+        <v>7</v>
+      </c>
+      <c r="F812">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>7</v>
+      </c>
+      <c r="B813" t="s">
+        <v>51</v>
+      </c>
+      <c r="C813" t="s">
+        <v>127</v>
+      </c>
+      <c r="D813" t="s">
+        <v>27</v>
+      </c>
+      <c r="E813" t="s">
+        <v>7</v>
+      </c>
+      <c r="F813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>7</v>
+      </c>
+      <c r="B814" t="s">
+        <v>51</v>
+      </c>
+      <c r="C814" t="s">
+        <v>136</v>
+      </c>
+      <c r="D814" t="s">
+        <v>11</v>
+      </c>
+      <c r="E814" t="s">
+        <v>8</v>
+      </c>
+      <c r="F814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>7</v>
+      </c>
+      <c r="B815" t="s">
+        <v>51</v>
+      </c>
+      <c r="C815" t="s">
+        <v>30</v>
+      </c>
+      <c r="D815" t="s">
+        <v>14</v>
+      </c>
+      <c r="E815" t="s">
+        <v>8</v>
+      </c>
+      <c r="F815">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>7</v>
+      </c>
+      <c r="B816" t="s">
+        <v>51</v>
+      </c>
+      <c r="C816" t="s">
+        <v>128</v>
+      </c>
+      <c r="D816" t="s">
+        <v>33</v>
+      </c>
+      <c r="E816" t="s">
+        <v>8</v>
+      </c>
+      <c r="F816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>7</v>
+      </c>
+      <c r="B817" t="s">
+        <v>51</v>
+      </c>
+      <c r="C817" t="s">
+        <v>129</v>
+      </c>
+      <c r="D817" t="s">
+        <v>15</v>
+      </c>
+      <c r="E817" t="s">
+        <v>8</v>
+      </c>
+      <c r="F817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>7</v>
+      </c>
+      <c r="B818" t="s">
+        <v>51</v>
+      </c>
+      <c r="C818" t="s">
+        <v>36</v>
+      </c>
+      <c r="D818" t="s">
+        <v>39</v>
+      </c>
+      <c r="E818" t="s">
+        <v>8</v>
+      </c>
+      <c r="F818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>7</v>
+      </c>
+      <c r="B819" t="s">
+        <v>51</v>
+      </c>
+      <c r="C819" t="s">
+        <v>123</v>
+      </c>
+      <c r="D819" t="s">
+        <v>44</v>
+      </c>
+      <c r="E819" t="s">
+        <v>9</v>
+      </c>
+      <c r="F819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>7</v>
+      </c>
+      <c r="B820" t="s">
+        <v>51</v>
+      </c>
+      <c r="C820" t="s">
+        <v>41</v>
+      </c>
+      <c r="D820" t="s">
+        <v>42</v>
+      </c>
+      <c r="E820" t="s">
+        <v>9</v>
+      </c>
+      <c r="F820">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>7</v>
+      </c>
+      <c r="B821" t="s">
+        <v>51</v>
+      </c>
+      <c r="C821" t="s">
+        <v>64</v>
+      </c>
+      <c r="D821" t="s">
+        <v>33</v>
+      </c>
+      <c r="E821" t="s">
+        <v>9</v>
+      </c>
+      <c r="F821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>7</v>
+      </c>
+      <c r="B822" t="s">
+        <v>51</v>
+      </c>
+      <c r="C822" t="s">
+        <v>72</v>
+      </c>
+      <c r="D822" t="s">
+        <v>14</v>
+      </c>
+      <c r="E822" t="s">
+        <v>9</v>
+      </c>
+      <c r="F822">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>7</v>
+      </c>
+      <c r="B823" t="s">
+        <v>51</v>
+      </c>
+      <c r="C823" t="s">
+        <v>67</v>
+      </c>
+      <c r="D823" t="s">
+        <v>63</v>
+      </c>
+      <c r="E823" t="s">
+        <v>9</v>
+      </c>
+      <c r="F823">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>7</v>
+      </c>
+      <c r="B824" t="s">
+        <v>51</v>
+      </c>
+      <c r="C824" t="s">
+        <v>25</v>
+      </c>
+      <c r="D824" t="s">
+        <v>18</v>
+      </c>
+      <c r="E824" t="s">
+        <v>10</v>
+      </c>
+      <c r="F824">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>7</v>
+      </c>
+      <c r="B825" t="s">
+        <v>51</v>
+      </c>
+      <c r="C825" t="s">
+        <v>65</v>
+      </c>
+      <c r="D825" t="s">
+        <v>66</v>
+      </c>
+      <c r="E825" t="s">
+        <v>10</v>
+      </c>
+      <c r="F825">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>7</v>
+      </c>
+      <c r="B826" t="s">
+        <v>51</v>
+      </c>
+      <c r="C826" t="s">
+        <v>103</v>
+      </c>
+      <c r="D826" t="s">
+        <v>15</v>
+      </c>
+      <c r="E826" t="s">
+        <v>10</v>
+      </c>
+      <c r="F826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>7</v>
+      </c>
+      <c r="B827" t="s">
+        <v>6</v>
+      </c>
+      <c r="C827" t="s">
+        <v>150</v>
+      </c>
+      <c r="D827" t="s">
+        <v>151</v>
+      </c>
+      <c r="E827" t="s">
+        <v>7</v>
+      </c>
+      <c r="F827">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>7</v>
+      </c>
+      <c r="B828" t="s">
+        <v>6</v>
+      </c>
+      <c r="C828" t="s">
+        <v>152</v>
+      </c>
+      <c r="D828" t="s">
+        <v>17</v>
+      </c>
+      <c r="E828" t="s">
+        <v>7</v>
+      </c>
+      <c r="F828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>7</v>
+      </c>
+      <c r="B829" t="s">
+        <v>6</v>
+      </c>
+      <c r="C829" t="s">
+        <v>30</v>
+      </c>
+      <c r="D829" t="s">
+        <v>14</v>
+      </c>
+      <c r="E829" t="s">
+        <v>8</v>
+      </c>
+      <c r="F829">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>7</v>
+      </c>
+      <c r="B830" t="s">
+        <v>6</v>
+      </c>
+      <c r="C830" t="s">
+        <v>153</v>
+      </c>
+      <c r="D830" t="s">
+        <v>42</v>
+      </c>
+      <c r="E830" t="s">
+        <v>8</v>
+      </c>
+      <c r="F830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>7</v>
+      </c>
+      <c r="B831" t="s">
+        <v>6</v>
+      </c>
+      <c r="C831" t="s">
+        <v>119</v>
+      </c>
+      <c r="D831" t="s">
+        <v>12</v>
+      </c>
+      <c r="E831" t="s">
+        <v>8</v>
+      </c>
+      <c r="F831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>7</v>
+      </c>
+      <c r="B832" t="s">
+        <v>6</v>
+      </c>
+      <c r="C832" t="s">
+        <v>154</v>
+      </c>
+      <c r="D832" t="s">
+        <v>66</v>
+      </c>
+      <c r="E832" t="s">
+        <v>8</v>
+      </c>
+      <c r="F832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>7</v>
+      </c>
+      <c r="B833" t="s">
+        <v>6</v>
+      </c>
+      <c r="C833" t="s">
+        <v>109</v>
+      </c>
+      <c r="D833" t="s">
+        <v>11</v>
+      </c>
+      <c r="E833" t="s">
+        <v>8</v>
+      </c>
+      <c r="F833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>7</v>
+      </c>
+      <c r="B834" t="s">
+        <v>6</v>
+      </c>
+      <c r="C834" t="s">
+        <v>155</v>
+      </c>
+      <c r="D834" t="s">
+        <v>17</v>
+      </c>
+      <c r="E834" t="s">
+        <v>9</v>
+      </c>
+      <c r="F834">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>7</v>
+      </c>
+      <c r="B835" t="s">
+        <v>6</v>
+      </c>
+      <c r="C835" t="s">
+        <v>41</v>
+      </c>
+      <c r="D835" t="s">
+        <v>42</v>
+      </c>
+      <c r="E835" t="s">
+        <v>9</v>
+      </c>
+      <c r="F835">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>7</v>
+      </c>
+      <c r="B836" t="s">
+        <v>6</v>
+      </c>
+      <c r="C836" t="s">
+        <v>80</v>
+      </c>
+      <c r="D836" t="s">
+        <v>11</v>
+      </c>
+      <c r="E836" t="s">
+        <v>9</v>
+      </c>
+      <c r="F836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>7</v>
+      </c>
+      <c r="B837" t="s">
+        <v>6</v>
+      </c>
+      <c r="C837" t="s">
+        <v>156</v>
+      </c>
+      <c r="D837" t="s">
+        <v>27</v>
+      </c>
+      <c r="E837" t="s">
+        <v>9</v>
+      </c>
+      <c r="F837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>7</v>
+      </c>
+      <c r="B838" t="s">
+        <v>6</v>
+      </c>
+      <c r="C838" t="s">
+        <v>99</v>
+      </c>
+      <c r="D838" t="s">
+        <v>42</v>
+      </c>
+      <c r="E838" t="s">
+        <v>9</v>
+      </c>
+      <c r="F838">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>7</v>
+      </c>
+      <c r="B839" t="s">
+        <v>6</v>
+      </c>
+      <c r="C839" t="s">
+        <v>132</v>
+      </c>
+      <c r="D839" t="s">
+        <v>15</v>
+      </c>
+      <c r="E839" t="s">
+        <v>10</v>
+      </c>
+      <c r="F839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>7</v>
+      </c>
+      <c r="B840" t="s">
+        <v>6</v>
+      </c>
+      <c r="C840" t="s">
+        <v>25</v>
+      </c>
+      <c r="D840" t="s">
+        <v>18</v>
+      </c>
+      <c r="E840" t="s">
+        <v>10</v>
+      </c>
+      <c r="F840">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>7</v>
+      </c>
+      <c r="B841" t="s">
+        <v>6</v>
+      </c>
+      <c r="C841" t="s">
+        <v>125</v>
+      </c>
+      <c r="D841" t="s">
+        <v>14</v>
+      </c>
+      <c r="E841" t="s">
+        <v>10</v>
+      </c>
+      <c r="F841">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>7</v>
+      </c>
+      <c r="B842" t="s">
+        <v>52</v>
+      </c>
+      <c r="C842" t="s">
+        <v>59</v>
+      </c>
+      <c r="D842" t="s">
+        <v>13</v>
+      </c>
+      <c r="E842" t="s">
+        <v>7</v>
+      </c>
+      <c r="F842">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>7</v>
+      </c>
+      <c r="B843" t="s">
+        <v>52</v>
+      </c>
+      <c r="C843" t="s">
+        <v>68</v>
+      </c>
+      <c r="D843" t="s">
+        <v>29</v>
+      </c>
+      <c r="E843" t="s">
+        <v>7</v>
+      </c>
+      <c r="F843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>7</v>
+      </c>
+      <c r="B844" t="s">
+        <v>52</v>
+      </c>
+      <c r="C844" t="s">
+        <v>69</v>
+      </c>
+      <c r="D844" t="s">
+        <v>44</v>
+      </c>
+      <c r="E844" t="s">
+        <v>8</v>
+      </c>
+      <c r="F844">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>7</v>
+      </c>
+      <c r="B845" t="s">
+        <v>52</v>
+      </c>
+      <c r="C845" t="s">
+        <v>70</v>
+      </c>
+      <c r="D845" t="s">
+        <v>66</v>
+      </c>
+      <c r="E845" t="s">
+        <v>8</v>
+      </c>
+      <c r="F845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>7</v>
+      </c>
+      <c r="B846" t="s">
+        <v>52</v>
+      </c>
+      <c r="C846" t="s">
+        <v>71</v>
+      </c>
+      <c r="D846" t="s">
+        <v>27</v>
+      </c>
+      <c r="E846" t="s">
+        <v>8</v>
+      </c>
+      <c r="F846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>7</v>
+      </c>
+      <c r="B847" t="s">
+        <v>52</v>
+      </c>
+      <c r="C847" t="s">
+        <v>36</v>
+      </c>
+      <c r="D847" t="s">
+        <v>39</v>
+      </c>
+      <c r="E847" t="s">
+        <v>8</v>
+      </c>
+      <c r="F847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>7</v>
+      </c>
+      <c r="B848" t="s">
+        <v>52</v>
+      </c>
+      <c r="C848" t="s">
+        <v>31</v>
+      </c>
+      <c r="D848" t="s">
+        <v>18</v>
+      </c>
+      <c r="E848" t="s">
+        <v>8</v>
+      </c>
+      <c r="F848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>7</v>
+      </c>
+      <c r="B849" t="s">
+        <v>52</v>
+      </c>
+      <c r="C849" t="s">
+        <v>72</v>
+      </c>
+      <c r="D849" t="s">
+        <v>14</v>
+      </c>
+      <c r="E849" t="s">
+        <v>9</v>
+      </c>
+      <c r="F849">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>7</v>
+      </c>
+      <c r="B850" t="s">
+        <v>52</v>
+      </c>
+      <c r="C850" t="s">
+        <v>73</v>
+      </c>
+      <c r="D850" t="s">
+        <v>44</v>
+      </c>
+      <c r="E850" t="s">
+        <v>9</v>
+      </c>
+      <c r="F850">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>7</v>
+      </c>
+      <c r="B851" t="s">
+        <v>52</v>
+      </c>
+      <c r="C851" t="s">
+        <v>74</v>
+      </c>
+      <c r="D851" t="s">
+        <v>13</v>
+      </c>
+      <c r="E851" t="s">
+        <v>9</v>
+      </c>
+      <c r="F851">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>7</v>
+      </c>
+      <c r="B852" t="s">
+        <v>52</v>
+      </c>
+      <c r="C852" t="s">
+        <v>75</v>
+      </c>
+      <c r="D852" t="s">
+        <v>42</v>
+      </c>
+      <c r="E852" t="s">
+        <v>9</v>
+      </c>
+      <c r="F852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>7</v>
+      </c>
+      <c r="B853" t="s">
+        <v>52</v>
+      </c>
+      <c r="C853" t="s">
+        <v>76</v>
+      </c>
+      <c r="D853" t="s">
+        <v>27</v>
+      </c>
+      <c r="E853" t="s">
+        <v>9</v>
+      </c>
+      <c r="F853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>7</v>
+      </c>
+      <c r="B854" t="s">
+        <v>52</v>
+      </c>
+      <c r="C854" t="s">
+        <v>25</v>
+      </c>
+      <c r="D854" t="s">
+        <v>18</v>
+      </c>
+      <c r="E854" t="s">
+        <v>10</v>
+      </c>
+      <c r="F854">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>7</v>
+      </c>
+      <c r="B855" t="s">
+        <v>52</v>
+      </c>
+      <c r="C855" t="s">
+        <v>148</v>
+      </c>
+      <c r="D855" t="s">
+        <v>12</v>
+      </c>
+      <c r="E855" t="s">
+        <v>10</v>
+      </c>
+      <c r="F855">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>7</v>
+      </c>
+      <c r="B856" t="s">
+        <v>52</v>
+      </c>
+      <c r="C856" t="s">
+        <v>158</v>
+      </c>
+      <c r="D856" t="s">
+        <v>39</v>
+      </c>
+      <c r="E856" t="s">
+        <v>10</v>
+      </c>
+      <c r="F856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>7</v>
+      </c>
+      <c r="B857" t="s">
+        <v>53</v>
+      </c>
+      <c r="C857" t="s">
+        <v>77</v>
+      </c>
+      <c r="D857" t="s">
+        <v>14</v>
+      </c>
+      <c r="E857" t="s">
+        <v>7</v>
+      </c>
+      <c r="F857">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>7</v>
+      </c>
+      <c r="B858" t="s">
+        <v>53</v>
+      </c>
+      <c r="C858" t="s">
+        <v>78</v>
+      </c>
+      <c r="D858" t="s">
+        <v>13</v>
+      </c>
+      <c r="E858" t="s">
+        <v>7</v>
+      </c>
+      <c r="F858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>7</v>
+      </c>
+      <c r="B859" t="s">
+        <v>53</v>
+      </c>
+      <c r="C859" t="s">
+        <v>31</v>
+      </c>
+      <c r="D859" t="s">
+        <v>18</v>
+      </c>
+      <c r="E859" t="s">
+        <v>8</v>
+      </c>
+      <c r="F859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>7</v>
+      </c>
+      <c r="B860" t="s">
+        <v>53</v>
+      </c>
+      <c r="C860" t="s">
+        <v>69</v>
+      </c>
+      <c r="D860" t="s">
+        <v>44</v>
+      </c>
+      <c r="E860" t="s">
+        <v>8</v>
+      </c>
+      <c r="F860">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>7</v>
+      </c>
+      <c r="B861" t="s">
+        <v>53</v>
+      </c>
+      <c r="C861" t="s">
+        <v>32</v>
+      </c>
+      <c r="D861" t="s">
+        <v>33</v>
+      </c>
+      <c r="E861" t="s">
+        <v>8</v>
+      </c>
+      <c r="F861">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>7</v>
+      </c>
+      <c r="B862" t="s">
+        <v>53</v>
+      </c>
+      <c r="C862" t="s">
+        <v>119</v>
+      </c>
+      <c r="D862" t="s">
+        <v>12</v>
+      </c>
+      <c r="E862" t="s">
+        <v>8</v>
+      </c>
+      <c r="F862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>7</v>
+      </c>
+      <c r="B863" t="s">
+        <v>53</v>
+      </c>
+      <c r="C863" t="s">
+        <v>79</v>
+      </c>
+      <c r="D863" t="s">
+        <v>33</v>
+      </c>
+      <c r="E863" t="s">
+        <v>8</v>
+      </c>
+      <c r="F863">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>7</v>
+      </c>
+      <c r="B864" t="s">
+        <v>53</v>
+      </c>
+      <c r="C864" t="s">
+        <v>41</v>
+      </c>
+      <c r="D864" t="s">
+        <v>42</v>
+      </c>
+      <c r="E864" t="s">
+        <v>9</v>
+      </c>
+      <c r="F864">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>7</v>
+      </c>
+      <c r="B865" t="s">
+        <v>53</v>
+      </c>
+      <c r="C865" t="s">
+        <v>64</v>
+      </c>
+      <c r="D865" t="s">
+        <v>33</v>
+      </c>
+      <c r="E865" t="s">
+        <v>9</v>
+      </c>
+      <c r="F865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>7</v>
+      </c>
+      <c r="B866" t="s">
+        <v>53</v>
+      </c>
+      <c r="C866" t="s">
+        <v>80</v>
+      </c>
+      <c r="D866" t="s">
+        <v>11</v>
+      </c>
+      <c r="E866" t="s">
+        <v>9</v>
+      </c>
+      <c r="F866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>7</v>
+      </c>
+      <c r="B867" t="s">
+        <v>53</v>
+      </c>
+      <c r="C867" t="s">
+        <v>23</v>
+      </c>
+      <c r="D867" t="s">
+        <v>11</v>
+      </c>
+      <c r="E867" t="s">
+        <v>9</v>
+      </c>
+      <c r="F867">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>7</v>
+      </c>
+      <c r="B868" t="s">
+        <v>53</v>
+      </c>
+      <c r="C868" t="s">
+        <v>37</v>
+      </c>
+      <c r="D868" t="s">
+        <v>38</v>
+      </c>
+      <c r="E868" t="s">
+        <v>9</v>
+      </c>
+      <c r="F868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>7</v>
+      </c>
+      <c r="B869" t="s">
+        <v>53</v>
+      </c>
+      <c r="C869" t="s">
+        <v>25</v>
+      </c>
+      <c r="D869" t="s">
+        <v>81</v>
+      </c>
+      <c r="E869" t="s">
+        <v>10</v>
+      </c>
+      <c r="F869">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>7</v>
+      </c>
+      <c r="B870" t="s">
+        <v>53</v>
+      </c>
+      <c r="C870" t="s">
+        <v>132</v>
+      </c>
+      <c r="D870" t="s">
+        <v>15</v>
+      </c>
+      <c r="E870" t="s">
+        <v>10</v>
+      </c>
+      <c r="F870">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>7</v>
+      </c>
+      <c r="B871" t="s">
+        <v>53</v>
+      </c>
+      <c r="C871" t="s">
+        <v>124</v>
+      </c>
+      <c r="D871" t="s">
+        <v>11</v>
+      </c>
+      <c r="E871" t="s">
+        <v>10</v>
+      </c>
+      <c r="F871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>7</v>
+      </c>
+      <c r="B872" t="s">
+        <v>54</v>
+      </c>
+      <c r="C872" t="s">
+        <v>77</v>
+      </c>
+      <c r="D872" t="s">
+        <v>14</v>
+      </c>
+      <c r="E872" t="s">
+        <v>7</v>
+      </c>
+      <c r="F872">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>7</v>
+      </c>
+      <c r="B873" t="s">
+        <v>54</v>
+      </c>
+      <c r="C873" t="s">
+        <v>28</v>
+      </c>
+      <c r="D873" t="s">
+        <v>29</v>
+      </c>
+      <c r="E873" t="s">
+        <v>7</v>
+      </c>
+      <c r="F873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>7</v>
+      </c>
+      <c r="B874" t="s">
+        <v>54</v>
+      </c>
+      <c r="C874" t="s">
+        <v>159</v>
+      </c>
+      <c r="D874" t="s">
+        <v>18</v>
+      </c>
+      <c r="E874" t="s">
+        <v>8</v>
+      </c>
+      <c r="F874">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>7</v>
+      </c>
+      <c r="B875" t="s">
+        <v>54</v>
+      </c>
+      <c r="C875" t="s">
+        <v>62</v>
+      </c>
+      <c r="D875" t="s">
+        <v>63</v>
+      </c>
+      <c r="E875" t="s">
+        <v>8</v>
+      </c>
+      <c r="F875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>7</v>
+      </c>
+      <c r="B876" t="s">
+        <v>54</v>
+      </c>
+      <c r="C876" t="s">
+        <v>137</v>
+      </c>
+      <c r="D876" t="s">
+        <v>44</v>
+      </c>
+      <c r="E876" t="s">
+        <v>8</v>
+      </c>
+      <c r="F876">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>7</v>
+      </c>
+      <c r="B877" t="s">
+        <v>54</v>
+      </c>
+      <c r="C877" t="s">
+        <v>160</v>
+      </c>
+      <c r="D877" t="s">
+        <v>29</v>
+      </c>
+      <c r="E877" t="s">
+        <v>8</v>
+      </c>
+      <c r="F877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>7</v>
+      </c>
+      <c r="B878" t="s">
+        <v>54</v>
+      </c>
+      <c r="C878" t="s">
+        <v>36</v>
+      </c>
+      <c r="D878" t="s">
+        <v>39</v>
+      </c>
+      <c r="E878" t="s">
+        <v>8</v>
+      </c>
+      <c r="F878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>7</v>
+      </c>
+      <c r="B879" t="s">
+        <v>54</v>
+      </c>
+      <c r="C879" t="s">
+        <v>141</v>
+      </c>
+      <c r="D879" t="s">
+        <v>29</v>
+      </c>
+      <c r="E879" t="s">
+        <v>9</v>
+      </c>
+      <c r="F879">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>7</v>
+      </c>
+      <c r="B880" t="s">
+        <v>54</v>
+      </c>
+      <c r="C880" t="s">
+        <v>41</v>
+      </c>
+      <c r="D880" t="s">
+        <v>11</v>
+      </c>
+      <c r="E880" t="s">
+        <v>9</v>
+      </c>
+      <c r="F880">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>7</v>
+      </c>
+      <c r="B881" t="s">
+        <v>54</v>
+      </c>
+      <c r="C881" t="s">
+        <v>67</v>
+      </c>
+      <c r="D881" t="s">
+        <v>63</v>
+      </c>
+      <c r="E881" t="s">
+        <v>9</v>
+      </c>
+      <c r="F881">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>7</v>
+      </c>
+      <c r="B882" t="s">
+        <v>54</v>
+      </c>
+      <c r="C882" t="s">
+        <v>161</v>
+      </c>
+      <c r="D882" t="s">
+        <v>18</v>
+      </c>
+      <c r="E882" t="s">
+        <v>9</v>
+      </c>
+      <c r="F882">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>7</v>
+      </c>
+      <c r="B883" t="s">
+        <v>54</v>
+      </c>
+      <c r="C883" t="s">
+        <v>162</v>
+      </c>
+      <c r="D883" t="s">
+        <v>14</v>
+      </c>
+      <c r="E883" t="s">
+        <v>9</v>
+      </c>
+      <c r="F883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>7</v>
+      </c>
+      <c r="B884" t="s">
+        <v>54</v>
+      </c>
+      <c r="C884" t="s">
+        <v>115</v>
+      </c>
+      <c r="D884" t="s">
+        <v>63</v>
+      </c>
+      <c r="E884" t="s">
+        <v>10</v>
+      </c>
+      <c r="F884">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>7</v>
+      </c>
+      <c r="B885" t="s">
+        <v>54</v>
+      </c>
+      <c r="C885" t="s">
+        <v>125</v>
+      </c>
+      <c r="D885" t="s">
+        <v>14</v>
+      </c>
+      <c r="E885" t="s">
+        <v>10</v>
+      </c>
+      <c r="F885">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>7</v>
+      </c>
+      <c r="B886" t="s">
+        <v>54</v>
+      </c>
+      <c r="C886" t="s">
+        <v>25</v>
+      </c>
+      <c r="D886" t="s">
+        <v>18</v>
+      </c>
+      <c r="E886" t="s">
+        <v>10</v>
+      </c>
+      <c r="F886">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>7</v>
+      </c>
+      <c r="B887" t="s">
+        <v>55</v>
+      </c>
+      <c r="C887" t="s">
+        <v>59</v>
+      </c>
+      <c r="D887" t="s">
+        <v>61</v>
+      </c>
+      <c r="E887" t="s">
+        <v>7</v>
+      </c>
+      <c r="F887">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>7</v>
+      </c>
+      <c r="B888" t="s">
+        <v>55</v>
+      </c>
+      <c r="C888" t="s">
+        <v>98</v>
+      </c>
+      <c r="D888" t="s">
+        <v>17</v>
+      </c>
+      <c r="E888" t="s">
+        <v>7</v>
+      </c>
+      <c r="F888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>7</v>
+      </c>
+      <c r="B889" t="s">
+        <v>55</v>
+      </c>
+      <c r="C889" t="s">
+        <v>138</v>
+      </c>
+      <c r="D889" t="s">
+        <v>13</v>
+      </c>
+      <c r="E889" t="s">
+        <v>8</v>
+      </c>
+      <c r="F889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>7</v>
+      </c>
+      <c r="B890" t="s">
+        <v>55</v>
+      </c>
+      <c r="C890" t="s">
+        <v>69</v>
+      </c>
+      <c r="D890" t="s">
+        <v>44</v>
+      </c>
+      <c r="E890" t="s">
+        <v>8</v>
+      </c>
+      <c r="F890">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>7</v>
+      </c>
+      <c r="B891" t="s">
+        <v>55</v>
+      </c>
+      <c r="C891" t="s">
+        <v>139</v>
+      </c>
+      <c r="D891" t="s">
+        <v>15</v>
+      </c>
+      <c r="E891" t="s">
+        <v>8</v>
+      </c>
+      <c r="F891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>7</v>
+      </c>
+      <c r="B892" t="s">
+        <v>55</v>
+      </c>
+      <c r="C892" t="s">
+        <v>140</v>
+      </c>
+      <c r="D892" t="s">
+        <v>16</v>
+      </c>
+      <c r="E892" t="s">
+        <v>8</v>
+      </c>
+      <c r="F892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>7</v>
+      </c>
+      <c r="B893" t="s">
+        <v>55</v>
+      </c>
+      <c r="C893" t="s">
+        <v>32</v>
+      </c>
+      <c r="D893" t="s">
+        <v>33</v>
+      </c>
+      <c r="E893" t="s">
+        <v>8</v>
+      </c>
+      <c r="F893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>7</v>
+      </c>
+      <c r="B894" t="s">
+        <v>55</v>
+      </c>
+      <c r="C894" t="s">
+        <v>141</v>
+      </c>
+      <c r="D894" t="s">
+        <v>29</v>
+      </c>
+      <c r="E894" t="s">
+        <v>9</v>
+      </c>
+      <c r="F894">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>7</v>
+      </c>
+      <c r="B895" t="s">
+        <v>55</v>
+      </c>
+      <c r="C895" t="s">
+        <v>74</v>
+      </c>
+      <c r="D895" t="s">
+        <v>13</v>
+      </c>
+      <c r="E895" t="s">
+        <v>9</v>
+      </c>
+      <c r="F895">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>7</v>
+      </c>
+      <c r="B896" t="s">
+        <v>55</v>
+      </c>
+      <c r="C896" t="s">
+        <v>67</v>
+      </c>
+      <c r="D896" t="s">
+        <v>63</v>
+      </c>
+      <c r="E896" t="s">
+        <v>9</v>
+      </c>
+      <c r="F896">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>7</v>
+      </c>
+      <c r="B897" t="s">
+        <v>55</v>
+      </c>
+      <c r="C897" t="s">
+        <v>21</v>
+      </c>
+      <c r="D897" t="s">
+        <v>11</v>
+      </c>
+      <c r="E897" t="s">
+        <v>9</v>
+      </c>
+      <c r="F897">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>7</v>
+      </c>
+      <c r="B898" t="s">
+        <v>55</v>
+      </c>
+      <c r="C898" t="s">
+        <v>43</v>
+      </c>
+      <c r="D898" t="s">
+        <v>44</v>
+      </c>
+      <c r="E898" t="s">
+        <v>9</v>
+      </c>
+      <c r="F898">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>7</v>
+      </c>
+      <c r="B899" t="s">
+        <v>55</v>
+      </c>
+      <c r="C899" t="s">
+        <v>25</v>
+      </c>
+      <c r="D899" t="s">
+        <v>93</v>
+      </c>
+      <c r="E899" t="s">
+        <v>10</v>
+      </c>
+      <c r="F899">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>7</v>
+      </c>
+      <c r="B900" t="s">
+        <v>55</v>
+      </c>
+      <c r="C900" t="s">
+        <v>142</v>
+      </c>
+      <c r="D900" t="s">
+        <v>66</v>
+      </c>
+      <c r="E900" t="s">
+        <v>10</v>
+      </c>
+      <c r="F900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>7</v>
+      </c>
+      <c r="B901" t="s">
+        <v>55</v>
+      </c>
+      <c r="C901" t="s">
+        <v>132</v>
+      </c>
+      <c r="D901" t="s">
+        <v>15</v>
+      </c>
+      <c r="E901" t="s">
+        <v>10</v>
+      </c>
+      <c r="F901">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>7</v>
+      </c>
+      <c r="B902" t="s">
+        <v>56</v>
+      </c>
+      <c r="C902" t="s">
+        <v>95</v>
+      </c>
+      <c r="D902" t="s">
+        <v>12</v>
+      </c>
+      <c r="E902" t="s">
+        <v>7</v>
+      </c>
+      <c r="F902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>7</v>
+      </c>
+      <c r="B903" t="s">
+        <v>56</v>
+      </c>
+      <c r="C903" t="s">
+        <v>98</v>
+      </c>
+      <c r="D903" t="s">
+        <v>17</v>
+      </c>
+      <c r="E903" t="s">
+        <v>7</v>
+      </c>
+      <c r="F903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>7</v>
+      </c>
+      <c r="B904" t="s">
+        <v>56</v>
+      </c>
+      <c r="C904" t="s">
+        <v>137</v>
+      </c>
+      <c r="D904" t="s">
+        <v>44</v>
+      </c>
+      <c r="E904" t="s">
+        <v>8</v>
+      </c>
+      <c r="F904">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>7</v>
+      </c>
+      <c r="B905" t="s">
+        <v>56</v>
+      </c>
+      <c r="C905" t="s">
+        <v>109</v>
+      </c>
+      <c r="D905" t="s">
+        <v>11</v>
+      </c>
+      <c r="E905" t="s">
+        <v>8</v>
+      </c>
+      <c r="F905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>7</v>
+      </c>
+      <c r="B906" t="s">
+        <v>56</v>
+      </c>
+      <c r="C906" t="s">
+        <v>31</v>
+      </c>
+      <c r="D906" t="s">
+        <v>18</v>
+      </c>
+      <c r="E906" t="s">
+        <v>8</v>
+      </c>
+      <c r="F906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>7</v>
+      </c>
+      <c r="B907" t="s">
+        <v>56</v>
+      </c>
+      <c r="C907" t="s">
+        <v>94</v>
+      </c>
+      <c r="D907" t="s">
+        <v>13</v>
+      </c>
+      <c r="E907" t="s">
+        <v>8</v>
+      </c>
+      <c r="F907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>7</v>
+      </c>
+      <c r="B908" t="s">
+        <v>56</v>
+      </c>
+      <c r="C908" t="s">
+        <v>97</v>
+      </c>
+      <c r="D908" t="s">
+        <v>11</v>
+      </c>
+      <c r="E908" t="s">
+        <v>8</v>
+      </c>
+      <c r="F908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>7</v>
+      </c>
+      <c r="B909" t="s">
+        <v>56</v>
+      </c>
+      <c r="C909" t="s">
+        <v>157</v>
+      </c>
+      <c r="D909" t="s">
+        <v>12</v>
+      </c>
+      <c r="E909" t="s">
+        <v>9</v>
+      </c>
+      <c r="F909">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>7</v>
+      </c>
+      <c r="B910" t="s">
+        <v>56</v>
+      </c>
+      <c r="C910" t="s">
+        <v>41</v>
+      </c>
+      <c r="D910" t="s">
+        <v>42</v>
+      </c>
+      <c r="E910" t="s">
+        <v>9</v>
+      </c>
+      <c r="F910">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>7</v>
+      </c>
+      <c r="B911" t="s">
+        <v>56</v>
+      </c>
+      <c r="C911" t="s">
+        <v>102</v>
+      </c>
+      <c r="D911" t="s">
+        <v>17</v>
+      </c>
+      <c r="E911" t="s">
+        <v>9</v>
+      </c>
+      <c r="F911">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>7</v>
+      </c>
+      <c r="B912" t="s">
+        <v>56</v>
+      </c>
+      <c r="C912" t="s">
+        <v>101</v>
+      </c>
+      <c r="D912" t="s">
+        <v>44</v>
+      </c>
+      <c r="E912" t="s">
+        <v>9</v>
+      </c>
+      <c r="F912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>7</v>
+      </c>
+      <c r="B913" t="s">
+        <v>56</v>
+      </c>
+      <c r="C913" t="s">
+        <v>100</v>
+      </c>
+      <c r="D913" t="s">
+        <v>14</v>
+      </c>
+      <c r="E913" t="s">
+        <v>9</v>
+      </c>
+      <c r="F913">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>7</v>
+      </c>
+      <c r="B914" t="s">
+        <v>56</v>
+      </c>
+      <c r="C914" t="s">
+        <v>25</v>
+      </c>
+      <c r="D914" t="s">
+        <v>18</v>
+      </c>
+      <c r="E914" t="s">
+        <v>10</v>
+      </c>
+      <c r="F914">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>7</v>
+      </c>
+      <c r="B915" t="s">
+        <v>56</v>
+      </c>
+      <c r="C915" t="s">
+        <v>103</v>
+      </c>
+      <c r="D915" t="s">
+        <v>15</v>
+      </c>
+      <c r="E915" t="s">
+        <v>10</v>
+      </c>
+      <c r="F915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>7</v>
+      </c>
+      <c r="B916" t="s">
+        <v>56</v>
+      </c>
+      <c r="C916" t="s">
+        <v>46</v>
+      </c>
+      <c r="D916" t="s">
+        <v>12</v>
+      </c>
+      <c r="E916" t="s">
+        <v>10</v>
+      </c>
+      <c r="F916">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>7</v>
+      </c>
+      <c r="B917" t="s">
+        <v>57</v>
+      </c>
+      <c r="C917" t="s">
+        <v>77</v>
+      </c>
+      <c r="D917" t="s">
+        <v>14</v>
+      </c>
+      <c r="E917" t="s">
+        <v>7</v>
+      </c>
+      <c r="F917">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>7</v>
+      </c>
+      <c r="B918" t="s">
+        <v>57</v>
+      </c>
+      <c r="C918" t="s">
+        <v>108</v>
+      </c>
+      <c r="D918" t="s">
+        <v>38</v>
+      </c>
+      <c r="E918" t="s">
+        <v>7</v>
+      </c>
+      <c r="F918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>7</v>
+      </c>
+      <c r="B919" t="s">
+        <v>57</v>
+      </c>
+      <c r="C919" t="s">
+        <v>110</v>
+      </c>
+      <c r="D919" t="s">
+        <v>14</v>
+      </c>
+      <c r="E919" t="s">
+        <v>8</v>
+      </c>
+      <c r="F919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>7</v>
+      </c>
+      <c r="B920" t="s">
+        <v>57</v>
+      </c>
+      <c r="C920" t="s">
+        <v>62</v>
+      </c>
+      <c r="D920" t="s">
+        <v>63</v>
+      </c>
+      <c r="E920" t="s">
+        <v>8</v>
+      </c>
+      <c r="F920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>7</v>
+      </c>
+      <c r="B921" t="s">
+        <v>57</v>
+      </c>
+      <c r="C921" t="s">
+        <v>19</v>
+      </c>
+      <c r="D921" t="s">
+        <v>12</v>
+      </c>
+      <c r="E921" t="s">
+        <v>8</v>
+      </c>
+      <c r="F921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>7</v>
+      </c>
+      <c r="B922" t="s">
+        <v>57</v>
+      </c>
+      <c r="C922" t="s">
+        <v>36</v>
+      </c>
+      <c r="D922" t="s">
+        <v>39</v>
+      </c>
+      <c r="E922" t="s">
+        <v>8</v>
+      </c>
+      <c r="F922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>7</v>
+      </c>
+      <c r="B923" t="s">
+        <v>57</v>
+      </c>
+      <c r="C923" t="s">
+        <v>109</v>
+      </c>
+      <c r="D923" t="s">
+        <v>11</v>
+      </c>
+      <c r="E923" t="s">
+        <v>8</v>
+      </c>
+      <c r="F923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>7</v>
+      </c>
+      <c r="B924" t="s">
+        <v>57</v>
+      </c>
+      <c r="C924" t="s">
+        <v>41</v>
+      </c>
+      <c r="D924" t="s">
+        <v>42</v>
+      </c>
+      <c r="E924" t="s">
+        <v>9</v>
+      </c>
+      <c r="F924">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>7</v>
+      </c>
+      <c r="B925" t="s">
+        <v>57</v>
+      </c>
+      <c r="C925" t="s">
+        <v>76</v>
+      </c>
+      <c r="D925" t="s">
+        <v>27</v>
+      </c>
+      <c r="E925" t="s">
+        <v>9</v>
+      </c>
+      <c r="F925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>7</v>
+      </c>
+      <c r="B926" t="s">
+        <v>57</v>
+      </c>
+      <c r="C926" t="s">
+        <v>123</v>
+      </c>
+      <c r="D926" t="s">
+        <v>44</v>
+      </c>
+      <c r="E926" t="s">
+        <v>9</v>
+      </c>
+      <c r="F926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>7</v>
+      </c>
+      <c r="B927" t="s">
+        <v>57</v>
+      </c>
+      <c r="C927" t="s">
+        <v>100</v>
+      </c>
+      <c r="D927" t="s">
+        <v>14</v>
+      </c>
+      <c r="E927" t="s">
+        <v>9</v>
+      </c>
+      <c r="F927">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>7</v>
+      </c>
+      <c r="B928" t="s">
+        <v>57</v>
+      </c>
+      <c r="C928" t="s">
+        <v>37</v>
+      </c>
+      <c r="D928" t="s">
+        <v>38</v>
+      </c>
+      <c r="E928" t="s">
+        <v>9</v>
+      </c>
+      <c r="F928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>7</v>
+      </c>
+      <c r="B929" t="s">
+        <v>57</v>
+      </c>
+      <c r="C929" t="s">
+        <v>132</v>
+      </c>
+      <c r="D929" t="s">
+        <v>15</v>
+      </c>
+      <c r="E929" t="s">
+        <v>10</v>
+      </c>
+      <c r="F929">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>7</v>
+      </c>
+      <c r="B930" t="s">
+        <v>57</v>
+      </c>
+      <c r="C930" t="s">
+        <v>115</v>
+      </c>
+      <c r="D930" t="s">
+        <v>63</v>
+      </c>
+      <c r="E930" t="s">
+        <v>10</v>
+      </c>
+      <c r="F930">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>7</v>
+      </c>
+      <c r="B931" t="s">
+        <v>57</v>
+      </c>
+      <c r="C931" t="s">
+        <v>25</v>
+      </c>
+      <c r="D931" t="s">
+        <v>18</v>
+      </c>
+      <c r="E931" t="s">
+        <v>10</v>
+      </c>
+      <c r="F931">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>7</v>
+      </c>
+      <c r="B932" t="s">
+        <v>58</v>
+      </c>
+      <c r="C932" t="s">
+        <v>117</v>
+      </c>
+      <c r="D932" t="s">
+        <v>42</v>
+      </c>
+      <c r="E932" t="s">
+        <v>7</v>
+      </c>
+      <c r="F932">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>7</v>
+      </c>
+      <c r="B933" t="s">
+        <v>58</v>
+      </c>
+      <c r="C933" t="s">
+        <v>143</v>
+      </c>
+      <c r="D933" t="s">
+        <v>12</v>
+      </c>
+      <c r="E933" t="s">
+        <v>7</v>
+      </c>
+      <c r="F933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>7</v>
+      </c>
+      <c r="B934" t="s">
+        <v>58</v>
+      </c>
+      <c r="C934" t="s">
+        <v>118</v>
+      </c>
+      <c r="D934" t="s">
+        <v>14</v>
+      </c>
+      <c r="E934" t="s">
+        <v>8</v>
+      </c>
+      <c r="F934">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>7</v>
+      </c>
+      <c r="B935" t="s">
+        <v>58</v>
+      </c>
+      <c r="C935" t="s">
+        <v>144</v>
+      </c>
+      <c r="D935" t="s">
+        <v>18</v>
+      </c>
+      <c r="E935" t="s">
+        <v>8</v>
+      </c>
+      <c r="F935">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>7</v>
+      </c>
+      <c r="B936" t="s">
+        <v>58</v>
+      </c>
+      <c r="C936" t="s">
+        <v>97</v>
+      </c>
+      <c r="D936" t="s">
+        <v>11</v>
+      </c>
+      <c r="E936" t="s">
+        <v>8</v>
+      </c>
+      <c r="F936">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>7</v>
+      </c>
+      <c r="B937" t="s">
+        <v>58</v>
+      </c>
+      <c r="C937" t="s">
+        <v>119</v>
+      </c>
+      <c r="D937" t="s">
+        <v>12</v>
+      </c>
+      <c r="E937" t="s">
+        <v>8</v>
+      </c>
+      <c r="F937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>7</v>
+      </c>
+      <c r="B938" t="s">
+        <v>58</v>
+      </c>
+      <c r="C938" t="s">
+        <v>145</v>
+      </c>
+      <c r="D938" t="s">
+        <v>14</v>
+      </c>
+      <c r="E938" t="s">
+        <v>8</v>
+      </c>
+      <c r="F938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>7</v>
+      </c>
+      <c r="B939" t="s">
+        <v>58</v>
+      </c>
+      <c r="C939" t="s">
+        <v>100</v>
+      </c>
+      <c r="D939" t="s">
+        <v>14</v>
+      </c>
+      <c r="E939" t="s">
+        <v>9</v>
+      </c>
+      <c r="F939">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>7</v>
+      </c>
+      <c r="B940" t="s">
+        <v>58</v>
+      </c>
+      <c r="C940" t="s">
+        <v>99</v>
+      </c>
+      <c r="D940" t="s">
+        <v>42</v>
+      </c>
+      <c r="E940" t="s">
+        <v>9</v>
+      </c>
+      <c r="F940">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>7</v>
+      </c>
+      <c r="B941" t="s">
+        <v>58</v>
+      </c>
+      <c r="C941" t="s">
+        <v>123</v>
+      </c>
+      <c r="D941" t="s">
+        <v>44</v>
+      </c>
+      <c r="E941" t="s">
+        <v>9</v>
+      </c>
+      <c r="F941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>7</v>
+      </c>
+      <c r="B942" t="s">
+        <v>58</v>
+      </c>
+      <c r="C942" t="s">
+        <v>141</v>
+      </c>
+      <c r="D942" t="s">
+        <v>13</v>
+      </c>
+      <c r="E942" t="s">
+        <v>9</v>
+      </c>
+      <c r="F942">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>7</v>
+      </c>
+      <c r="B943" t="s">
+        <v>58</v>
+      </c>
+      <c r="C943" t="s">
+        <v>156</v>
+      </c>
+      <c r="D943" t="s">
+        <v>27</v>
+      </c>
+      <c r="E943" t="s">
+        <v>9</v>
+      </c>
+      <c r="F943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>7</v>
+      </c>
+      <c r="B944" t="s">
+        <v>58</v>
+      </c>
+      <c r="C944" t="s">
+        <v>46</v>
+      </c>
+      <c r="D944" t="s">
+        <v>12</v>
+      </c>
+      <c r="E944" t="s">
+        <v>10</v>
+      </c>
+      <c r="F944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>7</v>
+      </c>
+      <c r="B945" t="s">
+        <v>58</v>
+      </c>
+      <c r="C945" t="s">
+        <v>25</v>
+      </c>
+      <c r="D945" t="s">
+        <v>18</v>
+      </c>
+      <c r="E945" t="s">
+        <v>10</v>
+      </c>
+      <c r="F945">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>7</v>
+      </c>
+      <c r="B946" t="s">
+        <v>58</v>
+      </c>
+      <c r="C946" t="s">
+        <v>149</v>
+      </c>
+      <c r="D946" t="s">
+        <v>13</v>
+      </c>
+      <c r="E946" t="s">
+        <v>10</v>
+      </c>
+      <c r="F946">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17126,10 +19838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17897,13 +20609,121 @@
         <v>341</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <f>SUM('Weekly Points'!F812:F826)+C56</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <f>SUM('Weekly Points'!F827:F841)+C57</f>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <f>SUM('Weekly Points'!F842:F856)+C58</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <f>SUM('Weekly Points'!F857:F871)+C59</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <f>SUM('Weekly Points'!F872:F886)+C60</f>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <f>SUM('Weekly Points'!F887:F901)+C61</f>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <f>SUM('Weekly Points'!F902:F916)+C62</f>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <f>SUM('Weekly Points'!F917:F931)+C63</f>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <f>SUM('Weekly Points'!F932:F946)+C64</f>
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:I10">
     <sortCondition descending="1" ref="I2:I10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C11:C19 C20:C28 C29:C36 C37:C46 C47:C55 C56:C64" formulaRange="1"/>
+    <ignoredError sqref="C11:C19 C20:C28 C29:C36 C37:C46 C47:C55 C56:C64 C65:C70" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Trust Me Im a Cat.xlsx
+++ b/Trust Me Im a Cat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\Trust_me_Im_a_Cat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF537A-53FC-4A76-A5D0-27CA4FDCF394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B75ED45-5FCA-4D05-B94D-A7AD353E0623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3861" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="163">
   <si>
     <t>Gameweek</t>
   </si>
@@ -897,13 +897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F946"/>
+  <dimension ref="A1:F1081"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B923" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B958" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F945" sqref="F945"/>
+      <selection pane="bottomRight" activeCell="A962" sqref="A962:F976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19831,6 +19831,2706 @@
         <v>0</v>
       </c>
     </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>8</v>
+      </c>
+      <c r="B947" t="s">
+        <v>51</v>
+      </c>
+      <c r="C947" t="s">
+        <v>77</v>
+      </c>
+      <c r="D947" t="s">
+        <v>14</v>
+      </c>
+      <c r="E947" t="s">
+        <v>7</v>
+      </c>
+      <c r="F947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>8</v>
+      </c>
+      <c r="B948" t="s">
+        <v>51</v>
+      </c>
+      <c r="C948" t="s">
+        <v>127</v>
+      </c>
+      <c r="D948" t="s">
+        <v>27</v>
+      </c>
+      <c r="E948" t="s">
+        <v>7</v>
+      </c>
+      <c r="F948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>8</v>
+      </c>
+      <c r="B949" t="s">
+        <v>51</v>
+      </c>
+      <c r="C949" t="s">
+        <v>136</v>
+      </c>
+      <c r="D949" t="s">
+        <v>11</v>
+      </c>
+      <c r="E949" t="s">
+        <v>8</v>
+      </c>
+      <c r="F949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>8</v>
+      </c>
+      <c r="B950" t="s">
+        <v>51</v>
+      </c>
+      <c r="C950" t="s">
+        <v>30</v>
+      </c>
+      <c r="D950" t="s">
+        <v>14</v>
+      </c>
+      <c r="E950" t="s">
+        <v>8</v>
+      </c>
+      <c r="F950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>8</v>
+      </c>
+      <c r="B951" t="s">
+        <v>51</v>
+      </c>
+      <c r="C951" t="s">
+        <v>128</v>
+      </c>
+      <c r="D951" t="s">
+        <v>33</v>
+      </c>
+      <c r="E951" t="s">
+        <v>8</v>
+      </c>
+      <c r="F951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>8</v>
+      </c>
+      <c r="B952" t="s">
+        <v>51</v>
+      </c>
+      <c r="C952" t="s">
+        <v>129</v>
+      </c>
+      <c r="D952" t="s">
+        <v>15</v>
+      </c>
+      <c r="E952" t="s">
+        <v>8</v>
+      </c>
+      <c r="F952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>8</v>
+      </c>
+      <c r="B953" t="s">
+        <v>51</v>
+      </c>
+      <c r="C953" t="s">
+        <v>36</v>
+      </c>
+      <c r="D953" t="s">
+        <v>39</v>
+      </c>
+      <c r="E953" t="s">
+        <v>8</v>
+      </c>
+      <c r="F953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>8</v>
+      </c>
+      <c r="B954" t="s">
+        <v>51</v>
+      </c>
+      <c r="C954" t="s">
+        <v>157</v>
+      </c>
+      <c r="D954" t="s">
+        <v>12</v>
+      </c>
+      <c r="E954" t="s">
+        <v>9</v>
+      </c>
+      <c r="F954">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>8</v>
+      </c>
+      <c r="B955" t="s">
+        <v>51</v>
+      </c>
+      <c r="C955" t="s">
+        <v>41</v>
+      </c>
+      <c r="D955" t="s">
+        <v>42</v>
+      </c>
+      <c r="E955" t="s">
+        <v>9</v>
+      </c>
+      <c r="F955">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>8</v>
+      </c>
+      <c r="B956" t="s">
+        <v>51</v>
+      </c>
+      <c r="C956" t="s">
+        <v>64</v>
+      </c>
+      <c r="D956" t="s">
+        <v>33</v>
+      </c>
+      <c r="E956" t="s">
+        <v>9</v>
+      </c>
+      <c r="F956">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>8</v>
+      </c>
+      <c r="B957" t="s">
+        <v>51</v>
+      </c>
+      <c r="C957" t="s">
+        <v>72</v>
+      </c>
+      <c r="D957" t="s">
+        <v>14</v>
+      </c>
+      <c r="E957" t="s">
+        <v>9</v>
+      </c>
+      <c r="F957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>8</v>
+      </c>
+      <c r="B958" t="s">
+        <v>51</v>
+      </c>
+      <c r="C958" t="s">
+        <v>67</v>
+      </c>
+      <c r="D958" t="s">
+        <v>63</v>
+      </c>
+      <c r="E958" t="s">
+        <v>9</v>
+      </c>
+      <c r="F958">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>8</v>
+      </c>
+      <c r="B959" t="s">
+        <v>51</v>
+      </c>
+      <c r="C959" t="s">
+        <v>25</v>
+      </c>
+      <c r="D959" t="s">
+        <v>18</v>
+      </c>
+      <c r="E959" t="s">
+        <v>10</v>
+      </c>
+      <c r="F959">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>8</v>
+      </c>
+      <c r="B960" t="s">
+        <v>51</v>
+      </c>
+      <c r="C960" t="s">
+        <v>65</v>
+      </c>
+      <c r="D960" t="s">
+        <v>66</v>
+      </c>
+      <c r="E960" t="s">
+        <v>10</v>
+      </c>
+      <c r="F960">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>8</v>
+      </c>
+      <c r="B961" t="s">
+        <v>51</v>
+      </c>
+      <c r="C961" t="s">
+        <v>109</v>
+      </c>
+      <c r="D961" t="s">
+        <v>16</v>
+      </c>
+      <c r="E961" t="s">
+        <v>10</v>
+      </c>
+      <c r="F961">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>8</v>
+      </c>
+      <c r="B962" t="s">
+        <v>6</v>
+      </c>
+      <c r="C962" t="s">
+        <v>150</v>
+      </c>
+      <c r="D962" t="s">
+        <v>151</v>
+      </c>
+      <c r="E962" t="s">
+        <v>7</v>
+      </c>
+      <c r="F962">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>8</v>
+      </c>
+      <c r="B963" t="s">
+        <v>6</v>
+      </c>
+      <c r="C963" t="s">
+        <v>152</v>
+      </c>
+      <c r="D963" t="s">
+        <v>17</v>
+      </c>
+      <c r="E963" t="s">
+        <v>7</v>
+      </c>
+      <c r="F963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>8</v>
+      </c>
+      <c r="B964" t="s">
+        <v>6</v>
+      </c>
+      <c r="C964" t="s">
+        <v>30</v>
+      </c>
+      <c r="D964" t="s">
+        <v>14</v>
+      </c>
+      <c r="E964" t="s">
+        <v>8</v>
+      </c>
+      <c r="F964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>8</v>
+      </c>
+      <c r="B965" t="s">
+        <v>6</v>
+      </c>
+      <c r="C965" t="s">
+        <v>137</v>
+      </c>
+      <c r="D965" t="s">
+        <v>44</v>
+      </c>
+      <c r="E965" t="s">
+        <v>8</v>
+      </c>
+      <c r="F965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>8</v>
+      </c>
+      <c r="B966" t="s">
+        <v>6</v>
+      </c>
+      <c r="C966" t="s">
+        <v>119</v>
+      </c>
+      <c r="D966" t="s">
+        <v>12</v>
+      </c>
+      <c r="E966" t="s">
+        <v>8</v>
+      </c>
+      <c r="F966">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>8</v>
+      </c>
+      <c r="B967" t="s">
+        <v>6</v>
+      </c>
+      <c r="C967" t="s">
+        <v>154</v>
+      </c>
+      <c r="D967" t="s">
+        <v>66</v>
+      </c>
+      <c r="E967" t="s">
+        <v>8</v>
+      </c>
+      <c r="F967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>8</v>
+      </c>
+      <c r="B968" t="s">
+        <v>6</v>
+      </c>
+      <c r="C968" t="s">
+        <v>109</v>
+      </c>
+      <c r="D968" t="s">
+        <v>11</v>
+      </c>
+      <c r="E968" t="s">
+        <v>8</v>
+      </c>
+      <c r="F968">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>8</v>
+      </c>
+      <c r="B969" t="s">
+        <v>6</v>
+      </c>
+      <c r="C969" t="s">
+        <v>155</v>
+      </c>
+      <c r="D969" t="s">
+        <v>17</v>
+      </c>
+      <c r="E969" t="s">
+        <v>9</v>
+      </c>
+      <c r="F969">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>8</v>
+      </c>
+      <c r="B970" t="s">
+        <v>6</v>
+      </c>
+      <c r="C970" t="s">
+        <v>41</v>
+      </c>
+      <c r="D970" t="s">
+        <v>42</v>
+      </c>
+      <c r="E970" t="s">
+        <v>9</v>
+      </c>
+      <c r="F970">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>8</v>
+      </c>
+      <c r="B971" t="s">
+        <v>6</v>
+      </c>
+      <c r="C971" t="s">
+        <v>80</v>
+      </c>
+      <c r="D971" t="s">
+        <v>11</v>
+      </c>
+      <c r="E971" t="s">
+        <v>9</v>
+      </c>
+      <c r="F971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>8</v>
+      </c>
+      <c r="B972" t="s">
+        <v>6</v>
+      </c>
+      <c r="C972" t="s">
+        <v>156</v>
+      </c>
+      <c r="D972" t="s">
+        <v>27</v>
+      </c>
+      <c r="E972" t="s">
+        <v>9</v>
+      </c>
+      <c r="F972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>8</v>
+      </c>
+      <c r="B973" t="s">
+        <v>6</v>
+      </c>
+      <c r="C973" t="s">
+        <v>99</v>
+      </c>
+      <c r="D973" t="s">
+        <v>42</v>
+      </c>
+      <c r="E973" t="s">
+        <v>9</v>
+      </c>
+      <c r="F973">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>8</v>
+      </c>
+      <c r="B974" t="s">
+        <v>6</v>
+      </c>
+      <c r="C974" t="s">
+        <v>132</v>
+      </c>
+      <c r="D974" t="s">
+        <v>15</v>
+      </c>
+      <c r="E974" t="s">
+        <v>10</v>
+      </c>
+      <c r="F974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>8</v>
+      </c>
+      <c r="B975" t="s">
+        <v>6</v>
+      </c>
+      <c r="C975" t="s">
+        <v>25</v>
+      </c>
+      <c r="D975" t="s">
+        <v>18</v>
+      </c>
+      <c r="E975" t="s">
+        <v>10</v>
+      </c>
+      <c r="F975">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>8</v>
+      </c>
+      <c r="B976" t="s">
+        <v>6</v>
+      </c>
+      <c r="C976" t="s">
+        <v>125</v>
+      </c>
+      <c r="D976" t="s">
+        <v>14</v>
+      </c>
+      <c r="E976" t="s">
+        <v>10</v>
+      </c>
+      <c r="F976">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>8</v>
+      </c>
+      <c r="B977" t="s">
+        <v>52</v>
+      </c>
+      <c r="C977" t="s">
+        <v>59</v>
+      </c>
+      <c r="D977" t="s">
+        <v>13</v>
+      </c>
+      <c r="E977" t="s">
+        <v>7</v>
+      </c>
+      <c r="F977">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>8</v>
+      </c>
+      <c r="B978" t="s">
+        <v>52</v>
+      </c>
+      <c r="C978" t="s">
+        <v>68</v>
+      </c>
+      <c r="D978" t="s">
+        <v>29</v>
+      </c>
+      <c r="E978" t="s">
+        <v>7</v>
+      </c>
+      <c r="F978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>8</v>
+      </c>
+      <c r="B979" t="s">
+        <v>52</v>
+      </c>
+      <c r="C979" t="s">
+        <v>69</v>
+      </c>
+      <c r="D979" t="s">
+        <v>44</v>
+      </c>
+      <c r="E979" t="s">
+        <v>8</v>
+      </c>
+      <c r="F979">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>8</v>
+      </c>
+      <c r="B980" t="s">
+        <v>52</v>
+      </c>
+      <c r="C980" t="s">
+        <v>70</v>
+      </c>
+      <c r="D980" t="s">
+        <v>66</v>
+      </c>
+      <c r="E980" t="s">
+        <v>8</v>
+      </c>
+      <c r="F980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>8</v>
+      </c>
+      <c r="B981" t="s">
+        <v>52</v>
+      </c>
+      <c r="C981" t="s">
+        <v>71</v>
+      </c>
+      <c r="D981" t="s">
+        <v>27</v>
+      </c>
+      <c r="E981" t="s">
+        <v>8</v>
+      </c>
+      <c r="F981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>8</v>
+      </c>
+      <c r="B982" t="s">
+        <v>52</v>
+      </c>
+      <c r="C982" t="s">
+        <v>36</v>
+      </c>
+      <c r="D982" t="s">
+        <v>39</v>
+      </c>
+      <c r="E982" t="s">
+        <v>8</v>
+      </c>
+      <c r="F982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>8</v>
+      </c>
+      <c r="B983" t="s">
+        <v>52</v>
+      </c>
+      <c r="C983" t="s">
+        <v>31</v>
+      </c>
+      <c r="D983" t="s">
+        <v>18</v>
+      </c>
+      <c r="E983" t="s">
+        <v>8</v>
+      </c>
+      <c r="F983">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>8</v>
+      </c>
+      <c r="B984" t="s">
+        <v>52</v>
+      </c>
+      <c r="C984" t="s">
+        <v>72</v>
+      </c>
+      <c r="D984" t="s">
+        <v>14</v>
+      </c>
+      <c r="E984" t="s">
+        <v>9</v>
+      </c>
+      <c r="F984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>8</v>
+      </c>
+      <c r="B985" t="s">
+        <v>52</v>
+      </c>
+      <c r="C985" t="s">
+        <v>73</v>
+      </c>
+      <c r="D985" t="s">
+        <v>44</v>
+      </c>
+      <c r="E985" t="s">
+        <v>9</v>
+      </c>
+      <c r="F985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>8</v>
+      </c>
+      <c r="B986" t="s">
+        <v>52</v>
+      </c>
+      <c r="C986" t="s">
+        <v>74</v>
+      </c>
+      <c r="D986" t="s">
+        <v>13</v>
+      </c>
+      <c r="E986" t="s">
+        <v>9</v>
+      </c>
+      <c r="F986">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>8</v>
+      </c>
+      <c r="B987" t="s">
+        <v>52</v>
+      </c>
+      <c r="C987" t="s">
+        <v>75</v>
+      </c>
+      <c r="D987" t="s">
+        <v>42</v>
+      </c>
+      <c r="E987" t="s">
+        <v>9</v>
+      </c>
+      <c r="F987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>8</v>
+      </c>
+      <c r="B988" t="s">
+        <v>52</v>
+      </c>
+      <c r="C988" t="s">
+        <v>76</v>
+      </c>
+      <c r="D988" t="s">
+        <v>27</v>
+      </c>
+      <c r="E988" t="s">
+        <v>9</v>
+      </c>
+      <c r="F988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>8</v>
+      </c>
+      <c r="B989" t="s">
+        <v>52</v>
+      </c>
+      <c r="C989" t="s">
+        <v>25</v>
+      </c>
+      <c r="D989" t="s">
+        <v>18</v>
+      </c>
+      <c r="E989" t="s">
+        <v>10</v>
+      </c>
+      <c r="F989">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>8</v>
+      </c>
+      <c r="B990" t="s">
+        <v>52</v>
+      </c>
+      <c r="C990" t="s">
+        <v>148</v>
+      </c>
+      <c r="D990" t="s">
+        <v>12</v>
+      </c>
+      <c r="E990" t="s">
+        <v>10</v>
+      </c>
+      <c r="F990">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A991">
+        <v>8</v>
+      </c>
+      <c r="B991" t="s">
+        <v>52</v>
+      </c>
+      <c r="C991" t="s">
+        <v>132</v>
+      </c>
+      <c r="D991" t="s">
+        <v>15</v>
+      </c>
+      <c r="E991" t="s">
+        <v>10</v>
+      </c>
+      <c r="F991">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A992">
+        <v>8</v>
+      </c>
+      <c r="B992" t="s">
+        <v>53</v>
+      </c>
+      <c r="C992" t="s">
+        <v>77</v>
+      </c>
+      <c r="D992" t="s">
+        <v>14</v>
+      </c>
+      <c r="E992" t="s">
+        <v>7</v>
+      </c>
+      <c r="F992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A993">
+        <v>8</v>
+      </c>
+      <c r="B993" t="s">
+        <v>53</v>
+      </c>
+      <c r="C993" t="s">
+        <v>78</v>
+      </c>
+      <c r="D993" t="s">
+        <v>13</v>
+      </c>
+      <c r="E993" t="s">
+        <v>7</v>
+      </c>
+      <c r="F993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A994">
+        <v>8</v>
+      </c>
+      <c r="B994" t="s">
+        <v>53</v>
+      </c>
+      <c r="C994" t="s">
+        <v>31</v>
+      </c>
+      <c r="D994" t="s">
+        <v>18</v>
+      </c>
+      <c r="E994" t="s">
+        <v>8</v>
+      </c>
+      <c r="F994">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A995">
+        <v>8</v>
+      </c>
+      <c r="B995" t="s">
+        <v>53</v>
+      </c>
+      <c r="C995" t="s">
+        <v>69</v>
+      </c>
+      <c r="D995" t="s">
+        <v>44</v>
+      </c>
+      <c r="E995" t="s">
+        <v>8</v>
+      </c>
+      <c r="F995">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A996">
+        <v>8</v>
+      </c>
+      <c r="B996" t="s">
+        <v>53</v>
+      </c>
+      <c r="C996" t="s">
+        <v>32</v>
+      </c>
+      <c r="D996" t="s">
+        <v>33</v>
+      </c>
+      <c r="E996" t="s">
+        <v>8</v>
+      </c>
+      <c r="F996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A997">
+        <v>8</v>
+      </c>
+      <c r="B997" t="s">
+        <v>53</v>
+      </c>
+      <c r="C997" t="s">
+        <v>119</v>
+      </c>
+      <c r="D997" t="s">
+        <v>12</v>
+      </c>
+      <c r="E997" t="s">
+        <v>8</v>
+      </c>
+      <c r="F997">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A998">
+        <v>8</v>
+      </c>
+      <c r="B998" t="s">
+        <v>53</v>
+      </c>
+      <c r="C998" t="s">
+        <v>79</v>
+      </c>
+      <c r="D998" t="s">
+        <v>33</v>
+      </c>
+      <c r="E998" t="s">
+        <v>8</v>
+      </c>
+      <c r="F998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A999">
+        <v>8</v>
+      </c>
+      <c r="B999" t="s">
+        <v>53</v>
+      </c>
+      <c r="C999" t="s">
+        <v>41</v>
+      </c>
+      <c r="D999" t="s">
+        <v>42</v>
+      </c>
+      <c r="E999" t="s">
+        <v>9</v>
+      </c>
+      <c r="F999">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>8</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1000">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <v>8</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1002">
+        <v>8</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1002">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <v>8</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1003">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1004">
+        <v>8</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1004">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <v>8</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1005">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>8</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>8</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>8</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <v>8</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1009">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <v>8</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1011">
+        <v>8</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1012">
+        <v>8</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1013">
+        <v>8</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1014">
+        <v>8</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1014">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1015">
+        <v>8</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1015">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1016">
+        <v>8</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1016">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1017">
+        <v>8</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1017">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1018">
+        <v>8</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1019">
+        <v>8</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1019">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>8</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1020">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>8</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1021">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>8</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1022">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>8</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1023">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>8</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1024">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>8</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1025">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>8</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1026">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>8</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1027">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>8</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1028">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>8</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1029">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>8</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1030">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1031">
+        <v>8</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1031">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>8</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1032">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>8</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1033">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>8</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1034">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>8</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1036">
+        <v>8</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1036">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1037">
+        <v>8</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1037">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1038">
+        <v>8</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1038">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1039">
+        <v>8</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1040">
+        <v>8</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1040">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1041">
+        <v>8</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1041">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1042">
+        <v>8</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1042">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1043">
+        <v>8</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1044">
+        <v>8</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1044">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1045">
+        <v>8</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1045">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1046">
+        <v>8</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1047">
+        <v>8</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1048">
+        <v>8</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1049">
+        <v>8</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1049">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1050">
+        <v>8</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>8</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1051">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>8</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1053">
+        <v>8</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1054">
+        <v>8</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1055">
+        <v>8</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1055">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1056">
+        <v>8</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1057">
+        <v>8</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1057">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1058">
+        <v>8</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1058">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059">
+        <v>8</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1059">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060">
+        <v>8</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1061">
+        <v>8</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1062">
+        <v>8</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1063">
+        <v>8</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1064">
+        <v>8</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1064">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1065">
+        <v>8</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1065">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1066">
+        <v>8</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1066">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067">
+        <v>8</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1067">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1068">
+        <v>8</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1068">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069">
+        <v>8</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1069">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070">
+        <v>8</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071">
+        <v>8</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072">
+        <v>8</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1072">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1073">
+        <v>8</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>8</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1075">
+        <v>8</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1075">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>8</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>8</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1077">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>8</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>8</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1079">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>8</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1080">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>8</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1081">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19838,10 +22538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20717,13 +23417,121 @@
         <v>390</v>
       </c>
     </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <f>SUM('Weekly Points'!F947:F961)+C65</f>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <f>SUM('Weekly Points'!F962:F976)+C66</f>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <f>SUM('Weekly Points'!F977:F991)+C67</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <f>SUM('Weekly Points'!F992:F1006)+C68</f>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <f>SUM('Weekly Points'!F1007:F1021)+C69</f>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <f>SUM('Weekly Points'!F1022:F1036)+C70</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <f>SUM('Weekly Points'!F1037:F1051)+C71</f>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <f>SUM('Weekly Points'!F1052:F1066)+C72</f>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <f>SUM('Weekly Points'!F1067:F1081)+C73</f>
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:I10">
     <sortCondition descending="1" ref="I2:I10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C11:C19 C20:C28 C29:C36 C37:C46 C47:C55 C56:C64 C65:C70" formulaRange="1"/>
+    <ignoredError sqref="C11:C19 C20:C28 C29:C36 C37:C46 C47:C55 C56:C64 C65:C70 C71:C82" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>